--- a/Salarios.xlsx
+++ b/Salarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D72D4E-7B7C-4757-972E-381B2B6383D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328E1C3C-A29E-4796-B427-BC9F7C07F1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -81,9 +81,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +110,22 @@
       <name val="Montserrat"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Montserrat Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,12 +134,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -133,11 +153,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -148,132 +233,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="dd/mm/\y\y\y\y"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Montserrat"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -284,19 +273,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50FAB962-9B31-4298-ABA3-8A7B8B9C9F5B}" name="Tabla3" displayName="Tabla3" ref="B4:F81" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{06D80863-A3AD-4C22-85BC-05BA2DFB088C}" name="Periodo" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{60052B64-29B6-4A81-94B4-6B103416241B}" name="Índice real" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{03726D84-8347-4B13-A8CA-CF2114774D7A}" name="Pesos por día" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{0BDA1396-70E3-4AB0-B259-0CDD2B2DF995}" name="Incremento porcentual_x000a_anual, mes/mes" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{A3AC605D-29FF-48E7-84A8-A71373DA1416}" name="Incremento salarial _x000a_contractual (%)" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:N86"/>
+  <dimension ref="A2:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -542,7 +518,7 @@
     <col min="14" max="14" width="8.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -559,7 +535,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -574,1333 +550,1331 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5">
         <v>45413</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>216.4494</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>248.93</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>9.4712077959391294</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>9.2162299999999995</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="5">
+    </row>
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6">
         <v>45383</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>216.04820000000001</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>248.93</v>
       </c>
       <c r="E6" s="10">
         <v>9.6363148050862879</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>7.6285299999999996</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="4">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="5">
         <v>45352</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>216.48490000000001</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>248.93</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>9.877974082470665</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>9.1603100000000008</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="6">
         <v>45323</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>217.10679999999999</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <v>248.93</v>
       </c>
       <c r="E8" s="10">
         <v>10.128177295814877</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="11">
         <v>8.4567200000000007</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="5">
         <v>45292</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>217.3116</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>248.93</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>10.445541700127524</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>7.9013200000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="6">
         <v>45261</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <v>182.70859999999999</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="10">
         <v>207.44</v>
       </c>
       <c r="E10" s="10">
         <v>10.525527026429549</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="11">
         <v>9.4565099999999997</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="5">
         <v>45231</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>183.99850000000001</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>207.44</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>10.600337846674556</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>11.557779999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="5">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="6">
         <v>45200</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="10">
         <v>185.17619999999999</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="10">
         <v>207.44</v>
       </c>
       <c r="E12" s="10">
         <v>10.75781505813298</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="11">
         <v>5.87758</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="5">
         <v>45170</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>185.87209999999999</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>207.44</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>10.730900115286657</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>5.06853</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="5">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="6">
         <v>45139</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="10">
         <v>186.69710000000001</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="10">
         <v>207.44</v>
       </c>
       <c r="E14" s="10">
         <v>10.557782826178386</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="11">
         <v>8.5508000000000006</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="5">
         <v>45108</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>187.7304</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>207.44</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>10.584865689848266</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>8.8868299999999998</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="5">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="6">
         <v>45078</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="10">
         <v>188.6353</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="10">
         <v>207.44</v>
       </c>
       <c r="E16" s="10">
         <v>11.24794836198264</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="11">
         <v>7.8830099999999996</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>45047</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>188.82669999999999</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>207.44</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <v>11.289402261233805</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>8.8381900000000009</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>45017</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="10">
         <v>188.41630000000001</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="10">
         <v>207.44</v>
       </c>
       <c r="E18" s="10">
         <v>11.238302906502851</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="11">
         <v>10.018739999999999</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>44986</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>188.37809999999999</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>207.44</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="8">
         <v>11.181872421901872</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>9.5111500000000007</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <v>44958</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="10">
         <v>188.8828</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="10">
         <v>207.44</v>
       </c>
       <c r="E20" s="10">
         <v>11.218853887600023</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="11">
         <v>8.4645399999999995</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="4">
+      <c r="B21" s="5">
         <v>44927</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>189.9359</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>207.44</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="8">
         <v>11.229977483897336</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>10.203760000000001</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <v>44896</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="10">
         <v>159.35679999999999</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="10">
         <v>172.87</v>
       </c>
       <c r="E22" s="10">
         <v>10.965653953382425</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="11">
         <v>8.9062999999999999</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="4">
+      <c r="B23" s="5">
         <v>44866</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>159.96510000000001</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>172.87</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="8">
         <v>10.995255372919743</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>8.3648600000000002</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="5">
+      <c r="B24" s="6">
         <v>44835</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="10">
         <v>160.88579999999999</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="10">
         <v>172.87</v>
       </c>
       <c r="E24" s="10">
         <v>11.103610268047937</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="11">
         <v>4.5225999999999997</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="4">
+      <c r="B25" s="5">
         <v>44805</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>161.7963</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>172.87</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="8">
         <v>11.252030265190239</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>7.7671099999999997</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="5">
+      <c r="B26" s="6">
         <v>44774</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="10">
         <v>162.80000000000001</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="10">
         <v>172.87</v>
       </c>
       <c r="E26" s="10">
         <v>11.539750760499</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="11">
         <v>5.0429000000000004</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="4">
+      <c r="B27" s="5">
         <v>44743</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>163.93209999999999</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>172.87</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <v>11.478780639073349</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>9.5525300000000009</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="5">
+      <c r="B28" s="6">
         <v>44713</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="10">
         <v>165.1464</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="10">
         <v>172.87</v>
       </c>
       <c r="E28" s="10">
         <v>11.1312009332174</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="11">
         <v>6.7259200000000003</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="4">
+      <c r="B29" s="5">
         <v>44682</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>166.541</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>172.87</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="8">
         <v>10.926384520847442</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>8.8021700000000003</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="5">
+      <c r="B30" s="6">
         <v>44652</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="10">
         <v>166.83459999999999</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="10">
         <v>172.87</v>
       </c>
       <c r="E30" s="10">
         <v>10.820973830220426</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="11">
         <v>5.7584099999999996</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="4">
+      <c r="B31" s="5">
         <v>44621</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>167.7371</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>172.87</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="8">
         <v>10.537379166203898</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>8.8308599999999995</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="5">
+      <c r="B32" s="6">
         <v>44593</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="10">
         <v>169.39779999999999</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="10">
         <v>172.87</v>
       </c>
       <c r="E32" s="10">
         <v>9.4754731203904097</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="11">
         <v>6.8888299999999996</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="4">
+      <c r="B33" s="5">
         <v>44562</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>170.8032</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>172.87</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="8">
         <v>8.858127860430498</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="9">
         <v>5.6387499999999999</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="5">
+      <c r="B34" s="6">
         <v>44531</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="10">
         <v>140.83420000000001</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="10">
         <v>141.69999999999999</v>
       </c>
       <c r="E34" s="10">
         <v>7.4876456534687996</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="11">
         <v>5.6811499999999997</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="4">
+      <c r="B35" s="5">
         <v>44501</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>141.3451</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="8">
         <v>7.4221022634149536</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <v>5.46685</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="5">
+      <c r="B36" s="6">
         <v>44470</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="10">
         <v>142.9632</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="10">
         <v>141.69999999999999</v>
       </c>
       <c r="E36" s="10">
         <v>7.4943963321753237</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="11">
         <v>4.3498400000000004</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="4">
+      <c r="B37" s="5">
         <v>44440</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>144.16079999999999</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="8">
         <v>7.2551848428966892</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="9">
         <v>6.5983599999999996</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="5">
+      <c r="B38" s="6">
         <v>44409</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="10">
         <v>145.04929999999999</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="10">
         <v>141.69999999999999</v>
       </c>
       <c r="E38" s="10">
         <v>7.4497652308630036</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="11">
         <v>5.70878</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="4">
+      <c r="B39" s="5">
         <v>44378</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>145.3262</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="8">
         <v>7.4547280745579148</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="9">
         <v>5.6227299999999998</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="5">
+      <c r="B40" s="6">
         <v>44348</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="10">
         <v>146.18</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="10">
         <v>141.69999999999999</v>
       </c>
       <c r="E40" s="10">
         <v>6.0634394773699363</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="11">
         <v>5.6012399999999998</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="4">
+      <c r="B41" s="5">
         <v>44317</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>146.9589</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="8">
         <v>6.1525731513115467</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="9">
         <v>4.5034099999999997</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="5">
+      <c r="B42" s="6">
         <v>44287</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="10">
         <v>147.25890000000001</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="10">
         <v>141.69999999999999</v>
       </c>
       <c r="E42" s="10">
         <v>5.9561618976688102</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="11">
         <v>5.6467400000000003</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="4">
+      <c r="B43" s="5">
         <v>44256</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>147.74090000000001</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="8">
         <v>7.0554176776254529</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="9">
         <v>5.7310600000000003</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="5">
+      <c r="B44" s="6">
         <v>44228</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="10">
         <v>148.9624</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="10">
         <v>141.69999999999999</v>
       </c>
       <c r="E44" s="10">
         <v>8.0704931821570227</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="11">
         <v>4.4228899999999998</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="4">
+      <c r="B45" s="5">
         <v>44197</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>149.90450000000001</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="8">
         <v>8.2269715580314706</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="9">
         <v>3.8172199999999998</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="5">
+      <c r="B46" s="6">
         <v>44166</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="10">
         <v>131.47470000000001</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="10">
         <v>123.22</v>
       </c>
       <c r="E46" s="10">
         <v>7.8999918968648553</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="11">
         <v>6.7025100000000002</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="4">
+      <c r="B47" s="5">
         <v>44136</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>131.9759</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>123.22</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="8">
         <v>7.9355051734412374</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="9">
         <v>5.1872999999999996</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="5">
+      <c r="B48" s="6">
         <v>44105</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="10">
         <v>132.0754</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="10">
         <v>123.22</v>
       </c>
       <c r="E48" s="10">
         <v>7.667215188304155</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="11">
         <v>4.2006399999999999</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="4">
+      <c r="B49" s="5">
         <v>44075</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>132.8817</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>123.22</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="8">
         <v>7.572928895459996</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="9">
         <v>4.3477100000000002</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B50" s="5">
+      <c r="B50" s="6">
         <v>44044</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="10">
         <v>133.18600000000001</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="10">
         <v>123.22</v>
       </c>
       <c r="E50" s="10">
         <v>6.4420399377693061</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="11">
         <v>4.3611000000000004</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" s="4">
+      <c r="B51" s="5">
         <v>44013</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>133.71029999999999</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>123.22</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="8">
         <v>6.4297547455233861</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="9">
         <v>6.7050200000000002</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B52" s="5">
+      <c r="B52" s="6">
         <v>43983</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="10">
         <v>134.58840000000001</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="10">
         <v>123.22</v>
       </c>
       <c r="E52" s="10">
         <v>8.1367830039574827</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="11">
         <v>4.9153900000000004</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B53" s="4">
+      <c r="B53" s="5">
         <v>43952</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>135.32499999999999</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="8">
         <v>123.22</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="8">
         <v>8.087887794221249</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="9">
         <v>4.99268</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B54" s="5">
+      <c r="B54" s="6">
         <v>43922</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="10">
         <v>135.8458</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="10">
         <v>123.22</v>
       </c>
       <c r="E54" s="10">
         <v>8.0053110638582439</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="11">
         <v>5.6751199999999997</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B55" s="4">
+      <c r="B55" s="5">
         <v>43891</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <v>134.46870000000001</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="8">
         <v>123.22</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="8">
         <v>7.0924734355956254</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="9">
         <v>5.7827799999999998</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B56" s="5">
+      <c r="B56" s="6">
         <v>43862</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="10">
         <v>134.40459999999999</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="10">
         <v>123.22</v>
       </c>
       <c r="E56" s="10">
         <v>6.4306785406937461</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="11">
         <v>5.6176599999999999</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B57" s="4">
+      <c r="B57" s="5">
         <v>43831</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>134.96270000000001</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="8">
         <v>123.22</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="8">
         <v>6.4211541409388229</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="9">
         <v>5.1429299999999998</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B58" s="5">
+      <c r="B58" s="6">
         <v>43800</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="10">
         <v>113.0099</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="10">
         <v>102.68</v>
       </c>
       <c r="E58" s="10">
         <v>6.7128637984119832</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="11">
         <v>5.8932900000000004</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B59" s="4">
+      <c r="B59" s="5">
         <v>43770</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>113.64060000000001</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="8">
         <v>102.68</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="8">
         <v>6.5416981673249053</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="9">
         <v>5.9055099999999996</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B60" s="5">
+      <c r="B60" s="6">
         <v>43739</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="10">
         <v>114.5573</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="10">
         <v>102.68</v>
       </c>
       <c r="E60" s="10">
         <v>6.4472883165934025</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="11">
         <v>4.1060999999999996</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B61" s="4">
+      <c r="B61" s="5">
         <v>43709</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <v>115.1756</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="8">
         <v>102.68</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="8">
         <v>6.4399213093690122</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="9">
         <v>6.1267500000000004</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B62" s="5">
+      <c r="B62" s="6">
         <v>43678</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="10">
         <v>115.4778</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="10">
         <v>102.68</v>
       </c>
       <c r="E62" s="10">
         <v>6.6044306496492178</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="11">
         <v>4.6333599999999997</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B63" s="4">
+      <c r="B63" s="5">
         <v>43647</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <v>115.4589</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="8">
         <v>102.68</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="8">
         <v>6.5149948776746625</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="9">
         <v>5.6531700000000003</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B64" s="5">
+      <c r="B64" s="6">
         <v>43617</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="10">
         <v>115.8926</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="10">
         <v>102.68</v>
       </c>
       <c r="E64" s="10">
         <v>6.5571792302960175</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="11">
         <v>7.4020799999999998</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B65" s="4">
+      <c r="B65" s="5">
         <v>43586</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="8">
         <v>115.9667</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="8">
         <v>102.68</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="8">
         <v>6.6877554429744412</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="9">
         <v>6.1700699999999999</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B66" s="5">
+      <c r="B66" s="6">
         <v>43556</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="10">
         <v>115.63290000000001</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="10">
         <v>102.68</v>
       </c>
       <c r="E66" s="10">
         <v>6.9657750632007742</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="11">
         <v>5.08446</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B67" s="4">
+      <c r="B67" s="5">
         <v>43525</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="8">
         <v>115.6943</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="8">
         <v>102.68</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="8">
         <v>6.7325048800213505</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F67" s="9">
         <v>6.7683299999999997</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B68" s="5">
+      <c r="B68" s="6">
         <v>43497</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="10">
         <v>116.1399</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="10">
         <v>102.68</v>
       </c>
       <c r="E68" s="10">
         <v>6.9307872714849283</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="11">
         <v>6.3011699999999999</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B69" s="4">
+      <c r="B69" s="5">
         <v>43466</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="8">
         <v>116.10720000000001</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="8">
         <v>102.68</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="8">
         <v>6.941530195558232</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F69" s="9">
         <v>5.2492299999999998</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B70" s="5">
+      <c r="B70" s="6">
         <v>43435</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="10">
         <v>100</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="10">
         <v>88.36</v>
       </c>
       <c r="E70" s="10">
         <v>5.3789897305661416</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F70" s="11">
         <v>6.6267500000000004</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B71" s="4">
+      <c r="B71" s="5">
         <v>43405</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <v>100.7009</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="8">
         <v>88.36</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="8">
         <v>5.9138870881875416</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="9">
         <v>5.2983399999999996</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B72" s="5">
+      <c r="B72" s="6">
         <v>43374</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="10">
         <v>101.55759999999999</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="10">
         <v>88.36</v>
       </c>
       <c r="E72" s="10">
         <v>5.8335904693498586</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="11">
         <v>3.8095400000000001</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B73" s="4">
+      <c r="B73" s="5">
         <v>43344</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="8">
         <v>102.0839</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="8">
         <v>88.36</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="8">
         <v>5.8410211118133493</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="9">
         <v>5.7895099999999999</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B74" s="5">
+      <c r="B74" s="6">
         <v>43313</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="10">
         <v>102.51560000000001</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="10">
         <v>88.36</v>
       </c>
       <c r="E74" s="10">
         <v>5.9201670859141631</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F74" s="11">
         <v>5.9572500000000002</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B75" s="4">
+      <c r="B75" s="5">
         <v>43282</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="8">
         <v>103.11369999999999</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="8">
         <v>88.36</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="8">
         <v>5.9473467068114516</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F75" s="9">
         <v>6.0968299999999997</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B76" s="5">
+      <c r="B76" s="6">
         <v>43252</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="10">
         <v>103.6664</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="10">
         <v>88.36</v>
       </c>
       <c r="E76" s="10">
         <v>5.7562832517160434</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F76" s="11">
         <v>4.5519999999999996</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B77" s="4">
+      <c r="B77" s="5">
         <v>43221</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <v>104.0668</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="8">
         <v>88.36</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="8">
         <v>5.433721276431358</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F77" s="9">
         <v>6.0502200000000004</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B78" s="5">
+      <c r="B78" s="6">
         <v>43191</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="10">
         <v>103.8981</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="10">
         <v>88.36</v>
       </c>
       <c r="E78" s="10">
         <v>5.8376710655503983</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F78" s="11">
         <v>4.5923600000000002</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B79" s="4">
+      <c r="B79" s="5">
         <v>43160</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="8">
         <v>103.5459</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="8">
         <v>88.36</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="8">
         <v>5.9410164373325358</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F79" s="9">
         <v>5.52257</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B80" s="5">
+      <c r="B80" s="6">
         <v>43132</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="10">
         <v>103.88079999999999</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="10">
         <v>88.36</v>
       </c>
       <c r="E80" s="10">
         <v>5.4159083624427007</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F80" s="11">
         <v>5.4624600000000001</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B81" s="4">
+      <c r="B81" s="12">
         <v>43101</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="13">
         <v>104.2765</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="13">
         <v>88.36</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="13">
         <v>5.125430913865392</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F81" s="14">
         <v>4.7389599999999996</v>
       </c>
     </row>
@@ -1936,20 +1910,18 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="F85" s="2" t="s">
+      <c r="F85" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="F86" s="2" t="s">
+      <c r="F86" s="15" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Salarios.xlsx
+++ b/Salarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328E1C3C-A29E-4796-B427-BC9F7C07F1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EE177B-BBFD-48C7-9216-A774E32DEB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -145,43 +145,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -217,12 +184,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -236,33 +225,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Montserrat Medium"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -273,6 +348,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}" name="Tabla1" displayName="Tabla1" ref="B4:F81" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="B4:F81" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4BCB347A-6837-4562-B6DC-A9A55F643B30}" name="Periodo" dataDxfId="5" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="2" xr3:uid="{634EE539-126F-4286-94FC-2D131447749F}" name="Índice real" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{0C4F5C9B-A106-4A82-B006-E9AC7B578F60}" name="Pesos por día" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{A8F8D15E-55F9-406C-BCA8-1884FFF9295A}" name="Incremento porcentual_x000a_anual, mes/mes" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{BEB4B63D-BA83-479A-A3B9-0ED835B07F0A}" name="Incremento salarial _x000a_contractual (%)" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,8 +603,8 @@
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" customWidth="1"/>
+    <col min="4" max="4" width="13.296875" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="19" customWidth="1"/>
@@ -551,1330 +646,1330 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
-      <c r="B5" s="5">
+      <c r="B5" s="12">
         <v>45413</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="13">
         <v>216.4494</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="13">
         <v>248.93</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="13">
         <v>9.4712077959391294</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="13">
         <v>9.2162299999999995</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="6">
+      <c r="B6" s="10">
         <v>45383</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>216.04820000000001</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
         <v>248.93</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="6">
         <v>9.6363148050862879</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="6">
         <v>7.6285299999999996</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="5">
+      <c r="B7" s="9">
         <v>45352</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>216.48490000000001</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>248.93</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>9.877974082470665</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="5">
         <v>9.1603100000000008</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="6">
+      <c r="B8" s="10">
         <v>45323</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>217.10679999999999</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <v>248.93</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <v>10.128177295814877</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="6">
         <v>8.4567200000000007</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="5">
+      <c r="B9" s="11">
         <v>45292</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>217.3116</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>248.93</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>10.445541700127524</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <v>7.9013200000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="6">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="14">
         <v>45261</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="15">
         <v>182.70859999999999</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="15">
         <v>207.44</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="15">
         <v>10.525527026429549</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="15">
         <v>9.4565099999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="5">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="9">
         <v>45231</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>183.99850000000001</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <v>207.44</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>10.600337846674556</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="5">
         <v>11.557779999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="6">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="10">
         <v>45200</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="6">
         <v>185.17619999999999</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="6">
         <v>207.44</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="6">
         <v>10.75781505813298</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="6">
         <v>5.87758</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="5">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="9">
         <v>45170</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>185.87209999999999</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>207.44</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>10.730900115286657</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="5">
         <v>5.06853</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="6">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="10">
         <v>45139</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="6">
         <v>186.69710000000001</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="6">
         <v>207.44</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="6">
         <v>10.557782826178386</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="6">
         <v>8.5508000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="5">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="9">
         <v>45108</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <v>187.7304</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <v>207.44</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <v>10.584865689848266</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="5">
         <v>8.8868299999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="6">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="10">
         <v>45078</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6">
         <v>188.6353</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
         <v>207.44</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="6">
         <v>11.24794836198264</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="6">
         <v>7.8830099999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="5">
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="9">
         <v>45047</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <v>188.82669999999999</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <v>207.44</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <v>11.289402261233805</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="5">
         <v>8.8381900000000009</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="6">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="10">
         <v>45017</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="6">
         <v>188.41630000000001</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="6">
         <v>207.44</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="6">
         <v>11.238302906502851</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="6">
         <v>10.018739999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="5">
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="9">
         <v>44986</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="5">
         <v>188.37809999999999</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="5">
         <v>207.44</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="5">
         <v>11.181872421901872</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="5">
         <v>9.5111500000000007</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="6">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="10">
         <v>44958</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="6">
         <v>188.8828</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="6">
         <v>207.44</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="6">
         <v>11.218853887600023</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="6">
         <v>8.4645399999999995</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="5">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="11">
         <v>44927</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>189.9359</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>207.44</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>11.229977483897336</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
         <v>10.203760000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="6">
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="14">
         <v>44896</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="15">
         <v>159.35679999999999</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="15">
         <v>172.87</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="15">
         <v>10.965653953382425</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="15">
         <v>8.9062999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="5">
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="9">
         <v>44866</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="5">
         <v>159.96510000000001</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="5">
         <v>172.87</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="5">
         <v>10.995255372919743</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="5">
         <v>8.3648600000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="6">
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="10">
         <v>44835</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="6">
         <v>160.88579999999999</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="6">
         <v>172.87</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="6">
         <v>11.103610268047937</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="6">
         <v>4.5225999999999997</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="5">
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="9">
         <v>44805</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="5">
         <v>161.7963</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="5">
         <v>172.87</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="5">
         <v>11.252030265190239</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="5">
         <v>7.7671099999999997</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="6">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="10">
         <v>44774</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="6">
         <v>162.80000000000001</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="6">
         <v>172.87</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="6">
         <v>11.539750760499</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="6">
         <v>5.0429000000000004</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="5">
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="9">
         <v>44743</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="5">
         <v>163.93209999999999</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="5">
         <v>172.87</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="5">
         <v>11.478780639073349</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="5">
         <v>9.5525300000000009</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="6">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="10">
         <v>44713</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="6">
         <v>165.1464</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="6">
         <v>172.87</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="6">
         <v>11.1312009332174</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="6">
         <v>6.7259200000000003</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="5">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="9">
         <v>44682</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="5">
         <v>166.541</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="5">
         <v>172.87</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="5">
         <v>10.926384520847442</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="5">
         <v>8.8021700000000003</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="6">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="10">
         <v>44652</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="6">
         <v>166.83459999999999</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="6">
         <v>172.87</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="6">
         <v>10.820973830220426</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="6">
         <v>5.7584099999999996</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="5">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="9">
         <v>44621</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="5">
         <v>167.7371</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="5">
         <v>172.87</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="5">
         <v>10.537379166203898</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="5">
         <v>8.8308599999999995</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="6">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="10">
         <v>44593</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="6">
         <v>169.39779999999999</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="6">
         <v>172.87</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="6">
         <v>9.4754731203904097</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="6">
         <v>6.8888299999999996</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="5">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="11">
         <v>44562</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>170.8032</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>172.87</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <v>8.858127860430498</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="7">
         <v>5.6387499999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="6">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="14">
         <v>44531</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="15">
         <v>140.83420000000001</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="15">
         <v>141.69999999999999</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="15">
         <v>7.4876456534687996</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="15">
         <v>5.6811499999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="5">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="9">
         <v>44501</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="5">
         <v>141.3451</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="5">
         <v>141.69999999999999</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="5">
         <v>7.4221022634149536</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="5">
         <v>5.46685</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="6">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="10">
         <v>44470</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="6">
         <v>142.9632</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="6">
         <v>7.4943963321753237</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="6">
         <v>4.3498400000000004</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="5">
+    <row r="37" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="9">
         <v>44440</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="5">
         <v>144.16079999999999</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="5">
         <v>141.69999999999999</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="5">
         <v>7.2551848428966892</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="5">
         <v>6.5983599999999996</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="6">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="10">
         <v>44409</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="6">
         <v>145.04929999999999</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="6">
         <v>7.4497652308630036</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="6">
         <v>5.70878</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="5">
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="9">
         <v>44378</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="5">
         <v>145.3262</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="5">
         <v>141.69999999999999</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="5">
         <v>7.4547280745579148</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="5">
         <v>5.6227299999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="6">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="10">
         <v>44348</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="6">
         <v>146.18</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="6">
         <v>6.0634394773699363</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="6">
         <v>5.6012399999999998</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="5">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="9">
         <v>44317</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="5">
         <v>146.9589</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="5">
         <v>141.69999999999999</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="5">
         <v>6.1525731513115467</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="5">
         <v>4.5034099999999997</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="6">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="10">
         <v>44287</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="6">
         <v>147.25890000000001</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="6">
         <v>5.9561618976688102</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="6">
         <v>5.6467400000000003</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="5">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="9">
         <v>44256</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="5">
         <v>147.74090000000001</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="5">
         <v>141.69999999999999</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="5">
         <v>7.0554176776254529</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="5">
         <v>5.7310600000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="6">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="10">
         <v>44228</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="6">
         <v>148.9624</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="6">
         <v>8.0704931821570227</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="6">
         <v>4.4228899999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="5">
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="11">
         <v>44197</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>149.90450000000001</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>141.69999999999999</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="7">
         <v>8.2269715580314706</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="7">
         <v>3.8172199999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="6">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="14">
         <v>44166</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="15">
         <v>131.47470000000001</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="15">
         <v>123.22</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="15">
         <v>7.8999918968648553</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="15">
         <v>6.7025100000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="5">
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="9">
         <v>44136</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="5">
         <v>131.9759</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="5">
         <v>123.22</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="5">
         <v>7.9355051734412374</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="5">
         <v>5.1872999999999996</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="6">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="10">
         <v>44105</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="6">
         <v>132.0754</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="6">
         <v>123.22</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="6">
         <v>7.667215188304155</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="6">
         <v>4.2006399999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="5">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="9">
         <v>44075</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="5">
         <v>132.8817</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="5">
         <v>123.22</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="5">
         <v>7.572928895459996</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="5">
         <v>4.3477100000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B50" s="6">
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="10">
         <v>44044</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="6">
         <v>133.18600000000001</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="6">
         <v>123.22</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="6">
         <v>6.4420399377693061</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="6">
         <v>4.3611000000000004</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" s="5">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="9">
         <v>44013</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="5">
         <v>133.71029999999999</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="5">
         <v>123.22</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="5">
         <v>6.4297547455233861</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="5">
         <v>6.7050200000000002</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B52" s="6">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="10">
         <v>43983</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="6">
         <v>134.58840000000001</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="6">
         <v>123.22</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="6">
         <v>8.1367830039574827</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="6">
         <v>4.9153900000000004</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B53" s="5">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="9">
         <v>43952</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="5">
         <v>135.32499999999999</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="5">
         <v>123.22</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="5">
         <v>8.087887794221249</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="5">
         <v>4.99268</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B54" s="6">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="10">
         <v>43922</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="6">
         <v>135.8458</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="6">
         <v>123.22</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="6">
         <v>8.0053110638582439</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="6">
         <v>5.6751199999999997</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B55" s="5">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="9">
         <v>43891</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="5">
         <v>134.46870000000001</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="5">
         <v>123.22</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="5">
         <v>7.0924734355956254</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="5">
         <v>5.7827799999999998</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B56" s="6">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="10">
         <v>43862</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="6">
         <v>134.40459999999999</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="6">
         <v>123.22</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="6">
         <v>6.4306785406937461</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="6">
         <v>5.6176599999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B57" s="5">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="11">
         <v>43831</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>134.96270000000001</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>123.22</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="7">
         <v>6.4211541409388229</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="7">
         <v>5.1429299999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B58" s="6">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="14">
         <v>43800</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="15">
         <v>113.0099</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="15">
         <v>102.68</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="15">
         <v>6.7128637984119832</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="15">
         <v>5.8932900000000004</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B59" s="5">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="9">
         <v>43770</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="5">
         <v>113.64060000000001</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="5">
         <v>102.68</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="5">
         <v>6.5416981673249053</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="5">
         <v>5.9055099999999996</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B60" s="6">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="10">
         <v>43739</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="6">
         <v>114.5573</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="6">
         <v>102.68</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="6">
         <v>6.4472883165934025</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="6">
         <v>4.1060999999999996</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B61" s="5">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="9">
         <v>43709</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="5">
         <v>115.1756</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="5">
         <v>102.68</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="5">
         <v>6.4399213093690122</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="5">
         <v>6.1267500000000004</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B62" s="6">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="10">
         <v>43678</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="6">
         <v>115.4778</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="6">
         <v>102.68</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="6">
         <v>6.6044306496492178</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="6">
         <v>4.6333599999999997</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B63" s="5">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="9">
         <v>43647</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="5">
         <v>115.4589</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="5">
         <v>102.68</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="5">
         <v>6.5149948776746625</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="5">
         <v>5.6531700000000003</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B64" s="6">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="10">
         <v>43617</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="6">
         <v>115.8926</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="6">
         <v>102.68</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="6">
         <v>6.5571792302960175</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="6">
         <v>7.4020799999999998</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B65" s="5">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="9">
         <v>43586</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="5">
         <v>115.9667</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="5">
         <v>102.68</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="5">
         <v>6.6877554429744412</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="5">
         <v>6.1700699999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B66" s="6">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="10">
         <v>43556</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="6">
         <v>115.63290000000001</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="6">
         <v>102.68</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="6">
         <v>6.9657750632007742</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="6">
         <v>5.08446</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B67" s="5">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="9">
         <v>43525</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="5">
         <v>115.6943</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="5">
         <v>102.68</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E67" s="5">
         <v>6.7325048800213505</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="5">
         <v>6.7683299999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B68" s="6">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="10">
         <v>43497</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="6">
         <v>116.1399</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="6">
         <v>102.68</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="6">
         <v>6.9307872714849283</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="6">
         <v>6.3011699999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B69" s="5">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="11">
         <v>43466</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="7">
         <v>116.10720000000001</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="7">
         <v>102.68</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="7">
         <v>6.941530195558232</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69" s="7">
         <v>5.2492299999999998</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B70" s="6">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="10">
         <v>43435</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="6">
         <v>100</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="6">
         <v>88.36</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="6">
         <v>5.3789897305661416</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="6">
         <v>6.6267500000000004</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B71" s="5">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="9">
         <v>43405</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="5">
         <v>100.7009</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="5">
         <v>88.36</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="5">
         <v>5.9138870881875416</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F71" s="5">
         <v>5.2983399999999996</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B72" s="6">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="10">
         <v>43374</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="6">
         <v>101.55759999999999</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="6">
         <v>88.36</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="6">
         <v>5.8335904693498586</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="6">
         <v>3.8095400000000001</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B73" s="5">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="9">
         <v>43344</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="5">
         <v>102.0839</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="5">
         <v>88.36</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="5">
         <v>5.8410211118133493</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="5">
         <v>5.7895099999999999</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B74" s="6">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="10">
         <v>43313</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="6">
         <v>102.51560000000001</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="6">
         <v>88.36</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="6">
         <v>5.9201670859141631</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="6">
         <v>5.9572500000000002</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B75" s="5">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="9">
         <v>43282</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="5">
         <v>103.11369999999999</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="5">
         <v>88.36</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="5">
         <v>5.9473467068114516</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="5">
         <v>6.0968299999999997</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B76" s="6">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="10">
         <v>43252</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="6">
         <v>103.6664</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="6">
         <v>88.36</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="6">
         <v>5.7562832517160434</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="6">
         <v>4.5519999999999996</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B77" s="5">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="9">
         <v>43221</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="5">
         <v>104.0668</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="5">
         <v>88.36</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="5">
         <v>5.433721276431358</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="5">
         <v>6.0502200000000004</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B78" s="6">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="10">
         <v>43191</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="6">
         <v>103.8981</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="6">
         <v>88.36</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="6">
         <v>5.8376710655503983</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="6">
         <v>4.5923600000000002</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B79" s="5">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="9">
         <v>43160</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="5">
         <v>103.5459</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="5">
         <v>88.36</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="5">
         <v>5.9410164373325358</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F79" s="5">
         <v>5.52257</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B80" s="6">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="10">
         <v>43132</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="6">
         <v>103.88079999999999</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="6">
         <v>88.36</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E80" s="6">
         <v>5.4159083624427007</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="6">
         <v>5.4624600000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B81" s="12">
+    <row r="81" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="9">
         <v>43101</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="5">
         <v>104.2765</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="5">
         <v>88.36</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E81" s="5">
         <v>5.125430913865392</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F81" s="5">
         <v>4.7389599999999996</v>
       </c>
     </row>
@@ -1910,12 +2005,12 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="F85" s="15" t="s">
+      <c r="F85" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="F86" s="15" t="s">
+      <c r="F86" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1923,5 +2018,8 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Salarios.xlsx
+++ b/Salarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1F754D-9B47-41CC-A0D6-074C7AF2DF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF01515-ECAB-49B9-9411-759C64DB6C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.3" sheetId="1" r:id="rId1"/>
@@ -803,7 +803,7 @@
         <v>9.877974082470665</v>
       </c>
       <c r="G10" s="5">
-        <v>9.1150800000000007</v>
+        <v>9.5915400000000002</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -823,7 +823,7 @@
         <v>10.128177295814877</v>
       </c>
       <c r="G11" s="6">
-        <v>8.4594500000000004</v>
+        <v>8.4352800000000006</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">

--- a/Salarios.xlsx
+++ b/Salarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF01515-ECAB-49B9-9411-759C64DB6C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CDCD57-55EF-48DB-8109-4310E3AB76C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.3" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -74,6 +74,42 @@
   </si>
   <si>
     <t>Año</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
   </si>
 </sst>
 </file>
@@ -689,8 +725,8 @@
       <c r="B5" s="14">
         <v>2024</v>
       </c>
-      <c r="C5" s="14">
-        <v>8</v>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="6">
         <v>213.3844</v>
@@ -710,8 +746,8 @@
       <c r="B6" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="13">
-        <v>7</v>
+      <c r="C6" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="5">
         <v>213.40010000000001</v>
@@ -730,8 +766,8 @@
       <c r="B7" s="14">
         <v>2024</v>
       </c>
-      <c r="C7" s="14">
-        <v>6</v>
+      <c r="C7" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="6">
         <v>215.63409999999999</v>
@@ -750,8 +786,8 @@
       <c r="B8" s="13">
         <v>2024</v>
       </c>
-      <c r="C8" s="13">
-        <v>5</v>
+      <c r="C8" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="5">
         <v>216.4494</v>
@@ -770,8 +806,8 @@
       <c r="B9" s="14">
         <v>2024</v>
       </c>
-      <c r="C9" s="14">
-        <v>4</v>
+      <c r="C9" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D9" s="6">
         <v>216.04820000000001</v>
@@ -790,8 +826,8 @@
       <c r="B10" s="13">
         <v>2024</v>
       </c>
-      <c r="C10" s="13">
-        <v>3</v>
+      <c r="C10" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D10" s="5">
         <v>216.48490000000001</v>
@@ -810,8 +846,8 @@
       <c r="B11" s="14">
         <v>2024</v>
       </c>
-      <c r="C11" s="14">
-        <v>2</v>
+      <c r="C11" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D11" s="6">
         <v>217.10679999999999</v>
@@ -830,8 +866,8 @@
       <c r="B12" s="15">
         <v>2024</v>
       </c>
-      <c r="C12" s="15">
-        <v>1</v>
+      <c r="C12" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="D12" s="7">
         <v>217.3116</v>
@@ -850,8 +886,8 @@
       <c r="B13" s="16">
         <v>2023</v>
       </c>
-      <c r="C13" s="17">
-        <v>12</v>
+      <c r="C13" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="D13" s="9">
         <v>182.70859999999999</v>
@@ -870,8 +906,8 @@
       <c r="B14" s="13">
         <v>2023</v>
       </c>
-      <c r="C14" s="13">
-        <v>11</v>
+      <c r="C14" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D14" s="5">
         <v>183.99850000000001</v>
@@ -890,8 +926,8 @@
       <c r="B15" s="14">
         <v>2023</v>
       </c>
-      <c r="C15" s="14">
-        <v>10</v>
+      <c r="C15" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="D15" s="6">
         <v>185.17619999999999</v>
@@ -910,8 +946,8 @@
       <c r="B16" s="13">
         <v>2023</v>
       </c>
-      <c r="C16" s="13">
-        <v>9</v>
+      <c r="C16" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="D16" s="5">
         <v>185.87209999999999</v>
@@ -930,8 +966,8 @@
       <c r="B17" s="14">
         <v>2023</v>
       </c>
-      <c r="C17" s="14">
-        <v>8</v>
+      <c r="C17" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D17" s="6">
         <v>186.69710000000001</v>
@@ -950,8 +986,8 @@
       <c r="B18" s="13">
         <v>2023</v>
       </c>
-      <c r="C18" s="13">
-        <v>7</v>
+      <c r="C18" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D18" s="5">
         <v>187.7304</v>
@@ -970,8 +1006,8 @@
       <c r="B19" s="14">
         <v>2023</v>
       </c>
-      <c r="C19" s="14">
-        <v>6</v>
+      <c r="C19" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D19" s="6">
         <v>188.6353</v>
@@ -990,8 +1026,8 @@
       <c r="B20" s="13">
         <v>2023</v>
       </c>
-      <c r="C20" s="13">
-        <v>5</v>
+      <c r="C20" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D20" s="5">
         <v>188.82669999999999</v>
@@ -1010,8 +1046,8 @@
       <c r="B21" s="14">
         <v>2023</v>
       </c>
-      <c r="C21" s="14">
-        <v>4</v>
+      <c r="C21" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D21" s="6">
         <v>188.41630000000001</v>
@@ -1030,8 +1066,8 @@
       <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C22" s="13">
-        <v>3</v>
+      <c r="C22" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D22" s="5">
         <v>188.37809999999999</v>
@@ -1050,8 +1086,8 @@
       <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C23" s="14">
-        <v>2</v>
+      <c r="C23" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D23" s="6">
         <v>188.8828</v>
@@ -1070,8 +1106,8 @@
       <c r="B24" s="15">
         <v>2023</v>
       </c>
-      <c r="C24" s="15">
-        <v>1</v>
+      <c r="C24" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="D24" s="7">
         <v>189.9359</v>
@@ -1090,8 +1126,8 @@
       <c r="B25" s="16">
         <v>2022</v>
       </c>
-      <c r="C25" s="17">
-        <v>12</v>
+      <c r="C25" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="D25" s="9">
         <v>159.35679999999999</v>
@@ -1110,8 +1146,8 @@
       <c r="B26" s="13">
         <v>2022</v>
       </c>
-      <c r="C26" s="13">
-        <v>11</v>
+      <c r="C26" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D26" s="5">
         <v>159.96510000000001</v>
@@ -1130,8 +1166,8 @@
       <c r="B27" s="14">
         <v>2022</v>
       </c>
-      <c r="C27" s="14">
-        <v>10</v>
+      <c r="C27" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="D27" s="6">
         <v>160.88579999999999</v>
@@ -1150,8 +1186,8 @@
       <c r="B28" s="13">
         <v>2022</v>
       </c>
-      <c r="C28" s="13">
-        <v>9</v>
+      <c r="C28" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="D28" s="5">
         <v>161.7963</v>
@@ -1170,8 +1206,8 @@
       <c r="B29" s="14">
         <v>2022</v>
       </c>
-      <c r="C29" s="14">
-        <v>8</v>
+      <c r="C29" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D29" s="6">
         <v>162.80000000000001</v>
@@ -1190,8 +1226,8 @@
       <c r="B30" s="13">
         <v>2022</v>
       </c>
-      <c r="C30" s="13">
-        <v>7</v>
+      <c r="C30" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D30" s="5">
         <v>163.93209999999999</v>
@@ -1210,8 +1246,8 @@
       <c r="B31" s="14">
         <v>2022</v>
       </c>
-      <c r="C31" s="14">
-        <v>6</v>
+      <c r="C31" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D31" s="6">
         <v>165.1464</v>
@@ -1230,8 +1266,8 @@
       <c r="B32" s="13">
         <v>2022</v>
       </c>
-      <c r="C32" s="13">
-        <v>5</v>
+      <c r="C32" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D32" s="5">
         <v>166.541</v>
@@ -1250,8 +1286,8 @@
       <c r="B33" s="14">
         <v>2022</v>
       </c>
-      <c r="C33" s="14">
-        <v>4</v>
+      <c r="C33" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D33" s="6">
         <v>166.83459999999999</v>
@@ -1270,8 +1306,8 @@
       <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="13">
-        <v>3</v>
+      <c r="C34" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D34" s="5">
         <v>167.7371</v>
@@ -1290,8 +1326,8 @@
       <c r="B35" s="14">
         <v>2022</v>
       </c>
-      <c r="C35" s="14">
-        <v>2</v>
+      <c r="C35" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D35" s="6">
         <v>169.39779999999999</v>
@@ -1310,8 +1346,8 @@
       <c r="B36" s="15">
         <v>2022</v>
       </c>
-      <c r="C36" s="15">
-        <v>1</v>
+      <c r="C36" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="D36" s="7">
         <v>170.8032</v>
@@ -1330,8 +1366,8 @@
       <c r="B37" s="17">
         <v>2021</v>
       </c>
-      <c r="C37" s="17">
-        <v>12</v>
+      <c r="C37" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="D37" s="9">
         <v>140.83420000000001</v>
@@ -1350,8 +1386,8 @@
       <c r="B38" s="13">
         <v>2021</v>
       </c>
-      <c r="C38" s="13">
-        <v>11</v>
+      <c r="C38" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D38" s="5">
         <v>141.3451</v>
@@ -1370,8 +1406,8 @@
       <c r="B39" s="14">
         <v>2021</v>
       </c>
-      <c r="C39" s="14">
-        <v>10</v>
+      <c r="C39" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="D39" s="6">
         <v>142.9632</v>
@@ -1390,8 +1426,8 @@
       <c r="B40" s="13">
         <v>2021</v>
       </c>
-      <c r="C40" s="13">
-        <v>9</v>
+      <c r="C40" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="D40" s="5">
         <v>144.16079999999999</v>
@@ -1410,8 +1446,8 @@
       <c r="B41" s="14">
         <v>2021</v>
       </c>
-      <c r="C41" s="14">
-        <v>8</v>
+      <c r="C41" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D41" s="6">
         <v>145.04929999999999</v>
@@ -1430,8 +1466,8 @@
       <c r="B42" s="13">
         <v>2021</v>
       </c>
-      <c r="C42" s="13">
-        <v>7</v>
+      <c r="C42" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D42" s="5">
         <v>145.3262</v>
@@ -1450,8 +1486,8 @@
       <c r="B43" s="14">
         <v>2021</v>
       </c>
-      <c r="C43" s="14">
-        <v>6</v>
+      <c r="C43" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D43" s="6">
         <v>146.18</v>
@@ -1470,8 +1506,8 @@
       <c r="B44" s="13">
         <v>2021</v>
       </c>
-      <c r="C44" s="13">
-        <v>5</v>
+      <c r="C44" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D44" s="5">
         <v>146.9589</v>
@@ -1490,8 +1526,8 @@
       <c r="B45" s="14">
         <v>2021</v>
       </c>
-      <c r="C45" s="14">
-        <v>4</v>
+      <c r="C45" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D45" s="6">
         <v>147.25890000000001</v>
@@ -1510,8 +1546,8 @@
       <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="13">
-        <v>3</v>
+      <c r="C46" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D46" s="5">
         <v>147.74090000000001</v>
@@ -1530,8 +1566,8 @@
       <c r="B47" s="14">
         <v>2021</v>
       </c>
-      <c r="C47" s="14">
-        <v>2</v>
+      <c r="C47" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D47" s="6">
         <v>148.9624</v>
@@ -1550,8 +1586,8 @@
       <c r="B48" s="15">
         <v>2021</v>
       </c>
-      <c r="C48" s="15">
-        <v>1</v>
+      <c r="C48" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="D48" s="7">
         <v>149.90450000000001</v>
@@ -1570,8 +1606,8 @@
       <c r="B49" s="17">
         <v>2020</v>
       </c>
-      <c r="C49" s="17">
-        <v>12</v>
+      <c r="C49" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="D49" s="9">
         <v>131.47470000000001</v>
@@ -1590,8 +1626,8 @@
       <c r="B50" s="13">
         <v>2020</v>
       </c>
-      <c r="C50" s="13">
-        <v>11</v>
+      <c r="C50" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D50" s="5">
         <v>131.9759</v>
@@ -1610,8 +1646,8 @@
       <c r="B51" s="14">
         <v>2020</v>
       </c>
-      <c r="C51" s="14">
-        <v>10</v>
+      <c r="C51" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="D51" s="6">
         <v>132.0754</v>
@@ -1630,8 +1666,8 @@
       <c r="B52" s="13">
         <v>2020</v>
       </c>
-      <c r="C52" s="13">
-        <v>9</v>
+      <c r="C52" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="D52" s="5">
         <v>132.8817</v>
@@ -1650,8 +1686,8 @@
       <c r="B53" s="14">
         <v>2020</v>
       </c>
-      <c r="C53" s="14">
-        <v>8</v>
+      <c r="C53" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D53" s="6">
         <v>133.18600000000001</v>
@@ -1670,8 +1706,8 @@
       <c r="B54" s="13">
         <v>2020</v>
       </c>
-      <c r="C54" s="13">
-        <v>7</v>
+      <c r="C54" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D54" s="5">
         <v>133.71029999999999</v>
@@ -1690,8 +1726,8 @@
       <c r="B55" s="14">
         <v>2020</v>
       </c>
-      <c r="C55" s="14">
-        <v>6</v>
+      <c r="C55" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D55" s="6">
         <v>134.58840000000001</v>
@@ -1710,8 +1746,8 @@
       <c r="B56" s="13">
         <v>2020</v>
       </c>
-      <c r="C56" s="13">
-        <v>5</v>
+      <c r="C56" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D56" s="5">
         <v>135.32499999999999</v>
@@ -1730,8 +1766,8 @@
       <c r="B57" s="14">
         <v>2020</v>
       </c>
-      <c r="C57" s="14">
-        <v>4</v>
+      <c r="C57" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D57" s="6">
         <v>135.8458</v>
@@ -1750,8 +1786,8 @@
       <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="13">
-        <v>3</v>
+      <c r="C58" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D58" s="5">
         <v>134.46870000000001</v>
@@ -1770,8 +1806,8 @@
       <c r="B59" s="14">
         <v>2020</v>
       </c>
-      <c r="C59" s="14">
-        <v>2</v>
+      <c r="C59" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D59" s="6">
         <v>134.40459999999999</v>
@@ -1790,8 +1826,8 @@
       <c r="B60" s="15">
         <v>2020</v>
       </c>
-      <c r="C60" s="15">
-        <v>1</v>
+      <c r="C60" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="D60" s="7">
         <v>134.96270000000001</v>
@@ -1810,8 +1846,8 @@
       <c r="B61" s="17">
         <v>2019</v>
       </c>
-      <c r="C61" s="17">
-        <v>12</v>
+      <c r="C61" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="D61" s="9">
         <v>113.0099</v>
@@ -1830,8 +1866,8 @@
       <c r="B62" s="13">
         <v>2019</v>
       </c>
-      <c r="C62" s="13">
-        <v>11</v>
+      <c r="C62" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D62" s="5">
         <v>113.64060000000001</v>
@@ -1850,8 +1886,8 @@
       <c r="B63" s="14">
         <v>2019</v>
       </c>
-      <c r="C63" s="14">
-        <v>10</v>
+      <c r="C63" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="D63" s="6">
         <v>114.5573</v>
@@ -1870,8 +1906,8 @@
       <c r="B64" s="13">
         <v>2019</v>
       </c>
-      <c r="C64" s="13">
-        <v>9</v>
+      <c r="C64" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="D64" s="5">
         <v>115.1756</v>
@@ -1890,8 +1926,8 @@
       <c r="B65" s="14">
         <v>2019</v>
       </c>
-      <c r="C65" s="14">
-        <v>8</v>
+      <c r="C65" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D65" s="6">
         <v>115.4778</v>
@@ -1910,8 +1946,8 @@
       <c r="B66" s="13">
         <v>2019</v>
       </c>
-      <c r="C66" s="13">
-        <v>7</v>
+      <c r="C66" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D66" s="5">
         <v>115.4589</v>
@@ -1930,8 +1966,8 @@
       <c r="B67" s="14">
         <v>2019</v>
       </c>
-      <c r="C67" s="14">
-        <v>6</v>
+      <c r="C67" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D67" s="6">
         <v>115.8926</v>
@@ -1950,8 +1986,8 @@
       <c r="B68" s="13">
         <v>2019</v>
       </c>
-      <c r="C68" s="13">
-        <v>5</v>
+      <c r="C68" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D68" s="5">
         <v>115.9667</v>
@@ -1970,8 +2006,8 @@
       <c r="B69" s="14">
         <v>2019</v>
       </c>
-      <c r="C69" s="14">
-        <v>4</v>
+      <c r="C69" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D69" s="6">
         <v>115.63290000000001</v>
@@ -1990,8 +2026,8 @@
       <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="13">
-        <v>3</v>
+      <c r="C70" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D70" s="5">
         <v>115.6943</v>
@@ -2010,8 +2046,8 @@
       <c r="B71" s="14">
         <v>2019</v>
       </c>
-      <c r="C71" s="14">
-        <v>2</v>
+      <c r="C71" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D71" s="6">
         <v>116.1399</v>
@@ -2030,8 +2066,8 @@
       <c r="B72" s="15">
         <v>2019</v>
       </c>
-      <c r="C72" s="15">
-        <v>1</v>
+      <c r="C72" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="D72" s="7">
         <v>116.10720000000001</v>
@@ -2050,8 +2086,8 @@
       <c r="B73" s="14">
         <v>2018</v>
       </c>
-      <c r="C73" s="14">
-        <v>12</v>
+      <c r="C73" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D73" s="6">
         <v>100</v>
@@ -2070,8 +2106,8 @@
       <c r="B74" s="13">
         <v>2018</v>
       </c>
-      <c r="C74" s="13">
-        <v>11</v>
+      <c r="C74" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D74" s="5">
         <v>100.7009</v>
@@ -2090,8 +2126,8 @@
       <c r="B75" s="14">
         <v>2018</v>
       </c>
-      <c r="C75" s="14">
-        <v>10</v>
+      <c r="C75" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="D75" s="6">
         <v>101.55759999999999</v>
@@ -2110,8 +2146,8 @@
       <c r="B76" s="13">
         <v>2018</v>
       </c>
-      <c r="C76" s="13">
-        <v>9</v>
+      <c r="C76" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="D76" s="5">
         <v>102.0839</v>
@@ -2130,8 +2166,8 @@
       <c r="B77" s="14">
         <v>2018</v>
       </c>
-      <c r="C77" s="14">
-        <v>8</v>
+      <c r="C77" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D77" s="6">
         <v>102.51560000000001</v>
@@ -2150,8 +2186,8 @@
       <c r="B78" s="13">
         <v>2018</v>
       </c>
-      <c r="C78" s="13">
-        <v>7</v>
+      <c r="C78" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D78" s="5">
         <v>103.11369999999999</v>
@@ -2170,8 +2206,8 @@
       <c r="B79" s="14">
         <v>2018</v>
       </c>
-      <c r="C79" s="14">
-        <v>6</v>
+      <c r="C79" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D79" s="6">
         <v>103.6664</v>
@@ -2190,8 +2226,8 @@
       <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="13">
-        <v>5</v>
+      <c r="C80" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D80" s="5">
         <v>104.0668</v>
@@ -2210,8 +2246,8 @@
       <c r="B81" s="14">
         <v>2018</v>
       </c>
-      <c r="C81" s="14">
-        <v>4</v>
+      <c r="C81" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D81" s="6">
         <v>103.8981</v>
@@ -2230,8 +2266,8 @@
       <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="13">
-        <v>3</v>
+      <c r="C82" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D82" s="5">
         <v>103.5459</v>
@@ -2250,8 +2286,8 @@
       <c r="B83" s="14">
         <v>2018</v>
       </c>
-      <c r="C83" s="14">
-        <v>2</v>
+      <c r="C83" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D83" s="6">
         <v>103.88079999999999</v>
@@ -2272,8 +2308,8 @@
       <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="13">
-        <v>1</v>
+      <c r="C84" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D84" s="5">
         <v>104.2765</v>

--- a/Salarios.xlsx
+++ b/Salarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151DE23D-CC25-4D02-9FF6-C24F0F0F676E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C977E935-F0C9-41CC-A323-4A017728B891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.3" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -109,7 +109,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -123,19 +123,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -143,20 +143,20 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -331,13 +331,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -347,6 +340,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -365,7 +365,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -401,8 +401,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}" name="Tabla1" displayName="Tabla1" ref="B4:G85" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B4:G85" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}" name="Tabla1" displayName="Tabla1" ref="B4:G86" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="B4:G86" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -425,7 +425,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -433,28 +433,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -463,14 +463,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -645,28 +645,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="A2:O91"/>
+  <dimension ref="A2:O92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" customWidth="1"/>
-    <col min="5" max="5" width="13.296875" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="12" width="18.875" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -684,7 +684,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -700,7 +700,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
@@ -720,1672 +720,1692 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="13">
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14">
         <v>2024</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6">
+        <v>212.11340000000001</v>
+      </c>
+      <c r="E5" s="6">
+        <v>248.93</v>
+      </c>
+      <c r="F5" s="6">
+        <v>9.2094348758141606</v>
+      </c>
+      <c r="G5" s="6">
+        <v>7.2499700000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D6" s="5">
         <v>213.27930000000001</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="5">
         <v>248.93</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F6" s="5">
         <v>9.2698142462096058</v>
       </c>
-      <c r="G5" s="5">
-        <v>8.7139500000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="14">
+      <c r="G6" s="5">
+        <v>8.7203400000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="14">
         <v>2024</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="6">
         <v>213.3844</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E7" s="6">
         <v>248.93</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F7" s="6">
         <v>9.7071592892403089</v>
       </c>
-      <c r="G6" s="6">
-        <v>8.48447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="13">
+      <c r="G7" s="6">
+        <v>8.5058000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="13">
         <v>2024</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D8" s="5">
         <v>213.40010000000001</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="5">
         <v>248.93</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F8" s="5">
         <v>9.678628067358396</v>
       </c>
-      <c r="G7" s="5">
-        <v>6.4851200000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="14">
+      <c r="G8" s="5">
+        <v>6.4822100000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="14">
         <v>2024</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="6">
         <v>215.63409999999999</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="6">
         <v>248.93</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="6">
         <v>9.5275285380818531</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G9" s="6">
         <v>9.1304200000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="13">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="13">
         <v>2024</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="5">
         <v>216.4494</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="5">
         <v>248.93</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F10" s="5">
         <v>9.4712077959391294</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G10" s="5">
         <v>9.2119400000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="14">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
         <v>2024</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="6">
         <v>216.04820000000001</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E11" s="6">
         <v>248.93</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="6">
         <v>9.6363148050862879</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G11" s="6">
         <v>7.5455100000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="13">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
         <v>2024</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D12" s="5">
         <v>216.48490000000001</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="5">
         <v>248.93</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="5">
         <v>9.877974082470665</v>
       </c>
-      <c r="G11" s="5">
-        <v>9.5915400000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="14">
+      <c r="G12" s="5">
+        <v>9.5689499999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="14">
         <v>2024</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>217.10679999999999</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <v>248.93</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="6">
         <v>10.128177295814877</v>
       </c>
-      <c r="G12" s="6">
-        <v>8.4352800000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="15">
+      <c r="G13" s="6">
+        <v>8.4318500000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="7">
         <v>217.3116</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>248.93</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <v>10.445541700127524</v>
       </c>
-      <c r="G13" s="7">
-        <v>7.8837299999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="16">
+      <c r="G14" s="7">
+        <v>7.9025400000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
         <v>2023</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <v>182.70859999999999</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>207.44</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>10.525527026429549</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G15" s="9">
         <v>9.4565099999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="13">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="13">
         <v>2023</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D16" s="5">
         <v>183.99850000000001</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="5">
         <v>207.44</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F16" s="5">
         <v>10.600337846674556</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G16" s="5">
         <v>11.557779999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="14">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="14">
         <v>2023</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <v>185.17619999999999</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="6">
         <v>207.44</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <v>10.75781505813298</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="6">
         <v>5.87758</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="13">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
         <v>2023</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D18" s="5">
         <v>185.87209999999999</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="5">
         <v>207.44</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F18" s="5">
         <v>10.730900115286657</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G18" s="5">
         <v>5.1179600000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="14">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="14">
         <v>2023</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <v>186.69710000000001</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E19" s="6">
         <v>207.44</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="6">
         <v>10.557782826178386</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G19" s="6">
         <v>8.52529</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="13">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
         <v>2023</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D20" s="5">
         <v>187.7304</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E20" s="5">
         <v>207.44</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F20" s="5">
         <v>10.584865689848266</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G20" s="5">
         <v>8.8868299999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="14">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="14">
         <v>2023</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="6">
         <v>188.6353</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="6">
         <v>207.44</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="6">
         <v>11.24794836198264</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="6">
         <v>7.8830099999999996</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="13">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D22" s="5">
         <v>188.82669999999999</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="5">
         <v>207.44</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F22" s="5">
         <v>11.289402261233805</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G22" s="5">
         <v>8.8381900000000009</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="14">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="6">
         <v>188.41630000000001</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E23" s="6">
         <v>207.44</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F23" s="6">
         <v>11.238302906502851</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G23" s="6">
         <v>10.018739999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="13">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="13">
         <v>2023</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D24" s="5">
         <v>188.37809999999999</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E24" s="5">
         <v>207.44</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F24" s="5">
         <v>11.181872421901872</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G24" s="5">
         <v>9.5111500000000007</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="14">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="14">
         <v>2023</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="6">
         <v>188.8828</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="6">
         <v>207.44</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F25" s="6">
         <v>11.218853887600023</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G25" s="6">
         <v>8.4645399999999995</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="15">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="15">
         <v>2023</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D26" s="7">
         <v>189.9359</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E26" s="7">
         <v>207.44</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F26" s="7">
         <v>11.229977483897336</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G26" s="7">
         <v>10.203760000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="16">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="16">
         <v>2022</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C27" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="9">
         <v>159.35679999999999</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>172.87</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>10.965653953382425</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G27" s="9">
         <v>8.9062999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="13">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="13">
         <v>2022</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D28" s="5">
         <v>159.96510000000001</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E28" s="5">
         <v>172.87</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F28" s="5">
         <v>10.995255372919743</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G28" s="5">
         <v>8.3648600000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="14">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="14">
         <v>2022</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <v>160.88579999999999</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E29" s="6">
         <v>172.87</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="6">
         <v>11.103610268047937</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G29" s="6">
         <v>4.5225999999999997</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="13">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="13">
         <v>2022</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D30" s="5">
         <v>161.7963</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E30" s="5">
         <v>172.87</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F30" s="5">
         <v>11.252030265190239</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G30" s="5">
         <v>7.7671099999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="14">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="14">
         <v>2022</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D31" s="6">
         <v>162.80000000000001</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E31" s="6">
         <v>172.87</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F31" s="6">
         <v>11.539750760499</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G31" s="6">
         <v>5.0429000000000004</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="13">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="13">
         <v>2022</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D32" s="5">
         <v>163.93209999999999</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E32" s="5">
         <v>172.87</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F32" s="5">
         <v>11.478780639073349</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G32" s="5">
         <v>9.5525300000000009</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="14">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="14">
         <v>2022</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="6">
         <v>165.1464</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E33" s="6">
         <v>172.87</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F33" s="6">
         <v>11.1312009332174</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G33" s="6">
         <v>6.7259200000000003</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="13">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D34" s="5">
         <v>166.541</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E34" s="5">
         <v>172.87</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F34" s="5">
         <v>10.926384520847442</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G34" s="5">
         <v>8.8021700000000003</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="14">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="14">
         <v>2022</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D35" s="6">
         <v>166.83459999999999</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E35" s="6">
         <v>172.87</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F35" s="6">
         <v>10.820973830220426</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G35" s="6">
         <v>5.7584099999999996</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="13">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="13">
         <v>2022</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D36" s="5">
         <v>167.7371</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E36" s="5">
         <v>172.87</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F36" s="5">
         <v>10.537379166203898</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G36" s="5">
         <v>8.8308599999999995</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="14">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="14">
         <v>2022</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D37" s="6">
         <v>169.39779999999999</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E37" s="6">
         <v>172.87</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F37" s="6">
         <v>9.4754731203904097</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G37" s="6">
         <v>6.8888299999999996</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="15">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="15">
         <v>2022</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D38" s="7">
         <v>170.8032</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E38" s="7">
         <v>172.87</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="7">
         <v>8.858127860430498</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G38" s="7">
         <v>5.6387499999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="17">
+    <row r="39" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="17">
         <v>2021</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C39" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="9">
         <v>140.83420000000001</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>141.69999999999999</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F39" s="9">
         <v>7.4876456534687996</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G39" s="9">
         <v>5.6811499999999997</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="13">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="13">
         <v>2021</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D40" s="5">
         <v>141.3451</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E40" s="5">
         <v>141.69999999999999</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F40" s="5">
         <v>7.4221022634149536</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G40" s="5">
         <v>5.46685</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="14">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="14">
         <v>2021</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D41" s="6">
         <v>142.9632</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E41" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F41" s="6">
         <v>7.4943963321753237</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G41" s="6">
         <v>4.3498400000000004</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="13">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="13">
         <v>2021</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D42" s="5">
         <v>144.16079999999999</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E42" s="5">
         <v>141.69999999999999</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F42" s="5">
         <v>7.2551848428966892</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G42" s="5">
         <v>6.5983599999999996</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="14">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="14">
         <v>2021</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D43" s="6">
         <v>145.04929999999999</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E43" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F43" s="6">
         <v>7.4497652308630036</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G43" s="6">
         <v>5.70878</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="13">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="13">
         <v>2021</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D44" s="5">
         <v>145.3262</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E44" s="5">
         <v>141.69999999999999</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F44" s="5">
         <v>7.4547280745579148</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G44" s="5">
         <v>5.6227299999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="14">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="14">
         <v>2021</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D45" s="6">
         <v>146.18</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E45" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F45" s="6">
         <v>6.0634394773699363</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G45" s="6">
         <v>5.6012399999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="13">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D46" s="5">
         <v>146.9589</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E46" s="5">
         <v>141.69999999999999</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F46" s="5">
         <v>6.1525731513115467</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G46" s="5">
         <v>4.5034099999999997</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="14">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="14">
         <v>2021</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D47" s="6">
         <v>147.25890000000001</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E47" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F47" s="6">
         <v>5.9561618976688102</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G47" s="6">
         <v>5.6467400000000003</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="13">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="13">
         <v>2021</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D48" s="5">
         <v>147.74090000000001</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E48" s="5">
         <v>141.69999999999999</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F48" s="5">
         <v>7.0554176776254529</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G48" s="5">
         <v>5.7310600000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="14">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="14">
         <v>2021</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D49" s="6">
         <v>148.9624</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E49" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F49" s="6">
         <v>8.0704931821570227</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G49" s="6">
         <v>4.4228899999999998</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="15">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="15">
         <v>2021</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D50" s="7">
         <v>149.90450000000001</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E50" s="7">
         <v>141.69999999999999</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F50" s="7">
         <v>8.2269715580314706</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G50" s="7">
         <v>3.8172199999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="17">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="17">
         <v>2020</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C51" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="9">
         <v>131.47470000000001</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="9">
         <v>123.22</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F51" s="9">
         <v>7.8999918968648553</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G51" s="9">
         <v>6.7025100000000002</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="13">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="13">
         <v>2020</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D52" s="5">
         <v>131.9759</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E52" s="5">
         <v>123.22</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F52" s="5">
         <v>7.9355051734412374</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G52" s="5">
         <v>5.1872999999999996</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="14">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="14">
         <v>2020</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D53" s="6">
         <v>132.0754</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E53" s="6">
         <v>123.22</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F53" s="6">
         <v>7.667215188304155</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G53" s="6">
         <v>4.2006399999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="13">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="13">
         <v>2020</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D54" s="5">
         <v>132.8817</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E54" s="5">
         <v>123.22</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F54" s="5">
         <v>7.572928895459996</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G54" s="5">
         <v>4.3477100000000002</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="14">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="14">
         <v>2020</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D55" s="6">
         <v>133.18600000000001</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E55" s="6">
         <v>123.22</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F55" s="6">
         <v>6.4420399377693061</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G55" s="6">
         <v>4.3611000000000004</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="13">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="13">
         <v>2020</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D56" s="5">
         <v>133.71029999999999</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E56" s="5">
         <v>123.22</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F56" s="5">
         <v>6.4297547455233861</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G56" s="5">
         <v>6.7050200000000002</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="14">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="14">
         <v>2020</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D57" s="6">
         <v>134.58840000000001</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E57" s="6">
         <v>123.22</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F57" s="6">
         <v>8.1367830039574827</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G57" s="6">
         <v>4.9153900000000004</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="13">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D58" s="5">
         <v>135.32499999999999</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E58" s="5">
         <v>123.22</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F58" s="5">
         <v>8.087887794221249</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G58" s="5">
         <v>4.99268</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="14">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="14">
         <v>2020</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D59" s="6">
         <v>135.8458</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E59" s="6">
         <v>123.22</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F59" s="6">
         <v>8.0053110638582439</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G59" s="6">
         <v>5.6751199999999997</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="13">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="13">
         <v>2020</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D60" s="5">
         <v>134.46870000000001</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E60" s="5">
         <v>123.22</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F60" s="5">
         <v>7.0924734355956254</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G60" s="5">
         <v>5.7827799999999998</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="14">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="14">
         <v>2020</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D61" s="6">
         <v>134.40459999999999</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E61" s="6">
         <v>123.22</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F61" s="6">
         <v>6.4306785406937461</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G61" s="6">
         <v>5.6176599999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="15">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="15">
         <v>2020</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D62" s="7">
         <v>134.96270000000001</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E62" s="7">
         <v>123.22</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F62" s="7">
         <v>6.4211541409388229</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G62" s="7">
         <v>5.1429299999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="17">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="17">
         <v>2019</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C63" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="9">
         <v>113.0099</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E63" s="9">
         <v>102.68</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F63" s="9">
         <v>6.7128637984119832</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G63" s="9">
         <v>5.8932900000000004</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="13">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="13">
         <v>2019</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D64" s="5">
         <v>113.64060000000001</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E64" s="5">
         <v>102.68</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F64" s="5">
         <v>6.5416981673249053</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G64" s="5">
         <v>5.9055099999999996</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="14">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="14">
         <v>2019</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C65" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D65" s="6">
         <v>114.5573</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E65" s="6">
         <v>102.68</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F65" s="6">
         <v>6.4472883165934025</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G65" s="6">
         <v>4.1060999999999996</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="13">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="13">
         <v>2019</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D66" s="5">
         <v>115.1756</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E66" s="5">
         <v>102.68</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F66" s="5">
         <v>6.4399213093690122</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G66" s="5">
         <v>6.1267500000000004</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="14">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="14">
         <v>2019</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D67" s="6">
         <v>115.4778</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E67" s="6">
         <v>102.68</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F67" s="6">
         <v>6.6044306496492178</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G67" s="6">
         <v>4.6333599999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="13">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="13">
         <v>2019</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D68" s="5">
         <v>115.4589</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E68" s="5">
         <v>102.68</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F68" s="5">
         <v>6.5149948776746625</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G68" s="5">
         <v>5.6531700000000003</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="14">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="14">
         <v>2019</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D69" s="6">
         <v>115.8926</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E69" s="6">
         <v>102.68</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F69" s="6">
         <v>6.5571792302960175</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G69" s="6">
         <v>7.4020799999999998</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="13">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D70" s="5">
         <v>115.9667</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E70" s="5">
         <v>102.68</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F70" s="5">
         <v>6.6877554429744412</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G70" s="5">
         <v>6.1700699999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="14">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="14">
         <v>2019</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C71" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D71" s="6">
         <v>115.63290000000001</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E71" s="6">
         <v>102.68</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F71" s="6">
         <v>6.9657750632007742</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G71" s="6">
         <v>5.08446</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="13">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="13">
         <v>2019</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D72" s="5">
         <v>115.6943</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E72" s="5">
         <v>102.68</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F72" s="5">
         <v>6.7325048800213505</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G72" s="5">
         <v>6.7683299999999997</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="14">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="14">
         <v>2019</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C73" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D73" s="6">
         <v>116.1399</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E73" s="6">
         <v>102.68</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F73" s="6">
         <v>6.9307872714849283</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G73" s="6">
         <v>6.3011699999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="15">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="15">
         <v>2019</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C74" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D74" s="7">
         <v>116.10720000000001</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E74" s="7">
         <v>102.68</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F74" s="7">
         <v>6.941530195558232</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G74" s="7">
         <v>5.2492299999999998</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="14">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="14">
         <v>2018</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C75" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D75" s="6">
         <v>100</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E75" s="6">
         <v>88.36</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F75" s="6">
         <v>5.3789897305661416</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G75" s="6">
         <v>6.6267500000000004</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="13">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="13">
         <v>2018</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D76" s="5">
         <v>100.7009</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E76" s="5">
         <v>88.36</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F76" s="5">
         <v>5.9138870881875416</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G76" s="5">
         <v>5.2983399999999996</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="14">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="14">
         <v>2018</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C77" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D77" s="6">
         <v>101.55759999999999</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E77" s="6">
         <v>88.36</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F77" s="6">
         <v>5.8335904693498586</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G77" s="6">
         <v>3.8095400000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="13">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="13">
         <v>2018</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D78" s="5">
         <v>102.0839</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E78" s="5">
         <v>88.36</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F78" s="5">
         <v>5.8410211118133493</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G78" s="5">
         <v>5.7895099999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="14">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="14">
         <v>2018</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C79" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D79" s="6">
         <v>102.51560000000001</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E79" s="6">
         <v>88.36</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F79" s="6">
         <v>5.9201670859141631</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G79" s="6">
         <v>5.9572500000000002</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="13">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D80" s="5">
         <v>103.11369999999999</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E80" s="5">
         <v>88.36</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F80" s="5">
         <v>5.9473467068114516</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G80" s="5">
         <v>6.0968299999999997</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="14">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="14">
         <v>2018</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D81" s="6">
         <v>103.6664</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E81" s="6">
         <v>88.36</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F81" s="6">
         <v>5.7562832517160434</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G81" s="6">
         <v>4.5519999999999996</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="13">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D82" s="5">
         <v>104.0668</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E82" s="5">
         <v>88.36</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F82" s="5">
         <v>5.433721276431358</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G82" s="5">
         <v>6.0502200000000004</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="14">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="14">
         <v>2018</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C83" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D83" s="6">
         <v>103.8981</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E83" s="6">
         <v>88.36</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F83" s="6">
         <v>5.8376710655503983</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G83" s="6">
         <v>4.5923600000000002</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="13">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D84" s="5">
         <v>103.5459</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E84" s="5">
         <v>88.36</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F84" s="5">
         <v>5.9410164373325358</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G84" s="5">
         <v>5.52257</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="14">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="14">
         <v>2018</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C85" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D85" s="6">
         <v>103.88079999999999</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E85" s="6">
         <v>88.36</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F85" s="6">
         <v>5.4159083624427007</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G85" s="6">
         <v>5.4624600000000001</v>
-      </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="13">
-        <v>2018</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" s="5">
-        <v>104.2765</v>
-      </c>
-      <c r="E85" s="5">
-        <v>88.36</v>
-      </c>
-      <c r="F85" s="5">
-        <v>5.125430913865392</v>
-      </c>
-      <c r="G85" s="5">
-        <v>4.7389599999999996</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
-      <c r="J85" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C86" s="2"/>
+    </row>
+    <row r="86" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="5">
+        <v>104.2765</v>
+      </c>
+      <c r="E86" s="5">
+        <v>88.36</v>
+      </c>
+      <c r="F86" s="5">
+        <v>5.125430913865392</v>
+      </c>
+      <c r="G86" s="5">
+        <v>4.7389599999999996</v>
+      </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>5</v>
       </c>
-      <c r="D89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="G90" s="8"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G92" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Salarios.xlsx
+++ b/Salarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608DB2CA-696D-42F8-820C-4221BB53E75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82FCE6D-3CF5-4B4B-8C8A-C2707547EB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="24">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -106,10 +106,10 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t xml:space="preserve">          El Salario contractual, Incluye salario contractual de jurisdicción federal.</t>
   </si>
   <si>
-    <t xml:space="preserve">          El Salario contractual, Incluye salario contractual de jurisdicción federal.</t>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -324,55 +324,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
@@ -470,6 +421,55 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -484,8 +484,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}" name="Tabla1" displayName="Tabla1" ref="B4:G87" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="B4:G87" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}" name="Tabla1" displayName="Tabla1" ref="B4:G88" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G88" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -493,12 +493,12 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4BCB347A-6837-4562-B6DC-A9A55F643B30}" name="Año" dataDxfId="7" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="6" xr3:uid="{725864F2-FA5F-4156-9376-1B27D57117A5}" name="Mes" dataDxfId="6" dataCellStyle="20% - Énfasis5"/>
-    <tableColumn id="2" xr3:uid="{634EE539-126F-4286-94FC-2D131447749F}" name="Índice real" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{0C4F5C9B-A106-4A82-B006-E9AC7B578F60}" name="Pesos por día" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{A8F8D15E-55F9-406C-BCA8-1884FFF9295A}" name="Incremento porcentual_x000a_anual, mes/mes" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{BEB4B63D-BA83-479A-A3B9-0ED835B07F0A}" name="Incremento salarial _x000a_contractual (%)" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4BCB347A-6837-4562-B6DC-A9A55F643B30}" name="Año" dataDxfId="5" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="6" xr3:uid="{725864F2-FA5F-4156-9376-1B27D57117A5}" name="Mes" dataDxfId="4" dataCellStyle="20% - Énfasis5"/>
+    <tableColumn id="2" xr3:uid="{634EE539-126F-4286-94FC-2D131447749F}" name="Índice real" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{0C4F5C9B-A106-4A82-B006-E9AC7B578F60}" name="Pesos por día" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{A8F8D15E-55F9-406C-BCA8-1884FFF9295A}" name="Incremento porcentual_x000a_anual, mes/mes" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{BEB4B63D-BA83-479A-A3B9-0ED835B07F0A}" name="Incremento salarial _x000a_contractual (%)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -727,7 +727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="A2:O93"/>
+  <dimension ref="A2:O94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -804,1667 +804,1667 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>2024</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="11">
+        <v>210.3897</v>
+      </c>
+      <c r="E5" s="11">
+        <v>248.93</v>
+      </c>
+      <c r="F5" s="11">
+        <v>9.2072724943051973</v>
+      </c>
+      <c r="G5" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D6" s="9">
         <v>211.1935</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E6" s="9">
         <v>248.93</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F6" s="9">
         <v>9.2059656556959357</v>
       </c>
-      <c r="G5" s="9">
-        <v>3.58921</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="10">
+      <c r="G6" s="9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="10">
         <v>2024</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <v>212.11340000000001</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="11">
         <v>248.93</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="11">
         <v>9.2094348758141606</v>
       </c>
-      <c r="G6" s="11">
-        <v>7.2517899999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="9">
-        <v>213.27930000000001</v>
-      </c>
-      <c r="E7" s="9">
-        <v>248.93</v>
-      </c>
-      <c r="F7" s="9">
-        <v>9.2698142462096058</v>
-      </c>
-      <c r="G7" s="9">
-        <v>8.5540800000000008</v>
+      <c r="G7" s="11">
+        <v>7.3</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11">
-        <v>213.3844</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9">
+        <v>213.27930000000001</v>
+      </c>
+      <c r="E8" s="9">
         <v>248.93</v>
       </c>
-      <c r="F8" s="11">
-        <v>9.7071592892403089</v>
-      </c>
-      <c r="G8" s="11">
-        <v>8.5058000000000007</v>
+      <c r="F8" s="9">
+        <v>9.2698142462096058</v>
+      </c>
+      <c r="G8" s="9">
+        <v>8.5</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
-      <c r="B9" s="8">
+      <c r="B9" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11">
+        <v>213.3844</v>
+      </c>
+      <c r="E9" s="11">
+        <v>248.93</v>
+      </c>
+      <c r="F9" s="11">
+        <v>9.7071592892403089</v>
+      </c>
+      <c r="G9" s="11">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="9">
         <v>213.40010000000001</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>248.93</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <v>9.678628067358396</v>
       </c>
-      <c r="G9" s="9">
-        <v>6.4822100000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
+      <c r="G10" s="9">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="10">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>215.63409999999999</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>248.93</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>9.5275285380818531</v>
       </c>
-      <c r="G10" s="11">
-        <v>9.1304200000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="8">
+      <c r="G11" s="11">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="8">
         <v>2024</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="9">
         <v>216.4494</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="9">
         <v>248.93</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="9">
         <v>9.4712077959391294</v>
       </c>
-      <c r="G11" s="9">
-        <v>9.2119400000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="10">
+      <c r="G12" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>216.04820000000001</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <v>248.93</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <v>9.6363148050862879</v>
       </c>
-      <c r="G12" s="11">
-        <v>7.5455100000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="8">
+      <c r="G13" s="11">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="8">
         <v>2024</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>216.48490000000001</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>248.93</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>9.877974082470665</v>
       </c>
-      <c r="G13" s="9">
-        <v>9.5689499999999992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
+      <c r="G14" s="9">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>217.10679999999999</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <v>248.93</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <v>10.128177295814877</v>
       </c>
-      <c r="G14" s="11">
-        <v>8.4318500000000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="12">
+      <c r="G15" s="11">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <v>217.3116</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>248.93</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>10.445541700127524</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <v>7.9025400000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="14">
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="14">
         <v>2023</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D17" s="16">
         <v>182.70859999999999</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E17" s="16">
         <v>207.44</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F17" s="16">
         <v>10.525527026429549</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G17" s="16">
         <v>9.4565099999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="8">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="8">
         <v>2023</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D18" s="9">
         <v>183.99850000000001</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>207.44</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <v>10.600337846674556</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G18" s="9">
         <v>11.557779999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="10">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10">
         <v>2023</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>185.17619999999999</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <v>207.44</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="11">
         <v>10.75781505813298</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G19" s="11">
         <v>5.87758</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="8">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="8">
         <v>2023</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="9">
         <v>185.87209999999999</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <v>207.44</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>10.730900115286657</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G20" s="9">
         <v>5.1179600000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="10">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <v>186.69710000000001</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="11">
         <v>207.44</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="11">
         <v>10.557782826178386</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="11">
         <v>8.52529</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="8">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="8">
         <v>2023</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="9">
         <v>187.7304</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="9">
         <v>207.44</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="9">
         <v>10.584865689848266</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G22" s="9">
         <v>8.8868299999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>188.6353</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="11">
         <v>207.44</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="11">
         <v>11.24794836198264</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G23" s="11">
         <v>7.8830099999999996</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="8">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="8">
         <v>2023</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D24" s="9">
         <v>188.82669999999999</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="9">
         <v>207.44</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F24" s="9">
         <v>11.289402261233805</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G24" s="9">
         <v>8.8381900000000009</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <v>188.41630000000001</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="11">
         <v>207.44</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="11">
         <v>11.238302906502851</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G25" s="11">
         <v>10.018739999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="8">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="9">
         <v>188.37809999999999</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <v>207.44</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>11.181872421901872</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G26" s="9">
         <v>9.5111500000000007</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>188.8828</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>207.44</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="11">
         <v>11.218853887600023</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G27" s="11">
         <v>8.4645399999999995</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="12">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="13">
         <v>189.9359</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>207.44</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>11.229977483897336</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>10.203760000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="14">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="14">
         <v>2022</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D29" s="16">
         <v>159.35679999999999</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E29" s="16">
         <v>172.87</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F29" s="16">
         <v>10.965653953382425</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G29" s="16">
         <v>8.9062999999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="8">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="8">
         <v>2022</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D30" s="9">
         <v>159.96510000000001</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <v>172.87</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <v>10.995255372919743</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G30" s="9">
         <v>8.3648600000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="10">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="10">
         <v>2022</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>160.88579999999999</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>172.87</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F31" s="11">
         <v>11.103610268047937</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G31" s="11">
         <v>4.5225999999999997</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="8">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="8">
         <v>2022</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D32" s="9">
         <v>161.7963</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>172.87</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="9">
         <v>11.252030265190239</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G32" s="9">
         <v>7.7671099999999997</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="10">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>162.80000000000001</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="11">
         <v>172.87</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F33" s="11">
         <v>11.539750760499</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G33" s="11">
         <v>5.0429000000000004</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="8">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="8">
         <v>2022</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="9">
         <v>163.93209999999999</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>172.87</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="9">
         <v>11.478780639073349</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G34" s="9">
         <v>9.5525300000000009</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="10">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>165.1464</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="11">
         <v>172.87</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="11">
         <v>11.1312009332174</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G35" s="11">
         <v>6.7259200000000003</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="8">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="8">
         <v>2022</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D36" s="9">
         <v>166.541</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="9">
         <v>172.87</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F36" s="9">
         <v>10.926384520847442</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G36" s="9">
         <v>8.8021700000000003</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>166.83459999999999</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="11">
         <v>172.87</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F37" s="11">
         <v>10.820973830220426</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G37" s="11">
         <v>5.7584099999999996</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="8">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="9">
         <v>167.7371</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="9">
         <v>172.87</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F38" s="9">
         <v>10.537379166203898</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G38" s="9">
         <v>8.8308599999999995</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="10">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>169.39779999999999</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>172.87</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="11">
         <v>9.4754731203904097</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G39" s="11">
         <v>6.8888299999999996</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="12">
+    <row r="40" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="13">
         <v>170.8032</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>172.87</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>8.858127860430498</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="13">
         <v>5.6387499999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="15">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="15">
         <v>2021</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D41" s="16">
         <v>140.83420000000001</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E41" s="16">
         <v>141.69999999999999</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F41" s="16">
         <v>7.4876456534687996</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G41" s="16">
         <v>5.6811499999999997</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="8">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="8">
         <v>2021</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D42" s="9">
         <v>141.3451</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E42" s="9">
         <v>141.69999999999999</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F42" s="9">
         <v>7.4221022634149536</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G42" s="9">
         <v>5.46685</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="10">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="10">
         <v>2021</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <v>142.9632</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E43" s="11">
         <v>141.69999999999999</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F43" s="11">
         <v>7.4943963321753237</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G43" s="11">
         <v>4.3498400000000004</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="8">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="8">
         <v>2021</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="9">
         <v>144.16079999999999</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <v>141.69999999999999</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F44" s="9">
         <v>7.2551848428966892</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G44" s="9">
         <v>6.5983599999999996</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="10">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="10">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <v>145.04929999999999</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="11">
         <v>141.69999999999999</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F45" s="11">
         <v>7.4497652308630036</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G45" s="11">
         <v>5.70878</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="8">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="8">
         <v>2021</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="9">
         <v>145.3262</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <v>141.69999999999999</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F46" s="9">
         <v>7.4547280745579148</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G46" s="9">
         <v>5.6227299999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="10">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>146.18</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <v>141.69999999999999</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="11">
         <v>6.0634394773699363</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G47" s="11">
         <v>5.6012399999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="8">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="8">
         <v>2021</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D48" s="9">
         <v>146.9589</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="9">
         <v>141.69999999999999</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F48" s="9">
         <v>6.1525731513115467</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G48" s="9">
         <v>4.5034099999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="10">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <v>147.25890000000001</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E49" s="11">
         <v>141.69999999999999</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F49" s="11">
         <v>5.9561618976688102</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G49" s="11">
         <v>5.6467400000000003</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="8">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="9">
         <v>147.74090000000001</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="9">
         <v>141.69999999999999</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F50" s="9">
         <v>7.0554176776254529</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G50" s="9">
         <v>5.7310600000000003</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="10">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>148.9624</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="11">
         <v>141.69999999999999</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F51" s="11">
         <v>8.0704931821570227</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G51" s="11">
         <v>4.4228899999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="12">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="13">
         <v>149.90450000000001</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>141.69999999999999</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>8.2269715580314706</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>3.8172199999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="15">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="15">
         <v>2020</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D53" s="16">
         <v>131.47470000000001</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E53" s="16">
         <v>123.22</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F53" s="16">
         <v>7.8999918968648553</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G53" s="16">
         <v>6.7025100000000002</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="8">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="8">
         <v>2020</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D54" s="9">
         <v>131.9759</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E54" s="9">
         <v>123.22</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F54" s="9">
         <v>7.9355051734412374</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G54" s="9">
         <v>5.1872999999999996</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="10">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="10">
         <v>2020</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>132.0754</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E55" s="11">
         <v>123.22</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F55" s="11">
         <v>7.667215188304155</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G55" s="11">
         <v>4.2006399999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="8">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="8">
         <v>2020</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D56" s="9">
         <v>132.8817</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="9">
         <v>123.22</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F56" s="9">
         <v>7.572928895459996</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G56" s="9">
         <v>4.3477100000000002</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="10">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="10">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>133.18600000000001</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="11">
         <v>123.22</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F57" s="11">
         <v>6.4420399377693061</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G57" s="11">
         <v>4.3611000000000004</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="8">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="8">
         <v>2020</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D58" s="9">
         <v>133.71029999999999</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="9">
         <v>123.22</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F58" s="9">
         <v>6.4297547455233861</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G58" s="9">
         <v>6.7050200000000002</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="10">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>134.58840000000001</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="11">
         <v>123.22</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="11">
         <v>8.1367830039574827</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G59" s="11">
         <v>4.9153900000000004</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="8">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="8">
         <v>2020</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D60" s="9">
         <v>135.32499999999999</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E60" s="9">
         <v>123.22</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F60" s="9">
         <v>8.087887794221249</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G60" s="9">
         <v>4.99268</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="10">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>135.8458</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E61" s="11">
         <v>123.22</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F61" s="11">
         <v>8.0053110638582439</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G61" s="11">
         <v>5.6751199999999997</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="8">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D62" s="9">
         <v>134.46870000000001</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="9">
         <v>123.22</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F62" s="9">
         <v>7.0924734355956254</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G62" s="9">
         <v>5.7827799999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="10">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>134.40459999999999</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="11">
         <v>123.22</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="11">
         <v>6.4306785406937461</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G63" s="11">
         <v>5.6176599999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="12">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="13">
         <v>134.96270000000001</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>123.22</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>6.4211541409388229</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="13">
         <v>5.1429299999999998</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="15">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="15">
         <v>2019</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D65" s="16">
         <v>113.0099</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E65" s="16">
         <v>102.68</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F65" s="16">
         <v>6.7128637984119832</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G65" s="16">
         <v>5.8932900000000004</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="8">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="8">
         <v>2019</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D66" s="9">
         <v>113.64060000000001</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E66" s="9">
         <v>102.68</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F66" s="9">
         <v>6.5416981673249053</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G66" s="9">
         <v>5.9055099999999996</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="10">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="10">
         <v>2019</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>114.5573</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E67" s="11">
         <v>102.68</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F67" s="11">
         <v>6.4472883165934025</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G67" s="11">
         <v>4.1060999999999996</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="8">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="8">
         <v>2019</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D68" s="9">
         <v>115.1756</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E68" s="9">
         <v>102.68</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F68" s="9">
         <v>6.4399213093690122</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G68" s="9">
         <v>6.1267500000000004</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="10">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="10">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>115.4778</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="11">
         <v>102.68</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="11">
         <v>6.6044306496492178</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G69" s="11">
         <v>4.6333599999999997</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="8">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="8">
         <v>2019</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="9">
         <v>115.4589</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="9">
         <v>102.68</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F70" s="9">
         <v>6.5149948776746625</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G70" s="9">
         <v>5.6531700000000003</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="10">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>115.8926</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="11">
         <v>102.68</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <v>6.5571792302960175</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G71" s="11">
         <v>7.4020799999999998</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="8">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="8">
         <v>2019</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D72" s="9">
         <v>115.9667</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E72" s="9">
         <v>102.68</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F72" s="9">
         <v>6.6877554429744412</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G72" s="9">
         <v>6.1700699999999999</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="10">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <v>115.63290000000001</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E73" s="11">
         <v>102.68</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F73" s="11">
         <v>6.9657750632007742</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G73" s="11">
         <v>5.08446</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="8">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D74" s="9">
         <v>115.6943</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E74" s="9">
         <v>102.68</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F74" s="9">
         <v>6.7325048800213505</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G74" s="9">
         <v>6.7683299999999997</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="10">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>116.1399</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>102.68</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>6.9307872714849283</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G75" s="11">
         <v>6.3011699999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="12">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="13">
         <v>116.10720000000001</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="13">
         <v>102.68</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>6.941530195558232</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G76" s="13">
         <v>5.2492299999999998</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="10">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="10">
         <v>2018</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>100</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="11">
         <v>88.36</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="11">
         <v>5.3789897305661416</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G77" s="11">
         <v>6.6267500000000004</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="8">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="8">
         <v>2018</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D78" s="9">
         <v>100.7009</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E78" s="9">
         <v>88.36</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F78" s="9">
         <v>5.9138870881875416</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G78" s="9">
         <v>5.2983399999999996</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="10">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="10">
         <v>2018</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>101.55759999999999</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="11">
         <v>88.36</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="11">
         <v>5.8335904693498586</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G79" s="11">
         <v>3.8095400000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="8">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="8">
         <v>2018</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D80" s="9">
         <v>102.0839</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E80" s="9">
         <v>88.36</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F80" s="9">
         <v>5.8410211118133493</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G80" s="9">
         <v>5.7895099999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="10">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>102.51560000000001</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="11">
         <v>88.36</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F81" s="11">
         <v>5.9201670859141631</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G81" s="11">
         <v>5.9572500000000002</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="8">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="8">
         <v>2018</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D82" s="9">
         <v>103.11369999999999</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E82" s="9">
         <v>88.36</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F82" s="9">
         <v>5.9473467068114516</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G82" s="9">
         <v>6.0968299999999997</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="10">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>103.6664</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="11">
         <v>88.36</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="11">
         <v>5.7562832517160434</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G83" s="11">
         <v>4.5519999999999996</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="8">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="8">
         <v>2018</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D84" s="9">
         <v>104.0668</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E84" s="9">
         <v>88.36</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F84" s="9">
         <v>5.433721276431358</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G84" s="9">
         <v>6.0502200000000004</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="10">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>103.8981</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="11">
         <v>88.36</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="11">
         <v>5.8376710655503983</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G85" s="11">
         <v>4.5923600000000002</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="8">
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D86" s="9">
         <v>103.5459</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E86" s="9">
         <v>88.36</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F86" s="9">
         <v>5.9410164373325358</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G86" s="9">
         <v>5.52257</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="10">
-        <v>2018</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="11">
-        <v>103.88079999999999</v>
-      </c>
-      <c r="E86" s="11">
-        <v>88.36</v>
-      </c>
-      <c r="F86" s="11">
-        <v>5.4159083624427007</v>
-      </c>
-      <c r="G86" s="11">
-        <v>5.4624600000000001</v>
       </c>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
     <row r="87" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="8">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" s="9">
-        <v>104.2765</v>
-      </c>
-      <c r="E87" s="9">
+      <c r="C87" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="11">
+        <v>103.88079999999999</v>
+      </c>
+      <c r="E87" s="11">
         <v>88.36</v>
       </c>
-      <c r="F87" s="9">
-        <v>5.125430913865392</v>
-      </c>
-      <c r="G87" s="9">
-        <v>4.7389599999999996</v>
+      <c r="F87" s="11">
+        <v>5.4159083624427007</v>
+      </c>
+      <c r="G87" s="11">
+        <v>5.4624600000000001</v>
       </c>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
@@ -2472,43 +2472,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B88" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" s="3"/>
+    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="9">
+        <v>104.2765</v>
+      </c>
+      <c r="E88" s="9">
+        <v>88.36</v>
+      </c>
+      <c r="F88" s="9">
+        <v>5.125430913865392</v>
+      </c>
+      <c r="G88" s="9">
+        <v>4.7389599999999996</v>
+      </c>
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B89" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="F89" s="3"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B90" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="F90" s="3"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B92" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="G92" s="18"/>
+      <c r="D92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.45">
       <c r="G93" s="18"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G94" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Salarios.xlsx
+++ b/Salarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82FCE6D-3CF5-4B4B-8C8A-C2707547EB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C6DB94-2FC7-424F-B18E-72F55128B521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.3" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="24">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -106,10 +106,10 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t xml:space="preserve">          El Salario contractual, Incluye salario contractual de jurisdicción federal.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t xml:space="preserve"> El Salario contractual, Incluye salario contractual de jurisdicción federal.</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -255,12 +255,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -306,6 +317,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -400,13 +418,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -433,6 +444,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -484,8 +502,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}" name="Tabla1" displayName="Tabla1" ref="B4:G88" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B4:G88" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}" name="Tabla1" displayName="Tabla1" ref="B4:G89" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="B4:G89" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -727,7 +745,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="A2:O94"/>
+  <dimension ref="A2:O95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -804,1731 +822,1751 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="10">
+      <c r="B5" s="20">
+        <v>2025</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="21">
+        <v>234.9641</v>
+      </c>
+      <c r="E5" s="21">
+        <v>278.8</v>
+      </c>
+      <c r="F5" s="21">
+        <v>7.7045927602115816</v>
+      </c>
+      <c r="G5" s="21">
+        <v>7.9758300000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10">
         <v>2024</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D6" s="11">
         <v>210.3897</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E6" s="11">
         <v>248.93</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F6" s="11">
         <v>9.2072724943051973</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G6" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="8">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="8">
         <v>2024</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="9">
         <v>211.1935</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="9">
         <v>248.93</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <v>9.2059656556959357</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G7" s="9">
         <v>3.6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="10">
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
         <v>2024</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="11">
         <v>212.11340000000001</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E8" s="11">
         <v>248.93</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F8" s="11">
         <v>9.2094348758141606</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G8" s="11">
         <v>7.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="9">
-        <v>213.27930000000001</v>
-      </c>
-      <c r="E8" s="9">
-        <v>248.93</v>
-      </c>
-      <c r="F8" s="9">
-        <v>9.2698142462096058</v>
-      </c>
-      <c r="G8" s="9">
-        <v>8.5</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="9">
+        <v>213.27930000000001</v>
+      </c>
+      <c r="E9" s="9">
+        <v>248.93</v>
+      </c>
+      <c r="F9" s="9">
+        <v>9.2698142462096058</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>213.3844</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="11">
         <v>248.93</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>9.7071592892403089</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G10" s="11">
         <v>8.5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="8">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="8">
         <v>2024</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="9">
         <v>213.40010000000001</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>248.93</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>9.678628067358396</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <v>6.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="10">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>215.63409999999999</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>248.93</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="11">
         <v>9.5275285380818531</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G12" s="11">
         <v>9.1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="8">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="8">
         <v>2024</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <v>216.4494</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>248.93</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>9.4712077959391294</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G13" s="9">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="10">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>216.04820000000001</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <v>248.93</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>9.6363148050862879</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G14" s="11">
         <v>7.5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="8">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="8">
         <v>2024</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <v>216.48490000000001</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>248.93</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>9.877974082470665</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G15" s="9">
         <v>9.6</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="10">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>217.10679999999999</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <v>248.93</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <v>10.128177295814877</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G16" s="11">
         <v>8.4</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="12">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <v>217.3116</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <v>248.93</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>10.445541700127524</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="13">
         <v>7.9025400000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="14">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="14">
         <v>2023</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D18" s="16">
         <v>182.70859999999999</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E18" s="16">
         <v>207.44</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F18" s="16">
         <v>10.525527026429549</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G18" s="16">
         <v>9.4565099999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="8">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="8">
         <v>2023</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="9">
         <v>183.99850000000001</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="9">
         <v>207.44</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <v>10.600337846674556</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G19" s="9">
         <v>11.557779999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="10">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
         <v>2023</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <v>185.17619999999999</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="11">
         <v>207.44</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <v>10.75781505813298</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G20" s="11">
         <v>5.87758</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="8">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="8">
         <v>2023</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>185.87209999999999</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>207.44</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>10.730900115286657</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G21" s="9">
         <v>5.1179600000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="10">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>186.69710000000001</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="11">
         <v>207.44</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="11">
         <v>10.557782826178386</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G22" s="11">
         <v>8.52529</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="8">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="8">
         <v>2023</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="9">
         <v>187.7304</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <v>207.44</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <v>10.584865689848266</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G23" s="9">
         <v>8.8868299999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="10">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <v>188.6353</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="11">
         <v>207.44</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="11">
         <v>11.24794836198264</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G24" s="11">
         <v>7.8830099999999996</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="8">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="9">
         <v>188.82669999999999</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E25" s="9">
         <v>207.44</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="9">
         <v>11.289402261233805</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G25" s="9">
         <v>8.8381900000000009</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="10">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>188.41630000000001</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>207.44</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="11">
         <v>11.238302906502851</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G26" s="11">
         <v>10.018739999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="8">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="9">
         <v>188.37809999999999</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>207.44</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>11.181872421901872</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G27" s="9">
         <v>9.5111500000000007</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="10">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>188.8828</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E28" s="11">
         <v>207.44</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F28" s="11">
         <v>11.218853887600023</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G28" s="11">
         <v>8.4645399999999995</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="12">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <v>189.9359</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <v>207.44</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>11.229977483897336</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>10.203760000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="14">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="14">
         <v>2022</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D30" s="16">
         <v>159.35679999999999</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E30" s="16">
         <v>172.87</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F30" s="16">
         <v>10.965653953382425</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G30" s="16">
         <v>8.9062999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="8">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="8">
         <v>2022</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="9">
         <v>159.96510000000001</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>172.87</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>10.995255372919743</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G31" s="9">
         <v>8.3648600000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="10">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10">
         <v>2022</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <v>160.88579999999999</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E32" s="11">
         <v>172.87</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F32" s="11">
         <v>11.103610268047937</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G32" s="11">
         <v>4.5225999999999997</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="8">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="8">
         <v>2022</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="9">
         <v>161.7963</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="9">
         <v>172.87</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F33" s="9">
         <v>11.252030265190239</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G33" s="9">
         <v>7.7671099999999997</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="10">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>162.80000000000001</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="11">
         <v>172.87</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F34" s="11">
         <v>11.539750760499</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G34" s="11">
         <v>5.0429000000000004</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="8">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="8">
         <v>2022</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="9">
         <v>163.93209999999999</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="9">
         <v>172.87</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F35" s="9">
         <v>11.478780639073349</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G35" s="9">
         <v>9.5525300000000009</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="10">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <v>165.1464</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="11">
         <v>172.87</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F36" s="11">
         <v>11.1312009332174</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G36" s="11">
         <v>6.7259200000000003</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="8">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="9">
         <v>166.541</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="9">
         <v>172.87</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F37" s="9">
         <v>10.926384520847442</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G37" s="9">
         <v>8.8021700000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="10">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>166.83459999999999</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="11">
         <v>172.87</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F38" s="11">
         <v>10.820973830220426</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G38" s="11">
         <v>5.7584099999999996</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="8">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="9">
         <v>167.7371</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>172.87</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F39" s="9">
         <v>10.537379166203898</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G39" s="9">
         <v>8.8308599999999995</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="10">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>169.39779999999999</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="11">
         <v>172.87</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F40" s="11">
         <v>9.4754731203904097</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G40" s="11">
         <v>6.8888299999999996</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="12">
+    <row r="41" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D41" s="13">
         <v>170.8032</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>172.87</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>8.858127860430498</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>5.6387499999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="15">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="15">
         <v>2021</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D42" s="16">
         <v>140.83420000000001</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E42" s="16">
         <v>141.69999999999999</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F42" s="16">
         <v>7.4876456534687996</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G42" s="16">
         <v>5.6811499999999997</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="8">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="8">
         <v>2021</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="9">
         <v>141.3451</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="9">
         <v>141.69999999999999</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F43" s="9">
         <v>7.4221022634149536</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G43" s="9">
         <v>5.46685</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="10">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="10">
         <v>2021</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <v>142.9632</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E44" s="11">
         <v>141.69999999999999</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F44" s="11">
         <v>7.4943963321753237</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G44" s="11">
         <v>4.3498400000000004</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="8">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="8">
         <v>2021</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="9">
         <v>144.16079999999999</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E45" s="9">
         <v>141.69999999999999</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F45" s="9">
         <v>7.2551848428966892</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G45" s="9">
         <v>6.5983599999999996</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="10">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>145.04929999999999</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E46" s="11">
         <v>141.69999999999999</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="11">
         <v>7.4497652308630036</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G46" s="11">
         <v>5.70878</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="8">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="8">
         <v>2021</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="9">
         <v>145.3262</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>141.69999999999999</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F47" s="9">
         <v>7.4547280745579148</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G47" s="9">
         <v>5.6227299999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="10">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <v>146.18</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E48" s="11">
         <v>141.69999999999999</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F48" s="11">
         <v>6.0634394773699363</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G48" s="11">
         <v>5.6012399999999998</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="8">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="9">
         <v>146.9589</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E49" s="9">
         <v>141.69999999999999</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F49" s="9">
         <v>6.1525731513115467</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G49" s="9">
         <v>4.5034099999999997</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="10">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <v>147.25890000000001</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E50" s="11">
         <v>141.69999999999999</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F50" s="11">
         <v>5.9561618976688102</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G50" s="11">
         <v>5.6467400000000003</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="8">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="9">
         <v>147.74090000000001</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="9">
         <v>141.69999999999999</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F51" s="9">
         <v>7.0554176776254529</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G51" s="9">
         <v>5.7310600000000003</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="10">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>148.9624</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E52" s="11">
         <v>141.69999999999999</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F52" s="11">
         <v>8.0704931821570227</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G52" s="11">
         <v>4.4228899999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="12">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <v>149.90450000000001</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <v>141.69999999999999</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>8.2269715580314706</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="13">
         <v>3.8172199999999998</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="15">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="15">
         <v>2020</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C54" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D54" s="16">
         <v>131.47470000000001</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E54" s="16">
         <v>123.22</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F54" s="16">
         <v>7.8999918968648553</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G54" s="16">
         <v>6.7025100000000002</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="8">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="8">
         <v>2020</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="9">
         <v>131.9759</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E55" s="9">
         <v>123.22</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F55" s="9">
         <v>7.9355051734412374</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G55" s="9">
         <v>5.1872999999999996</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="10">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="10">
         <v>2020</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <v>132.0754</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E56" s="11">
         <v>123.22</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F56" s="11">
         <v>7.667215188304155</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G56" s="11">
         <v>4.2006399999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="8">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="8">
         <v>2020</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="9">
         <v>132.8817</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E57" s="9">
         <v>123.22</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F57" s="9">
         <v>7.572928895459996</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G57" s="9">
         <v>4.3477100000000002</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="10">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>133.18600000000001</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E58" s="11">
         <v>123.22</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F58" s="11">
         <v>6.4420399377693061</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G58" s="11">
         <v>4.3611000000000004</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="8">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="8">
         <v>2020</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="9">
         <v>133.71029999999999</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E59" s="9">
         <v>123.22</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F59" s="9">
         <v>6.4297547455233861</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G59" s="9">
         <v>6.7050200000000002</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="10">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <v>134.58840000000001</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E60" s="11">
         <v>123.22</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F60" s="11">
         <v>8.1367830039574827</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G60" s="11">
         <v>4.9153900000000004</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="8">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="9">
         <v>135.32499999999999</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E61" s="9">
         <v>123.22</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F61" s="9">
         <v>8.087887794221249</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G61" s="9">
         <v>4.99268</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="10">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>135.8458</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E62" s="11">
         <v>123.22</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F62" s="11">
         <v>8.0053110638582439</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G62" s="11">
         <v>5.6751199999999997</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="8">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="9">
         <v>134.46870000000001</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E63" s="9">
         <v>123.22</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F63" s="9">
         <v>7.0924734355956254</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G63" s="9">
         <v>5.7827799999999998</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="10">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>134.40459999999999</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="11">
         <v>123.22</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F64" s="11">
         <v>6.4306785406937461</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G64" s="11">
         <v>5.6176599999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="12">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D65" s="13">
         <v>134.96270000000001</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E65" s="13">
         <v>123.22</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="13">
         <v>6.4211541409388229</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="13">
         <v>5.1429299999999998</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="15">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="15">
         <v>2019</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C66" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D66" s="16">
         <v>113.0099</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E66" s="16">
         <v>102.68</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F66" s="16">
         <v>6.7128637984119832</v>
       </c>
-      <c r="G65" s="16">
+      <c r="G66" s="16">
         <v>5.8932900000000004</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="8">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="8">
         <v>2019</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="9">
         <v>113.64060000000001</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E67" s="9">
         <v>102.68</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F67" s="9">
         <v>6.5416981673249053</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G67" s="9">
         <v>5.9055099999999996</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="10">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="10">
         <v>2019</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <v>114.5573</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E68" s="11">
         <v>102.68</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F68" s="11">
         <v>6.4472883165934025</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G68" s="11">
         <v>4.1060999999999996</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="8">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="8">
         <v>2019</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="9">
         <v>115.1756</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E69" s="9">
         <v>102.68</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F69" s="9">
         <v>6.4399213093690122</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G69" s="9">
         <v>6.1267500000000004</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="10">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>115.4778</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E70" s="11">
         <v>102.68</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F70" s="11">
         <v>6.6044306496492178</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G70" s="11">
         <v>4.6333599999999997</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="8">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="8">
         <v>2019</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="9">
         <v>115.4589</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E71" s="9">
         <v>102.68</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F71" s="9">
         <v>6.5149948776746625</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G71" s="9">
         <v>5.6531700000000003</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="10">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <v>115.8926</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E72" s="11">
         <v>102.68</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F72" s="11">
         <v>6.5571792302960175</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G72" s="11">
         <v>7.4020799999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="8">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="9">
         <v>115.9667</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E73" s="9">
         <v>102.68</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F73" s="9">
         <v>6.6877554429744412</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G73" s="9">
         <v>6.1700699999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="10">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>115.63290000000001</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>102.68</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <v>6.9657750632007742</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G74" s="11">
         <v>5.08446</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="8">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="9">
         <v>115.6943</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E75" s="9">
         <v>102.68</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F75" s="9">
         <v>6.7325048800213505</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G75" s="9">
         <v>6.7683299999999997</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="10">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>116.1399</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E76" s="11">
         <v>102.68</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="11">
         <v>6.9307872714849283</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G76" s="11">
         <v>6.3011699999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="12">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D77" s="13">
         <v>116.10720000000001</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E77" s="13">
         <v>102.68</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="13">
         <v>6.941530195558232</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G77" s="13">
         <v>5.2492299999999998</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="10">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="10">
         <v>2018</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <v>100</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E78" s="11">
         <v>88.36</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F78" s="11">
         <v>5.3789897305661416</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G78" s="11">
         <v>6.6267500000000004</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="8">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="8">
         <v>2018</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="9">
         <v>100.7009</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E79" s="9">
         <v>88.36</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F79" s="9">
         <v>5.9138870881875416</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G79" s="9">
         <v>5.2983399999999996</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="10">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <v>101.55759999999999</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E80" s="11">
         <v>88.36</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F80" s="11">
         <v>5.8335904693498586</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G80" s="11">
         <v>3.8095400000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="8">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="8">
         <v>2018</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="9">
         <v>102.0839</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E81" s="9">
         <v>88.36</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F81" s="9">
         <v>5.8410211118133493</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G81" s="9">
         <v>5.7895099999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="10">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>102.51560000000001</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="11">
         <v>88.36</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F82" s="11">
         <v>5.9201670859141631</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G82" s="11">
         <v>5.9572500000000002</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="8">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="8">
         <v>2018</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="9">
         <v>103.11369999999999</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E83" s="9">
         <v>88.36</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F83" s="9">
         <v>5.9473467068114516</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G83" s="9">
         <v>6.0968299999999997</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="10">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>103.6664</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E84" s="11">
         <v>88.36</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F84" s="11">
         <v>5.7562832517160434</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G84" s="11">
         <v>4.5519999999999996</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="8">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="9">
         <v>104.0668</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E85" s="9">
         <v>88.36</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F85" s="9">
         <v>5.433721276431358</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G85" s="9">
         <v>6.0502200000000004</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="10">
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>103.8981</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>88.36</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="11">
         <v>5.8376710655503983</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G86" s="11">
         <v>4.5923600000000002</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="8">
+    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="9">
         <v>103.5459</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E87" s="9">
         <v>88.36</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F87" s="9">
         <v>5.9410164373325358</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G87" s="9">
         <v>5.52257</v>
-      </c>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-    </row>
-    <row r="87" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="10">
-        <v>2018</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="11">
-        <v>103.88079999999999</v>
-      </c>
-      <c r="E87" s="11">
-        <v>88.36</v>
-      </c>
-      <c r="F87" s="11">
-        <v>5.4159083624427007</v>
-      </c>
-      <c r="G87" s="11">
-        <v>5.4624600000000001</v>
       </c>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
-      <c r="J87" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="8">
+    </row>
+    <row r="88" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="9">
-        <v>104.2765</v>
-      </c>
-      <c r="E88" s="9">
+      <c r="C88" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="11">
+        <v>103.88079999999999</v>
+      </c>
+      <c r="E88" s="11">
         <v>88.36</v>
       </c>
-      <c r="F88" s="9">
-        <v>5.125430913865392</v>
-      </c>
-      <c r="G88" s="9">
-        <v>4.7389599999999996</v>
+      <c r="F88" s="11">
+        <v>5.4159083624427007</v>
+      </c>
+      <c r="G88" s="11">
+        <v>5.4624600000000001</v>
       </c>
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B89" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C89" s="3"/>
+      <c r="J88" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="9">
+        <v>104.2765</v>
+      </c>
+      <c r="E89" s="9">
+        <v>88.36</v>
+      </c>
+      <c r="F89" s="9">
+        <v>5.125430913865392</v>
+      </c>
+      <c r="G89" s="9">
+        <v>4.7389599999999996</v>
+      </c>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B90" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="F90" s="3"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B91" s="3" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="F91" s="3"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B93" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="G93" s="18"/>
+      <c r="D93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.45">
       <c r="G94" s="18"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G95" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Salarios.xlsx
+++ b/Salarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C6DB94-2FC7-424F-B18E-72F55128B521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F025E2A-7372-46F2-908E-C2F4B5F73D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.3" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="24">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -106,20 +106,21 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t xml:space="preserve"> El Salario contractual, Incluye salario contractual de jurisdicción federal.</t>
   </si>
   <si>
-    <t xml:space="preserve"> El Salario contractual, Incluye salario contractual de jurisdicción federal.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -192,43 +193,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -256,14 +222,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
-      </bottom>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -283,15 +267,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -300,17 +275,17 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -320,10 +295,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -418,6 +402,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -444,13 +435,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -502,8 +486,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}" name="Tabla1" displayName="Tabla1" ref="B4:G89" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="B4:G89" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}" name="Tabla1" displayName="Tabla1" ref="B4:G90" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G90" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -751,7 +735,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" style="1" customWidth="1"/>
@@ -767,7 +751,7 @@
     <col min="16" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
@@ -785,7 +769,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -801,1772 +785,1801 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" ht="58.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="49.5">
+      <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="20">
+    <row r="5" spans="1:15" s="4" customFormat="1">
+      <c r="B5" s="7">
         <v>2025</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8">
+        <v>234.31540000000001</v>
+      </c>
+      <c r="E5" s="8">
+        <v>278.8</v>
+      </c>
+      <c r="F5" s="8">
+        <v>7.540068115541998</v>
+      </c>
+      <c r="G5" s="8">
+        <v>7.8129799999999996</v>
+      </c>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1">
+      <c r="B6" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D6" s="10">
         <v>234.9641</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E6" s="10">
         <v>278.8</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F6" s="10">
         <v>7.7045927602115816</v>
       </c>
-      <c r="G5" s="21">
-        <v>7.9758300000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="10">
+      <c r="G6" s="10">
+        <v>7.8270099999999996</v>
+      </c>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1">
+      <c r="B7" s="7">
         <v>2024</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="8">
         <v>210.3897</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="8">
         <v>248.93</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="8">
         <v>9.2072724943051973</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G7" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="8">
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1">
+      <c r="B8" s="5">
         <v>2024</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="6">
         <v>211.1935</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="6">
         <v>248.93</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="6">
         <v>9.2059656556959357</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G8" s="6">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="10">
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1">
+      <c r="B9" s="7">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="8">
         <v>212.11340000000001</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="8">
         <v>248.93</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="8">
         <v>9.2094348758141606</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="8">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="B9" s="8">
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" ht="18" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5">
         <v>2024</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="6">
         <v>213.27930000000001</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="6">
         <v>248.93</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="6">
         <v>9.2698142462096058</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G10" s="6">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="B10" s="10">
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:15" ht="18" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="7">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="8">
         <v>213.3844</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="8">
         <v>248.93</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="8">
         <v>9.7071592892403089</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="8">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="8">
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="5">
         <v>2024</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="6">
         <v>213.40010000000001</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="6">
         <v>248.93</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="6">
         <v>9.678628067358396</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G12" s="6">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="10">
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="7">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="8">
         <v>215.63409999999999</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="8">
         <v>248.93</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="8">
         <v>9.5275285380818531</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G13" s="8">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="8">
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="5">
         <v>2024</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="6">
         <v>216.4494</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="6">
         <v>248.93</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="6">
         <v>9.4712077959391294</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G14" s="6">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="7">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="8">
         <v>216.04820000000001</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="8">
         <v>248.93</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="8">
         <v>9.6363148050862879</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G15" s="8">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="8">
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="5">
         <v>2024</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="6">
         <v>216.48490000000001</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="6">
         <v>248.93</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="6">
         <v>9.877974082470665</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="6">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="10">
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="7">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="8">
         <v>217.10679999999999</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="8">
         <v>248.93</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="8">
         <v>10.128177295814877</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G17" s="8">
         <v>8.4</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="12">
+    <row r="18" spans="2:7">
+      <c r="B18" s="9">
         <v>2024</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="10">
         <v>217.3116</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="10">
         <v>248.93</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="10">
         <v>10.445541700127524</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="10">
         <v>7.9025400000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="14">
+    <row r="19" spans="2:7" hidden="1">
+      <c r="B19" s="11">
         <v>2023</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D19" s="13">
         <v>182.70859999999999</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E19" s="13">
         <v>207.44</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F19" s="13">
         <v>10.525527026429549</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G19" s="13">
         <v>9.4565099999999997</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="8">
+    <row r="20" spans="2:7" hidden="1">
+      <c r="B20" s="5">
         <v>2023</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="6">
         <v>183.99850000000001</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="6">
         <v>207.44</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="6">
         <v>10.600337846674556</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G20" s="6">
         <v>11.557779999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10">
+    <row r="21" spans="2:7" hidden="1">
+      <c r="B21" s="7">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="8">
         <v>185.17619999999999</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="8">
         <v>207.44</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="8">
         <v>10.75781505813298</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="8">
         <v>5.87758</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="8">
+    <row r="22" spans="2:7" hidden="1">
+      <c r="B22" s="5">
         <v>2023</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="6">
         <v>185.87209999999999</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="6">
         <v>207.44</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="6">
         <v>10.730900115286657</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G22" s="6">
         <v>5.1179600000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+    <row r="23" spans="2:7" hidden="1">
+      <c r="B23" s="7">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="8">
         <v>186.69710000000001</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="8">
         <v>207.44</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="8">
         <v>10.557782826178386</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G23" s="8">
         <v>8.52529</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="8">
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="5">
         <v>2023</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D24" s="6">
         <v>187.7304</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="6">
         <v>207.44</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F24" s="6">
         <v>10.584865689848266</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G24" s="6">
         <v>8.8868299999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10">
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="7">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="8">
         <v>188.6353</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="8">
         <v>207.44</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="8">
         <v>11.24794836198264</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G25" s="8">
         <v>7.8830099999999996</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="8">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="5">
         <v>2023</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="6">
         <v>188.82669999999999</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="6">
         <v>207.44</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="6">
         <v>11.289402261233805</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G26" s="6">
         <v>8.8381900000000009</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="7">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="8">
         <v>188.41630000000001</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="8">
         <v>207.44</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="8">
         <v>11.238302906502851</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G27" s="8">
         <v>10.018739999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="8">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="5">
         <v>2023</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D28" s="6">
         <v>188.37809999999999</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="6">
         <v>207.44</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="6">
         <v>11.181872421901872</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G28" s="6">
         <v>9.5111500000000007</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="10">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="7">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="8">
         <v>188.8828</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="8">
         <v>207.44</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="8">
         <v>11.218853887600023</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G29" s="8">
         <v>8.4645399999999995</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="12">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="9">
         <v>2023</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D30" s="10">
         <v>189.9359</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="10">
         <v>207.44</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="10">
         <v>11.229977483897336</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="10">
         <v>10.203760000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="14">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="11">
         <v>2022</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C31" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D31" s="13">
         <v>159.35679999999999</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E31" s="13">
         <v>172.87</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F31" s="13">
         <v>10.965653953382425</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G31" s="13">
         <v>8.9062999999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="8">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="5">
         <v>2022</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D32" s="6">
         <v>159.96510000000001</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="6">
         <v>172.87</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="6">
         <v>10.995255372919743</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G32" s="6">
         <v>8.3648600000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="7">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="8">
         <v>160.88579999999999</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="8">
         <v>172.87</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F33" s="8">
         <v>11.103610268047937</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G33" s="8">
         <v>4.5225999999999997</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="8">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="5">
         <v>2022</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="6">
         <v>161.7963</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="6">
         <v>172.87</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="6">
         <v>11.252030265190239</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G34" s="6">
         <v>7.7671099999999997</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="10">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="7">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="8">
         <v>162.80000000000001</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="8">
         <v>172.87</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="8">
         <v>11.539750760499</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G35" s="8">
         <v>5.0429000000000004</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="8">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="5">
         <v>2022</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D36" s="6">
         <v>163.93209999999999</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="6">
         <v>172.87</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F36" s="6">
         <v>11.478780639073349</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G36" s="6">
         <v>9.5525300000000009</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="7">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="8">
         <v>165.1464</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="8">
         <v>172.87</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F37" s="8">
         <v>11.1312009332174</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G37" s="8">
         <v>6.7259200000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="8">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="5">
         <v>2022</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="6">
         <v>166.541</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="6">
         <v>172.87</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F38" s="6">
         <v>10.926384520847442</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G38" s="6">
         <v>8.8021700000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="10">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="7">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="8">
         <v>166.83459999999999</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="8">
         <v>172.87</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="8">
         <v>10.820973830220426</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G39" s="8">
         <v>5.7584099999999996</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="8">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="5">
         <v>2022</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D40" s="6">
         <v>167.7371</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="6">
         <v>172.87</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F40" s="6">
         <v>10.537379166203898</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G40" s="6">
         <v>8.8308599999999995</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="10">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="7">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="8">
         <v>169.39779999999999</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="8">
         <v>172.87</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F41" s="8">
         <v>9.4754731203904097</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G41" s="8">
         <v>6.8888299999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="12">
+    <row r="42" spans="2:7" ht="18" hidden="1" customHeight="1">
+      <c r="B42" s="9">
         <v>2022</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D42" s="10">
         <v>170.8032</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="10">
         <v>172.87</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="10">
         <v>8.858127860430498</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="10">
         <v>5.6387499999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="15">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="12">
         <v>2021</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C43" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D43" s="13">
         <v>140.83420000000001</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E43" s="13">
         <v>141.69999999999999</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F43" s="13">
         <v>7.4876456534687996</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G43" s="13">
         <v>5.6811499999999997</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="8">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="5">
         <v>2021</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C44" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="6">
         <v>141.3451</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F44" s="6">
         <v>7.4221022634149536</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G44" s="6">
         <v>5.46685</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="10">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="7">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="8">
         <v>142.9632</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F45" s="8">
         <v>7.4943963321753237</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G45" s="8">
         <v>4.3498400000000004</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="8">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="5">
         <v>2021</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="6">
         <v>144.16079999999999</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F46" s="6">
         <v>7.2551848428966892</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G46" s="6">
         <v>6.5983599999999996</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="10">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="7">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="8">
         <v>145.04929999999999</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="8">
         <v>7.4497652308630036</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G47" s="8">
         <v>5.70878</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="8">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="5">
         <v>2021</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D48" s="6">
         <v>145.3262</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F48" s="6">
         <v>7.4547280745579148</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G48" s="6">
         <v>5.6227299999999998</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="10">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="7">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="8">
         <v>146.18</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E49" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F49" s="8">
         <v>6.0634394773699363</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G49" s="8">
         <v>5.6012399999999998</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="8">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="5">
         <v>2021</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="6">
         <v>146.9589</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F50" s="6">
         <v>6.1525731513115467</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G50" s="6">
         <v>4.5034099999999997</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="10">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="7">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="8">
         <v>147.25890000000001</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F51" s="8">
         <v>5.9561618976688102</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G51" s="8">
         <v>5.6467400000000003</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="8">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="5">
         <v>2021</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D52" s="6">
         <v>147.74090000000001</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E52" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="6">
         <v>7.0554176776254529</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G52" s="6">
         <v>5.7310600000000003</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="10">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="7">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="8">
         <v>148.9624</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E53" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F53" s="8">
         <v>8.0704931821570227</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G53" s="8">
         <v>4.4228899999999998</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="12">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="9">
         <v>2021</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D54" s="10">
         <v>149.90450000000001</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="10">
         <v>141.69999999999999</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="10">
         <v>8.2269715580314706</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="10">
         <v>3.8172199999999998</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="15">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="12">
         <v>2020</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C55" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D55" s="13">
         <v>131.47470000000001</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E55" s="13">
         <v>123.22</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F55" s="13">
         <v>7.8999918968648553</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G55" s="13">
         <v>6.7025100000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="8">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="5">
         <v>2020</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D56" s="6">
         <v>131.9759</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="6">
         <v>123.22</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F56" s="6">
         <v>7.9355051734412374</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G56" s="6">
         <v>5.1872999999999996</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="10">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="7">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="8">
         <v>132.0754</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="8">
         <v>123.22</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F57" s="8">
         <v>7.667215188304155</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G57" s="8">
         <v>4.2006399999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="8">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="5">
         <v>2020</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D58" s="6">
         <v>132.8817</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="6">
         <v>123.22</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F58" s="6">
         <v>7.572928895459996</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G58" s="6">
         <v>4.3477100000000002</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="10">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="7">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="8">
         <v>133.18600000000001</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="8">
         <v>123.22</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="8">
         <v>6.4420399377693061</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G59" s="8">
         <v>4.3611000000000004</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="8">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="5">
         <v>2020</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D60" s="6">
         <v>133.71029999999999</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E60" s="6">
         <v>123.22</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F60" s="6">
         <v>6.4297547455233861</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G60" s="6">
         <v>6.7050200000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="10">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="7">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="8">
         <v>134.58840000000001</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E61" s="8">
         <v>123.22</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F61" s="8">
         <v>8.1367830039574827</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G61" s="8">
         <v>4.9153900000000004</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="8">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="5">
         <v>2020</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D62" s="6">
         <v>135.32499999999999</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="6">
         <v>123.22</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F62" s="6">
         <v>8.087887794221249</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G62" s="6">
         <v>4.99268</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="10">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="7">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="8">
         <v>135.8458</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="8">
         <v>123.22</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="8">
         <v>8.0053110638582439</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G63" s="8">
         <v>5.6751199999999997</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="8">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="5">
         <v>2020</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D64" s="6">
         <v>134.46870000000001</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E64" s="6">
         <v>123.22</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F64" s="6">
         <v>7.0924734355956254</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G64" s="6">
         <v>5.7827799999999998</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="10">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="7">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="8">
         <v>134.40459999999999</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="8">
         <v>123.22</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="8">
         <v>6.4306785406937461</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G65" s="8">
         <v>5.6176599999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="12">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="9">
         <v>2020</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D66" s="10">
         <v>134.96270000000001</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E66" s="10">
         <v>123.22</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F66" s="10">
         <v>6.4211541409388229</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G66" s="10">
         <v>5.1429299999999998</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="15">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="12">
         <v>2019</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C67" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D67" s="13">
         <v>113.0099</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E67" s="13">
         <v>102.68</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F67" s="13">
         <v>6.7128637984119832</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G67" s="13">
         <v>5.8932900000000004</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="8">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="5">
         <v>2019</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D68" s="6">
         <v>113.64060000000001</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E68" s="6">
         <v>102.68</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F68" s="6">
         <v>6.5416981673249053</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G68" s="6">
         <v>5.9055099999999996</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="10">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="7">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="8">
         <v>114.5573</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="8">
         <v>102.68</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="8">
         <v>6.4472883165934025</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G69" s="8">
         <v>4.1060999999999996</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="8">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="5">
         <v>2019</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="6">
         <v>115.1756</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="6">
         <v>102.68</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F70" s="6">
         <v>6.4399213093690122</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G70" s="6">
         <v>6.1267500000000004</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="10">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="7">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="8">
         <v>115.4778</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="8">
         <v>102.68</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="8">
         <v>6.6044306496492178</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G71" s="8">
         <v>4.6333599999999997</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="8">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="5">
         <v>2019</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D72" s="6">
         <v>115.4589</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E72" s="6">
         <v>102.68</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F72" s="6">
         <v>6.5149948776746625</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G72" s="6">
         <v>5.6531700000000003</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="10">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="7">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="8">
         <v>115.8926</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E73" s="8">
         <v>102.68</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F73" s="8">
         <v>6.5571792302960175</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G73" s="8">
         <v>7.4020799999999998</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="8">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="5">
         <v>2019</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D74" s="6">
         <v>115.9667</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E74" s="6">
         <v>102.68</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F74" s="6">
         <v>6.6877554429744412</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G74" s="6">
         <v>6.1700699999999999</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="10">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="7">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="8">
         <v>115.63290000000001</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="8">
         <v>102.68</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="8">
         <v>6.9657750632007742</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G75" s="8">
         <v>5.08446</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="8">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="5">
         <v>2019</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D76" s="6">
         <v>115.6943</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E76" s="6">
         <v>102.68</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F76" s="6">
         <v>6.7325048800213505</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G76" s="6">
         <v>6.7683299999999997</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="10">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="7">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="8">
         <v>116.1399</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="8">
         <v>102.68</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="8">
         <v>6.9307872714849283</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G77" s="8">
         <v>6.3011699999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="12">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="9">
         <v>2019</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D78" s="10">
         <v>116.10720000000001</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E78" s="10">
         <v>102.68</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F78" s="10">
         <v>6.941530195558232</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G78" s="10">
         <v>5.2492299999999998</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="10">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="7">
         <v>2018</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="8">
         <v>100</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="8">
         <v>88.36</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="8">
         <v>5.3789897305661416</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G79" s="8">
         <v>6.6267500000000004</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="8">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="5">
         <v>2018</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D80" s="6">
         <v>100.7009</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E80" s="6">
         <v>88.36</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F80" s="6">
         <v>5.9138870881875416</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G80" s="6">
         <v>5.2983399999999996</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="10">
+    <row r="81" spans="2:10" hidden="1">
+      <c r="B81" s="7">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="8">
         <v>101.55759999999999</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="8">
         <v>88.36</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F81" s="8">
         <v>5.8335904693498586</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G81" s="8">
         <v>3.8095400000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="8">
+    <row r="82" spans="2:10" hidden="1">
+      <c r="B82" s="5">
         <v>2018</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D82" s="6">
         <v>102.0839</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E82" s="6">
         <v>88.36</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F82" s="6">
         <v>5.8410211118133493</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G82" s="6">
         <v>5.7895099999999999</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="10">
+    <row r="83" spans="2:10" hidden="1">
+      <c r="B83" s="7">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="8">
         <v>102.51560000000001</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="8">
         <v>88.36</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="8">
         <v>5.9201670859141631</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G83" s="8">
         <v>5.9572500000000002</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="8">
+    <row r="84" spans="2:10" hidden="1">
+      <c r="B84" s="5">
         <v>2018</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D84" s="6">
         <v>103.11369999999999</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E84" s="6">
         <v>88.36</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F84" s="6">
         <v>5.9473467068114516</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G84" s="6">
         <v>6.0968299999999997</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="10">
+    <row r="85" spans="2:10" hidden="1">
+      <c r="B85" s="7">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="8">
         <v>103.6664</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="8">
         <v>88.36</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="8">
         <v>5.7562832517160434</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G85" s="8">
         <v>4.5519999999999996</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="8">
+    <row r="86" spans="2:10" hidden="1">
+      <c r="B86" s="5">
         <v>2018</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C86" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D86" s="6">
         <v>104.0668</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E86" s="6">
         <v>88.36</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F86" s="6">
         <v>5.433721276431358</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G86" s="6">
         <v>6.0502200000000004</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="10">
+    <row r="87" spans="2:10" hidden="1">
+      <c r="B87" s="7">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="8">
         <v>103.8981</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E87" s="8">
         <v>88.36</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F87" s="8">
         <v>5.8376710655503983</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G87" s="8">
         <v>4.5923600000000002</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="8">
+    <row r="88" spans="2:10" hidden="1">
+      <c r="B88" s="5">
         <v>2018</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C88" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D88" s="6">
         <v>103.5459</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E88" s="6">
         <v>88.36</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F88" s="6">
         <v>5.9410164373325358</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G88" s="6">
         <v>5.52257</v>
       </c>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-    </row>
-    <row r="88" spans="2:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="10">
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+    </row>
+    <row r="89" spans="2:10" ht="18" hidden="1" customHeight="1">
+      <c r="B89" s="7">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="8">
         <v>103.88079999999999</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E89" s="8">
         <v>88.36</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F89" s="8">
         <v>5.4159083624427007</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G89" s="8">
         <v>5.4624600000000001</v>
       </c>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="1" t="s">
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="8">
+    <row r="90" spans="2:10" hidden="1">
+      <c r="B90" s="5">
         <v>2018</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C90" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D90" s="6">
         <v>104.2765</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E90" s="6">
         <v>88.36</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F90" s="6">
         <v>5.125430913865392</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G90" s="6">
         <v>4.7389599999999996</v>
       </c>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B90" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90" s="3"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+    </row>
+    <row r="91" spans="2:10">
       <c r="B91" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B92" s="19" t="s">
-        <v>23</v>
+    <row r="92" spans="2:10">
+      <c r="B92" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B93" s="1" t="s">
+    <row r="93" spans="2:10">
+      <c r="B93" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="G94" s="18"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="G95" s="18"/>
+      <c r="G94" s="15"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="G95" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Salarios.xlsx
+++ b/Salarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F025E2A-7372-46F2-908E-C2F4B5F73D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5421E4FC-C148-42C8-81DB-532B6D26E450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.3" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="24">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -109,7 +109,7 @@
     <t xml:space="preserve"> El Salario contractual, Incluye salario contractual de jurisdicción federal.</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -486,8 +486,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}" name="Tabla1" displayName="Tabla1" ref="B4:G90" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B4:G90" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}" name="Tabla1" displayName="Tabla1" ref="B4:G91" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G91" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -729,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="A2:O95"/>
+  <dimension ref="A2:O96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -806,1780 +806,1800 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1">
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>2025</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6">
+        <v>233.5829</v>
+      </c>
+      <c r="E5" s="6">
+        <v>278.8</v>
+      </c>
+      <c r="F5" s="6">
+        <v>7.2900600448490005</v>
+      </c>
+      <c r="G5" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1">
+      <c r="B6" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D6" s="8">
         <v>234.31540000000001</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E6" s="8">
         <v>278.8</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F6" s="8">
         <v>7.540068115541998</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G6" s="8">
         <v>7.8129799999999996</v>
       </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
-      <c r="B6" s="9">
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1">
+      <c r="B7" s="9">
         <v>2025</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="10">
         <v>234.9641</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="10">
         <v>278.8</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F7" s="10">
         <v>7.7045927602115816</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G7" s="10">
         <v>7.8270099999999996</v>
       </c>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
-      <c r="B7" s="7">
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1">
+      <c r="B8" s="7">
         <v>2024</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D8" s="8">
         <v>210.3897</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E8" s="8">
         <v>248.93</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F8" s="8">
         <v>9.2072724943051973</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G8" s="8">
         <v>10</v>
       </c>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
-      <c r="B8" s="5">
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1">
+      <c r="B9" s="5">
         <v>2024</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="6">
         <v>211.1935</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="6">
         <v>248.93</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="6">
         <v>9.2059656556959357</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G9" s="6">
         <v>3.6</v>
       </c>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
-      <c r="B9" s="7">
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1">
+      <c r="B10" s="7">
         <v>2024</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <v>212.11340000000001</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="8">
         <v>248.93</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="8">
         <v>9.2094348758141606</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8">
         <v>7.3</v>
       </c>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="6">
-        <v>213.27930000000001</v>
-      </c>
-      <c r="E10" s="6">
-        <v>248.93</v>
-      </c>
-      <c r="F10" s="6">
-        <v>9.2698142462096058</v>
-      </c>
-      <c r="G10" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>2024</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6">
+        <v>213.27930000000001</v>
+      </c>
+      <c r="E11" s="6">
+        <v>248.93</v>
+      </c>
+      <c r="F11" s="6">
+        <v>9.2698142462096058</v>
+      </c>
+      <c r="G11" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:15" ht="18" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="7">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="8">
         <v>213.3844</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E12" s="8">
         <v>248.93</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F12" s="8">
         <v>9.7071592892403089</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G12" s="8">
         <v>8.5</v>
       </c>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="5">
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="5">
         <v>2024</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>213.40010000000001</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <v>248.93</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="6">
         <v>9.678628067358396</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G13" s="6">
         <v>6.5</v>
       </c>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="B13" s="7">
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="7">
         <v>2024</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="8">
         <v>215.63409999999999</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E14" s="8">
         <v>248.93</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="8">
         <v>9.5275285380818531</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="8">
         <v>9.1</v>
       </c>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="B14" s="5">
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="5">
         <v>2024</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
         <v>216.4494</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <v>248.93</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <v>9.4712077959391294</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G15" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="B15" s="7">
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="7">
         <v>2024</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="8">
         <v>216.04820000000001</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="8">
         <v>248.93</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="8">
         <v>9.6363148050862879</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="8">
         <v>7.5</v>
       </c>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="B16" s="5">
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="5">
         <v>2024</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <v>216.48490000000001</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="6">
         <v>248.93</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <v>9.877974082470665</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="6">
         <v>9.6</v>
       </c>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="7">
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="7">
         <v>2024</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <v>217.10679999999999</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>248.93</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="8">
         <v>10.128177295814877</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <v>8.4</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="9">
+    <row r="19" spans="2:9">
+      <c r="B19" s="9">
         <v>2024</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D19" s="10">
         <v>217.3116</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E19" s="10">
         <v>248.93</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F19" s="10">
         <v>10.445541700127524</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G19" s="10">
         <v>7.9025400000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1">
-      <c r="B19" s="11">
+    <row r="20" spans="2:9" hidden="1">
+      <c r="B20" s="11">
         <v>2023</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="13">
         <v>182.70859999999999</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E20" s="13">
         <v>207.44</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <v>10.525527026429549</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G20" s="13">
         <v>9.4565099999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1">
-      <c r="B20" s="5">
+    <row r="21" spans="2:9" hidden="1">
+      <c r="B21" s="5">
         <v>2023</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="6">
         <v>183.99850000000001</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="6">
         <v>207.44</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="6">
         <v>10.600337846674556</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="6">
         <v>11.557779999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1">
-      <c r="B21" s="7">
+    <row r="22" spans="2:9" hidden="1">
+      <c r="B22" s="7">
         <v>2023</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <v>185.17619999999999</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="8">
         <v>207.44</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F22" s="8">
         <v>10.75781505813298</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G22" s="8">
         <v>5.87758</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1">
-      <c r="B22" s="5">
+    <row r="23" spans="2:9" hidden="1">
+      <c r="B23" s="5">
         <v>2023</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="6">
         <v>185.87209999999999</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E23" s="6">
         <v>207.44</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F23" s="6">
         <v>10.730900115286657</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G23" s="6">
         <v>5.1179600000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1">
-      <c r="B23" s="7">
+    <row r="24" spans="2:9" hidden="1">
+      <c r="B24" s="7">
         <v>2023</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="8">
         <v>186.69710000000001</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="8">
         <v>207.44</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F24" s="8">
         <v>10.557782826178386</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G24" s="8">
         <v>8.52529</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1">
-      <c r="B24" s="5">
+    <row r="25" spans="2:9" hidden="1">
+      <c r="B25" s="5">
         <v>2023</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="6">
         <v>187.7304</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="6">
         <v>207.44</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F25" s="6">
         <v>10.584865689848266</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G25" s="6">
         <v>8.8868299999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1">
-      <c r="B25" s="7">
+    <row r="26" spans="2:9" hidden="1">
+      <c r="B26" s="7">
         <v>2023</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="8">
         <v>188.6353</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="8">
         <v>207.44</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F26" s="8">
         <v>11.24794836198264</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G26" s="8">
         <v>7.8830099999999996</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1">
-      <c r="B26" s="5">
+    <row r="27" spans="2:9" hidden="1">
+      <c r="B27" s="5">
         <v>2023</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D27" s="6">
         <v>188.82669999999999</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="6">
         <v>207.44</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="6">
         <v>11.289402261233805</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G27" s="6">
         <v>8.8381900000000009</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1">
-      <c r="B27" s="7">
+    <row r="28" spans="2:9" hidden="1">
+      <c r="B28" s="7">
         <v>2023</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <v>188.41630000000001</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="8">
         <v>207.44</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F28" s="8">
         <v>11.238302906502851</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G28" s="8">
         <v>10.018739999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1">
-      <c r="B28" s="5">
+    <row r="29" spans="2:9" hidden="1">
+      <c r="B29" s="5">
         <v>2023</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <v>188.37809999999999</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E29" s="6">
         <v>207.44</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="6">
         <v>11.181872421901872</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G29" s="6">
         <v>9.5111500000000007</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1">
-      <c r="B29" s="7">
+    <row r="30" spans="2:9" hidden="1">
+      <c r="B30" s="7">
         <v>2023</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <v>188.8828</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E30" s="8">
         <v>207.44</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F30" s="8">
         <v>11.218853887600023</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G30" s="8">
         <v>8.4645399999999995</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1">
-      <c r="B30" s="9">
+    <row r="31" spans="2:9" hidden="1">
+      <c r="B31" s="9">
         <v>2023</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D31" s="10">
         <v>189.9359</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E31" s="10">
         <v>207.44</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F31" s="10">
         <v>11.229977483897336</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G31" s="10">
         <v>10.203760000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1">
-      <c r="B31" s="11">
+    <row r="32" spans="2:9" hidden="1">
+      <c r="B32" s="11">
         <v>2022</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D32" s="13">
         <v>159.35679999999999</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="13">
         <v>172.87</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>10.965653953382425</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G32" s="13">
         <v>8.9062999999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="5">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="5">
         <v>2022</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="6">
         <v>159.96510000000001</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E33" s="6">
         <v>172.87</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F33" s="6">
         <v>10.995255372919743</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G33" s="6">
         <v>8.3648600000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="7">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="7">
         <v>2022</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="8">
         <v>160.88579999999999</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E34" s="8">
         <v>172.87</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F34" s="8">
         <v>11.103610268047937</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G34" s="8">
         <v>4.5225999999999997</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="5">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="5">
         <v>2022</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D35" s="6">
         <v>161.7963</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E35" s="6">
         <v>172.87</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F35" s="6">
         <v>11.252030265190239</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G35" s="6">
         <v>7.7671099999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="7">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="7">
         <v>2022</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="8">
         <v>162.80000000000001</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E36" s="8">
         <v>172.87</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F36" s="8">
         <v>11.539750760499</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G36" s="8">
         <v>5.0429000000000004</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="5">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="5">
         <v>2022</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D37" s="6">
         <v>163.93209999999999</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E37" s="6">
         <v>172.87</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F37" s="6">
         <v>11.478780639073349</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G37" s="6">
         <v>9.5525300000000009</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="7">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="7">
         <v>2022</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="8">
         <v>165.1464</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E38" s="8">
         <v>172.87</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F38" s="8">
         <v>11.1312009332174</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G38" s="8">
         <v>6.7259200000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="5">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="5">
         <v>2022</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D39" s="6">
         <v>166.541</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E39" s="6">
         <v>172.87</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F39" s="6">
         <v>10.926384520847442</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G39" s="6">
         <v>8.8021700000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="7">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="7">
         <v>2022</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="8">
         <v>166.83459999999999</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E40" s="8">
         <v>172.87</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F40" s="8">
         <v>10.820973830220426</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G40" s="8">
         <v>5.7584099999999996</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="5">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="5">
         <v>2022</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D41" s="6">
         <v>167.7371</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E41" s="6">
         <v>172.87</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F41" s="6">
         <v>10.537379166203898</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G41" s="6">
         <v>8.8308599999999995</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="7">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="7">
         <v>2022</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <v>169.39779999999999</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E42" s="8">
         <v>172.87</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F42" s="8">
         <v>9.4754731203904097</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G42" s="8">
         <v>6.8888299999999996</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="18" hidden="1" customHeight="1">
-      <c r="B42" s="9">
+    <row r="43" spans="2:7" ht="18" hidden="1" customHeight="1">
+      <c r="B43" s="9">
         <v>2022</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D43" s="10">
         <v>170.8032</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E43" s="10">
         <v>172.87</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F43" s="10">
         <v>8.858127860430498</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G43" s="10">
         <v>5.6387499999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1">
-      <c r="B43" s="12">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="12">
         <v>2021</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D44" s="13">
         <v>140.83420000000001</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E44" s="13">
         <v>141.69999999999999</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="13">
         <v>7.4876456534687996</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G44" s="13">
         <v>5.6811499999999997</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="5">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="5">
         <v>2021</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D45" s="6">
         <v>141.3451</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E45" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F45" s="6">
         <v>7.4221022634149536</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G45" s="6">
         <v>5.46685</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="7">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="7">
         <v>2021</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="8">
         <v>142.9632</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E46" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F46" s="8">
         <v>7.4943963321753237</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G46" s="8">
         <v>4.3498400000000004</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="5">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="5">
         <v>2021</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D47" s="6">
         <v>144.16079999999999</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E47" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F47" s="6">
         <v>7.2551848428966892</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G47" s="6">
         <v>6.5983599999999996</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="7">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="7">
         <v>2021</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D48" s="8">
         <v>145.04929999999999</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E48" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F48" s="8">
         <v>7.4497652308630036</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G48" s="8">
         <v>5.70878</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="5">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="5">
         <v>2021</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D49" s="6">
         <v>145.3262</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E49" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F49" s="6">
         <v>7.4547280745579148</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G49" s="6">
         <v>5.6227299999999998</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="7">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="7">
         <v>2021</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="8">
         <v>146.18</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E50" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F50" s="8">
         <v>6.0634394773699363</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G50" s="8">
         <v>5.6012399999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="5">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="5">
         <v>2021</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D51" s="6">
         <v>146.9589</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E51" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F51" s="6">
         <v>6.1525731513115467</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G51" s="6">
         <v>4.5034099999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="7">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="7">
         <v>2021</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D52" s="8">
         <v>147.25890000000001</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E52" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F52" s="8">
         <v>5.9561618976688102</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G52" s="8">
         <v>5.6467400000000003</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="5">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="5">
         <v>2021</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D53" s="6">
         <v>147.74090000000001</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E53" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F53" s="6">
         <v>7.0554176776254529</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G53" s="6">
         <v>5.7310600000000003</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="7">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="7">
         <v>2021</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="8">
         <v>148.9624</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E54" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F54" s="8">
         <v>8.0704931821570227</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G54" s="8">
         <v>4.4228899999999998</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="9">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="9">
         <v>2021</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D55" s="10">
         <v>149.90450000000001</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E55" s="10">
         <v>141.69999999999999</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F55" s="10">
         <v>8.2269715580314706</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G55" s="10">
         <v>3.8172199999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="12">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="12">
         <v>2020</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D56" s="13">
         <v>131.47470000000001</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E56" s="13">
         <v>123.22</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>7.8999918968648553</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G56" s="13">
         <v>6.7025100000000002</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="5">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="5">
         <v>2020</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D57" s="6">
         <v>131.9759</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E57" s="6">
         <v>123.22</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F57" s="6">
         <v>7.9355051734412374</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G57" s="6">
         <v>5.1872999999999996</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="7">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="7">
         <v>2020</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="8">
         <v>132.0754</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E58" s="8">
         <v>123.22</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F58" s="8">
         <v>7.667215188304155</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G58" s="8">
         <v>4.2006399999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="5">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="5">
         <v>2020</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D59" s="6">
         <v>132.8817</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E59" s="6">
         <v>123.22</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F59" s="6">
         <v>7.572928895459996</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G59" s="6">
         <v>4.3477100000000002</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="7">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="7">
         <v>2020</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D60" s="8">
         <v>133.18600000000001</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E60" s="8">
         <v>123.22</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F60" s="8">
         <v>6.4420399377693061</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G60" s="8">
         <v>4.3611000000000004</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="5">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="5">
         <v>2020</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D61" s="6">
         <v>133.71029999999999</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E61" s="6">
         <v>123.22</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F61" s="6">
         <v>6.4297547455233861</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G61" s="6">
         <v>6.7050200000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="7">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="7">
         <v>2020</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="8">
         <v>134.58840000000001</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E62" s="8">
         <v>123.22</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F62" s="8">
         <v>8.1367830039574827</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G62" s="8">
         <v>4.9153900000000004</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="5">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="5">
         <v>2020</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D63" s="6">
         <v>135.32499999999999</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E63" s="6">
         <v>123.22</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F63" s="6">
         <v>8.087887794221249</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G63" s="6">
         <v>4.99268</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="7">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="7">
         <v>2020</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D64" s="8">
         <v>135.8458</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E64" s="8">
         <v>123.22</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F64" s="8">
         <v>8.0053110638582439</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G64" s="8">
         <v>5.6751199999999997</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="5">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="5">
         <v>2020</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D65" s="6">
         <v>134.46870000000001</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E65" s="6">
         <v>123.22</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F65" s="6">
         <v>7.0924734355956254</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G65" s="6">
         <v>5.7827799999999998</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="7">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="7">
         <v>2020</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="8">
         <v>134.40459999999999</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E66" s="8">
         <v>123.22</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F66" s="8">
         <v>6.4306785406937461</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G66" s="8">
         <v>5.6176599999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="9">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="9">
         <v>2020</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D67" s="10">
         <v>134.96270000000001</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E67" s="10">
         <v>123.22</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F67" s="10">
         <v>6.4211541409388229</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G67" s="10">
         <v>5.1429299999999998</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="12">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="12">
         <v>2019</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D68" s="13">
         <v>113.0099</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E68" s="13">
         <v>102.68</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>6.7128637984119832</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G68" s="13">
         <v>5.8932900000000004</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="5">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="5">
         <v>2019</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D69" s="6">
         <v>113.64060000000001</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E69" s="6">
         <v>102.68</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F69" s="6">
         <v>6.5416981673249053</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G69" s="6">
         <v>5.9055099999999996</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="7">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="7">
         <v>2019</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D70" s="8">
         <v>114.5573</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E70" s="8">
         <v>102.68</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F70" s="8">
         <v>6.4472883165934025</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G70" s="8">
         <v>4.1060999999999996</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="5">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="5">
         <v>2019</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D71" s="6">
         <v>115.1756</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E71" s="6">
         <v>102.68</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F71" s="6">
         <v>6.4399213093690122</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G71" s="6">
         <v>6.1267500000000004</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="7">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="7">
         <v>2019</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D72" s="8">
         <v>115.4778</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E72" s="8">
         <v>102.68</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F72" s="8">
         <v>6.6044306496492178</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G72" s="8">
         <v>4.6333599999999997</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="5">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="5">
         <v>2019</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D73" s="6">
         <v>115.4589</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E73" s="6">
         <v>102.68</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F73" s="6">
         <v>6.5149948776746625</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G73" s="6">
         <v>5.6531700000000003</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="7">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="7">
         <v>2019</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="8">
         <v>115.8926</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E74" s="8">
         <v>102.68</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F74" s="8">
         <v>6.5571792302960175</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G74" s="8">
         <v>7.4020799999999998</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="5">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="5">
         <v>2019</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D75" s="6">
         <v>115.9667</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E75" s="6">
         <v>102.68</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F75" s="6">
         <v>6.6877554429744412</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G75" s="6">
         <v>6.1700699999999999</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="7">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="7">
         <v>2019</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D76" s="8">
         <v>115.63290000000001</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E76" s="8">
         <v>102.68</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F76" s="8">
         <v>6.9657750632007742</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G76" s="8">
         <v>5.08446</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="5">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="5">
         <v>2019</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D77" s="6">
         <v>115.6943</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E77" s="6">
         <v>102.68</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F77" s="6">
         <v>6.7325048800213505</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G77" s="6">
         <v>6.7683299999999997</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="7">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="7">
         <v>2019</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="8">
         <v>116.1399</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E78" s="8">
         <v>102.68</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F78" s="8">
         <v>6.9307872714849283</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G78" s="8">
         <v>6.3011699999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="9">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="9">
         <v>2019</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D79" s="10">
         <v>116.10720000000001</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E79" s="10">
         <v>102.68</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F79" s="10">
         <v>6.941530195558232</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G79" s="10">
         <v>5.2492299999999998</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="7">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="7">
         <v>2018</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="8">
         <v>100</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E80" s="8">
         <v>88.36</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F80" s="8">
         <v>5.3789897305661416</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G80" s="8">
         <v>6.6267500000000004</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="5">
+    <row r="81" spans="2:10" hidden="1">
+      <c r="B81" s="5">
         <v>2018</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D81" s="6">
         <v>100.7009</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E81" s="6">
         <v>88.36</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F81" s="6">
         <v>5.9138870881875416</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G81" s="6">
         <v>5.2983399999999996</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1">
-      <c r="B81" s="7">
+    <row r="82" spans="2:10" hidden="1">
+      <c r="B82" s="7">
         <v>2018</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="8">
         <v>101.55759999999999</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E82" s="8">
         <v>88.36</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F82" s="8">
         <v>5.8335904693498586</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G82" s="8">
         <v>3.8095400000000001</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1">
-      <c r="B82" s="5">
+    <row r="83" spans="2:10" hidden="1">
+      <c r="B83" s="5">
         <v>2018</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C83" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D83" s="6">
         <v>102.0839</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E83" s="6">
         <v>88.36</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F83" s="6">
         <v>5.8410211118133493</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G83" s="6">
         <v>5.7895099999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1">
-      <c r="B83" s="7">
+    <row r="84" spans="2:10" hidden="1">
+      <c r="B84" s="7">
         <v>2018</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C84" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D84" s="8">
         <v>102.51560000000001</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E84" s="8">
         <v>88.36</v>
       </c>
-      <c r="F83" s="8">
+      <c r="F84" s="8">
         <v>5.9201670859141631</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G84" s="8">
         <v>5.9572500000000002</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1">
-      <c r="B84" s="5">
+    <row r="85" spans="2:10" hidden="1">
+      <c r="B85" s="5">
         <v>2018</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D85" s="6">
         <v>103.11369999999999</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E85" s="6">
         <v>88.36</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F85" s="6">
         <v>5.9473467068114516</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G85" s="6">
         <v>6.0968299999999997</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1">
-      <c r="B85" s="7">
+    <row r="86" spans="2:10" hidden="1">
+      <c r="B86" s="7">
         <v>2018</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="8">
         <v>103.6664</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E86" s="8">
         <v>88.36</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F86" s="8">
         <v>5.7562832517160434</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G86" s="8">
         <v>4.5519999999999996</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1">
-      <c r="B86" s="5">
+    <row r="87" spans="2:10" hidden="1">
+      <c r="B87" s="5">
         <v>2018</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D87" s="6">
         <v>104.0668</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E87" s="6">
         <v>88.36</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F87" s="6">
         <v>5.433721276431358</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G87" s="6">
         <v>6.0502200000000004</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1">
-      <c r="B87" s="7">
+    <row r="88" spans="2:10" hidden="1">
+      <c r="B88" s="7">
         <v>2018</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="8">
         <v>103.8981</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E88" s="8">
         <v>88.36</v>
       </c>
-      <c r="F87" s="8">
+      <c r="F88" s="8">
         <v>5.8376710655503983</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G88" s="8">
         <v>4.5923600000000002</v>
       </c>
     </row>
-    <row r="88" spans="2:10" hidden="1">
-      <c r="B88" s="5">
+    <row r="89" spans="2:10" hidden="1">
+      <c r="B89" s="5">
         <v>2018</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D89" s="6">
         <v>103.5459</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E89" s="6">
         <v>88.36</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F89" s="6">
         <v>5.9410164373325358</v>
       </c>
-      <c r="G88" s="6">
+      <c r="G89" s="6">
         <v>5.52257</v>
-      </c>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-    </row>
-    <row r="89" spans="2:10" ht="18" hidden="1" customHeight="1">
-      <c r="B89" s="7">
-        <v>2018</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="8">
-        <v>103.88079999999999</v>
-      </c>
-      <c r="E89" s="8">
-        <v>88.36</v>
-      </c>
-      <c r="F89" s="8">
-        <v>5.4159083624427007</v>
-      </c>
-      <c r="G89" s="8">
-        <v>5.4624600000000001</v>
       </c>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
-      <c r="J89" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" hidden="1">
-      <c r="B90" s="5">
+    </row>
+    <row r="90" spans="2:10" ht="18" hidden="1" customHeight="1">
+      <c r="B90" s="7">
         <v>2018</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" s="6">
-        <v>104.2765</v>
-      </c>
-      <c r="E90" s="6">
+      <c r="C90" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="8">
+        <v>103.88079999999999</v>
+      </c>
+      <c r="E90" s="8">
         <v>88.36</v>
       </c>
-      <c r="F90" s="6">
-        <v>5.125430913865392</v>
-      </c>
-      <c r="G90" s="6">
-        <v>4.7389599999999996</v>
+      <c r="F90" s="8">
+        <v>5.4159083624427007</v>
+      </c>
+      <c r="G90" s="8">
+        <v>5.4624600000000001</v>
       </c>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
-    </row>
-    <row r="91" spans="2:10">
-      <c r="B91" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="F91" s="3"/>
+      <c r="J90" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" hidden="1">
+      <c r="B91" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="6">
+        <v>104.2765</v>
+      </c>
+      <c r="E91" s="6">
+        <v>88.36</v>
+      </c>
+      <c r="F91" s="6">
+        <v>5.125430913865392</v>
+      </c>
+      <c r="G91" s="6">
+        <v>4.7389599999999996</v>
+      </c>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="2:10">
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-    </row>
-    <row r="94" spans="2:10">
-      <c r="B94" s="1" t="s">
+      <c r="D94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="15"/>
-    </row>
-    <row r="95" spans="2:10">
       <c r="G95" s="15"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="G96" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Salarios.xlsx
+++ b/Salarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5421E4FC-C148-42C8-81DB-532B6D26E450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6520BA8-61FA-4D61-9596-701B09EDF800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.3" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -109,7 +109,7 @@
     <t xml:space="preserve"> El Salario contractual, Incluye salario contractual de jurisdicción federal.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -486,8 +486,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}" name="Tabla1" displayName="Tabla1" ref="B4:G91" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B4:G91" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}" name="Tabla1" displayName="Tabla1" ref="B4:G92" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G92" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -729,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="A2:O96"/>
+  <dimension ref="A2:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -806,1800 +806,1820 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1">
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>2025</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8">
+        <v>232.815</v>
+      </c>
+      <c r="E5" s="8">
+        <v>278.8</v>
+      </c>
+      <c r="F5" s="8">
+        <v>7.592301944734964</v>
+      </c>
+      <c r="G5" s="8">
+        <v>7.0178500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1">
+      <c r="B6" s="5">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="6">
         <v>233.5829</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E6" s="6">
         <v>278.8</v>
       </c>
-      <c r="F5" s="6">
-        <v>7.2900600448490005</v>
-      </c>
-      <c r="G5" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
-      <c r="B6" s="7">
+      <c r="F6" s="6">
+        <v>7.2902614358040436</v>
+      </c>
+      <c r="G6" s="6">
+        <v>8.0133399999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1">
+      <c r="B7" s="7">
         <v>2025</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="8">
         <v>234.31540000000001</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="8">
         <v>278.8</v>
       </c>
-      <c r="F6" s="8">
-        <v>7.540068115541998</v>
-      </c>
-      <c r="G6" s="8">
-        <v>7.8129799999999996</v>
-      </c>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
-      <c r="B7" s="9">
+      <c r="F7" s="8">
+        <v>7.5400681155420033</v>
+      </c>
+      <c r="G7" s="8">
+        <v>8.2782999999999998</v>
+      </c>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1">
+      <c r="B8" s="9">
         <v>2025</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D8" s="10">
         <v>234.9641</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E8" s="10">
         <v>278.8</v>
       </c>
-      <c r="F7" s="10">
-        <v>7.7045927602115816</v>
-      </c>
-      <c r="G7" s="10">
-        <v>7.8270099999999996</v>
-      </c>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
-      <c r="B8" s="7">
+      <c r="F8" s="10">
+        <v>7.7045927602115745</v>
+      </c>
+      <c r="G8" s="10">
+        <v>7.8334700000000002</v>
+      </c>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1">
+      <c r="B9" s="7">
         <v>2024</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D9" s="8">
         <v>210.3897</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="8">
         <v>248.93</v>
       </c>
-      <c r="F8" s="8">
-        <v>9.2072724943051973</v>
-      </c>
-      <c r="G8" s="8">
-        <v>10</v>
-      </c>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
-      <c r="B9" s="5">
+      <c r="F9" s="8">
+        <v>9.2072833887340764</v>
+      </c>
+      <c r="G9" s="8">
+        <v>10.03204</v>
+      </c>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1">
+      <c r="B10" s="5">
         <v>2024</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D10" s="6">
         <v>211.1935</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="6">
         <v>248.93</v>
       </c>
-      <c r="F9" s="6">
-        <v>9.2059656556959357</v>
-      </c>
-      <c r="G9" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
-      <c r="B10" s="7">
+      <c r="F10" s="6">
+        <v>9.2059656556959339</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3.60934</v>
+      </c>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1">
+      <c r="B11" s="7">
         <v>2024</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="8">
         <v>212.11340000000001</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11" s="8">
         <v>248.93</v>
       </c>
-      <c r="F10" s="8">
-        <v>9.2094348758141606</v>
-      </c>
-      <c r="G10" s="8">
-        <v>7.3</v>
-      </c>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="6">
-        <v>213.27930000000001</v>
-      </c>
-      <c r="E11" s="6">
-        <v>248.93</v>
-      </c>
-      <c r="F11" s="6">
-        <v>9.2698142462096058</v>
-      </c>
-      <c r="G11" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="I11" s="21"/>
+      <c r="F11" s="8">
+        <v>9.2094348758141589</v>
+      </c>
+      <c r="G11" s="8">
+        <v>7.25162</v>
+      </c>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>2024</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6">
+        <v>213.27930000000001</v>
+      </c>
+      <c r="E12" s="6">
+        <v>248.93</v>
+      </c>
+      <c r="F12" s="6">
+        <v>9.2698142462096005</v>
+      </c>
+      <c r="G12" s="6">
+        <v>8.5202600000000004</v>
+      </c>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:15" ht="18" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="7">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D13" s="8">
         <v>213.3844</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E13" s="8">
         <v>248.93</v>
       </c>
-      <c r="F12" s="8">
-        <v>9.7071592892403089</v>
-      </c>
-      <c r="G12" s="8">
-        <v>8.5</v>
-      </c>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="B13" s="5">
+      <c r="F13" s="8">
+        <v>9.7077795134083669</v>
+      </c>
+      <c r="G13" s="8">
+        <v>8.4539799999999996</v>
+      </c>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="5">
         <v>2024</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <v>213.40010000000001</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>248.93</v>
       </c>
-      <c r="F13" s="6">
-        <v>9.678628067358396</v>
-      </c>
-      <c r="G13" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="B14" s="7">
+      <c r="F14" s="6">
+        <v>9.6784226147829049</v>
+      </c>
+      <c r="G14" s="6">
+        <v>6.4799199999999999</v>
+      </c>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="7">
         <v>2024</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="8">
         <v>215.63409999999999</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E15" s="8">
         <v>248.93</v>
       </c>
-      <c r="F14" s="8">
-        <v>9.5275285380818531</v>
-      </c>
-      <c r="G14" s="8">
-        <v>9.1</v>
-      </c>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="B15" s="5">
+      <c r="F15" s="8">
+        <v>9.5272325480197804</v>
+      </c>
+      <c r="G15" s="8">
+        <v>9.1234900000000003</v>
+      </c>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="5">
         <v>2024</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D16" s="6">
         <v>216.4494</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="6">
         <v>248.93</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F16" s="6">
         <v>9.4712077959391294</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="B16" s="7">
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="7">
         <v>2024</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="8">
         <v>216.04820000000001</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="8">
         <v>248.93</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="8">
         <v>9.6363148050862879</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="8">
         <v>7.5</v>
       </c>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="5">
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="5">
         <v>2024</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>216.48490000000001</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <v>248.93</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="6">
         <v>9.877974082470665</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G18" s="6">
         <v>9.6</v>
       </c>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="7">
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="7">
         <v>2024</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <v>217.10679999999999</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="8">
         <v>248.93</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F19" s="8">
         <v>10.128177295814877</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <v>8.4</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="9">
+    <row r="20" spans="2:9">
+      <c r="B20" s="9">
         <v>2024</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D20" s="10">
         <v>217.3116</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E20" s="10">
         <v>248.93</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F20" s="10">
         <v>10.445541700127524</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G20" s="10">
         <v>7.9025400000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:9" hidden="1">
-      <c r="B20" s="11">
+    <row r="21" spans="2:9" hidden="1">
+      <c r="B21" s="11">
         <v>2023</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="13">
         <v>182.70859999999999</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="13">
         <v>207.44</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>10.525527026429549</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <v>9.4565099999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:9" hidden="1">
-      <c r="B21" s="5">
+    <row r="22" spans="2:9" hidden="1">
+      <c r="B22" s="5">
         <v>2023</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="6">
         <v>183.99850000000001</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="6">
         <v>207.44</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F22" s="6">
         <v>10.600337846674556</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G22" s="6">
         <v>11.557779999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1">
-      <c r="B22" s="7">
+    <row r="23" spans="2:9" hidden="1">
+      <c r="B23" s="7">
         <v>2023</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <v>185.17619999999999</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E23" s="8">
         <v>207.44</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F23" s="8">
         <v>10.75781505813298</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G23" s="8">
         <v>5.87758</v>
       </c>
     </row>
-    <row r="23" spans="2:9" hidden="1">
-      <c r="B23" s="5">
+    <row r="24" spans="2:9" hidden="1">
+      <c r="B24" s="5">
         <v>2023</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="6">
         <v>185.87209999999999</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E24" s="6">
         <v>207.44</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F24" s="6">
         <v>10.730900115286657</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G24" s="6">
         <v>5.1179600000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:9" hidden="1">
-      <c r="B24" s="7">
+    <row r="25" spans="2:9" hidden="1">
+      <c r="B25" s="7">
         <v>2023</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D25" s="8">
         <v>186.69710000000001</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E25" s="8">
         <v>207.44</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F25" s="8">
         <v>10.557782826178386</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G25" s="8">
         <v>8.52529</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1">
-      <c r="B25" s="5">
+    <row r="26" spans="2:9" hidden="1">
+      <c r="B26" s="5">
         <v>2023</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D26" s="6">
         <v>187.7304</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="6">
         <v>207.44</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="6">
         <v>10.584865689848266</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G26" s="6">
         <v>8.8868299999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1">
-      <c r="B26" s="7">
+    <row r="27" spans="2:9" hidden="1">
+      <c r="B27" s="7">
         <v>2023</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D27" s="8">
         <v>188.6353</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E27" s="8">
         <v>207.44</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F27" s="8">
         <v>11.24794836198264</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G27" s="8">
         <v>7.8830099999999996</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1">
-      <c r="B27" s="5">
+    <row r="28" spans="2:9" hidden="1">
+      <c r="B28" s="5">
         <v>2023</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="6">
         <v>188.82669999999999</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="6">
         <v>207.44</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F28" s="6">
         <v>11.289402261233805</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G28" s="6">
         <v>8.8381900000000009</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1">
-      <c r="B28" s="7">
+    <row r="29" spans="2:9" hidden="1">
+      <c r="B29" s="7">
         <v>2023</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="8">
         <v>188.41630000000001</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E29" s="8">
         <v>207.44</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F29" s="8">
         <v>11.238302906502851</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G29" s="8">
         <v>10.018739999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1">
-      <c r="B29" s="5">
+    <row r="30" spans="2:9" hidden="1">
+      <c r="B30" s="5">
         <v>2023</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="6">
         <v>188.37809999999999</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E30" s="6">
         <v>207.44</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F30" s="6">
         <v>11.181872421901872</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G30" s="6">
         <v>9.5111500000000007</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1">
-      <c r="B30" s="7">
+    <row r="31" spans="2:9" hidden="1">
+      <c r="B31" s="7">
         <v>2023</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="8">
         <v>188.8828</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E31" s="8">
         <v>207.44</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F31" s="8">
         <v>11.218853887600023</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G31" s="8">
         <v>8.4645399999999995</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1">
-      <c r="B31" s="9">
+    <row r="32" spans="2:9" hidden="1">
+      <c r="B32" s="9">
         <v>2023</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D32" s="10">
         <v>189.9359</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E32" s="10">
         <v>207.44</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F32" s="10">
         <v>11.229977483897336</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G32" s="10">
         <v>10.203760000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1">
-      <c r="B32" s="11">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="11">
         <v>2022</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D33" s="13">
         <v>159.35679999999999</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="13">
         <v>172.87</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="13">
         <v>10.965653953382425</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G33" s="13">
         <v>8.9062999999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="5">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="5">
         <v>2022</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="6">
         <v>159.96510000000001</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E34" s="6">
         <v>172.87</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F34" s="6">
         <v>10.995255372919743</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G34" s="6">
         <v>8.3648600000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="7">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="7">
         <v>2022</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="8">
         <v>160.88579999999999</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E35" s="8">
         <v>172.87</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F35" s="8">
         <v>11.103610268047937</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G35" s="8">
         <v>4.5225999999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="5">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="5">
         <v>2022</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D36" s="6">
         <v>161.7963</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E36" s="6">
         <v>172.87</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F36" s="6">
         <v>11.252030265190239</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G36" s="6">
         <v>7.7671099999999997</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="7">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="7">
         <v>2022</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D37" s="8">
         <v>162.80000000000001</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E37" s="8">
         <v>172.87</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F37" s="8">
         <v>11.539750760499</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G37" s="8">
         <v>5.0429000000000004</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="5">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="5">
         <v>2022</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D38" s="6">
         <v>163.93209999999999</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E38" s="6">
         <v>172.87</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F38" s="6">
         <v>11.478780639073349</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G38" s="6">
         <v>9.5525300000000009</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="7">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="7">
         <v>2022</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="8">
         <v>165.1464</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E39" s="8">
         <v>172.87</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F39" s="8">
         <v>11.1312009332174</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G39" s="8">
         <v>6.7259200000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="5">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="5">
         <v>2022</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D40" s="6">
         <v>166.541</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="6">
         <v>172.87</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F40" s="6">
         <v>10.926384520847442</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G40" s="6">
         <v>8.8021700000000003</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="7">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="7">
         <v>2022</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="8">
         <v>166.83459999999999</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E41" s="8">
         <v>172.87</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F41" s="8">
         <v>10.820973830220426</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G41" s="8">
         <v>5.7584099999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="5">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="5">
         <v>2022</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D42" s="6">
         <v>167.7371</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E42" s="6">
         <v>172.87</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F42" s="6">
         <v>10.537379166203898</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G42" s="6">
         <v>8.8308599999999995</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1">
-      <c r="B42" s="7">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="7">
         <v>2022</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="8">
         <v>169.39779999999999</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E43" s="8">
         <v>172.87</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F43" s="8">
         <v>9.4754731203904097</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G43" s="8">
         <v>6.8888299999999996</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="18" hidden="1" customHeight="1">
-      <c r="B43" s="9">
+    <row r="44" spans="2:7" ht="18" hidden="1" customHeight="1">
+      <c r="B44" s="9">
         <v>2022</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D44" s="10">
         <v>170.8032</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E44" s="10">
         <v>172.87</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F44" s="10">
         <v>8.858127860430498</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G44" s="10">
         <v>5.6387499999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="12">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="12">
         <v>2021</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D45" s="13">
         <v>140.83420000000001</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="13">
         <v>141.69999999999999</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="13">
         <v>7.4876456534687996</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G45" s="13">
         <v>5.6811499999999997</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="5">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="5">
         <v>2021</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D46" s="6">
         <v>141.3451</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E46" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F46" s="6">
         <v>7.4221022634149536</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G46" s="6">
         <v>5.46685</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="7">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="7">
         <v>2021</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D47" s="8">
         <v>142.9632</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E47" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F47" s="8">
         <v>7.4943963321753237</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G47" s="8">
         <v>4.3498400000000004</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="5">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="5">
         <v>2021</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D48" s="6">
         <v>144.16079999999999</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E48" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F48" s="6">
         <v>7.2551848428966892</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G48" s="6">
         <v>6.5983599999999996</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="7">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="7">
         <v>2021</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D49" s="8">
         <v>145.04929999999999</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E49" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F49" s="8">
         <v>7.4497652308630036</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G49" s="8">
         <v>5.70878</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="5">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="5">
         <v>2021</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D50" s="6">
         <v>145.3262</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E50" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F50" s="6">
         <v>7.4547280745579148</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G50" s="6">
         <v>5.6227299999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="7">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="7">
         <v>2021</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D51" s="8">
         <v>146.18</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E51" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F51" s="8">
         <v>6.0634394773699363</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G51" s="8">
         <v>5.6012399999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="5">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="5">
         <v>2021</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D52" s="6">
         <v>146.9589</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F52" s="6">
         <v>6.1525731513115467</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G52" s="6">
         <v>4.5034099999999997</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="7">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="7">
         <v>2021</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D53" s="8">
         <v>147.25890000000001</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E53" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F53" s="8">
         <v>5.9561618976688102</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G53" s="8">
         <v>5.6467400000000003</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="5">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="5">
         <v>2021</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D54" s="6">
         <v>147.74090000000001</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E54" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F54" s="6">
         <v>7.0554176776254529</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G54" s="6">
         <v>5.7310600000000003</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="7">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="7">
         <v>2021</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D55" s="8">
         <v>148.9624</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E55" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F55" s="8">
         <v>8.0704931821570227</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G55" s="8">
         <v>4.4228899999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="9">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="9">
         <v>2021</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C56" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D56" s="10">
         <v>149.90450000000001</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E56" s="10">
         <v>141.69999999999999</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F56" s="10">
         <v>8.2269715580314706</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G56" s="10">
         <v>3.8172199999999998</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="12">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="12">
         <v>2020</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D57" s="13">
         <v>131.47470000000001</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E57" s="13">
         <v>123.22</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F57" s="13">
         <v>7.8999918968648553</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G57" s="13">
         <v>6.7025100000000002</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="5">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="5">
         <v>2020</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D58" s="6">
         <v>131.9759</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E58" s="6">
         <v>123.22</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F58" s="6">
         <v>7.9355051734412374</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G58" s="6">
         <v>5.1872999999999996</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="7">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="7">
         <v>2020</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D59" s="8">
         <v>132.0754</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E59" s="8">
         <v>123.22</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F59" s="8">
         <v>7.667215188304155</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G59" s="8">
         <v>4.2006399999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="5">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="5">
         <v>2020</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D60" s="6">
         <v>132.8817</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E60" s="6">
         <v>123.22</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F60" s="6">
         <v>7.572928895459996</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G60" s="6">
         <v>4.3477100000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="7">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="7">
         <v>2020</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D61" s="8">
         <v>133.18600000000001</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E61" s="8">
         <v>123.22</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F61" s="8">
         <v>6.4420399377693061</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G61" s="8">
         <v>4.3611000000000004</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="5">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="5">
         <v>2020</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D62" s="6">
         <v>133.71029999999999</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E62" s="6">
         <v>123.22</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F62" s="6">
         <v>6.4297547455233861</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G62" s="6">
         <v>6.7050200000000002</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="7">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="7">
         <v>2020</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D63" s="8">
         <v>134.58840000000001</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E63" s="8">
         <v>123.22</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F63" s="8">
         <v>8.1367830039574827</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G63" s="8">
         <v>4.9153900000000004</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="5">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="5">
         <v>2020</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D64" s="6">
         <v>135.32499999999999</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E64" s="6">
         <v>123.22</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F64" s="6">
         <v>8.087887794221249</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G64" s="6">
         <v>4.99268</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="7">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="7">
         <v>2020</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D65" s="8">
         <v>135.8458</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E65" s="8">
         <v>123.22</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F65" s="8">
         <v>8.0053110638582439</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G65" s="8">
         <v>5.6751199999999997</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="5">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="5">
         <v>2020</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D66" s="6">
         <v>134.46870000000001</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E66" s="6">
         <v>123.22</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F66" s="6">
         <v>7.0924734355956254</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G66" s="6">
         <v>5.7827799999999998</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="7">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="7">
         <v>2020</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D67" s="8">
         <v>134.40459999999999</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E67" s="8">
         <v>123.22</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F67" s="8">
         <v>6.4306785406937461</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G67" s="8">
         <v>5.6176599999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="9">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="9">
         <v>2020</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D68" s="10">
         <v>134.96270000000001</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E68" s="10">
         <v>123.22</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F68" s="10">
         <v>6.4211541409388229</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G68" s="10">
         <v>5.1429299999999998</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="12">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="12">
         <v>2019</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D69" s="13">
         <v>113.0099</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E69" s="13">
         <v>102.68</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F69" s="13">
         <v>6.7128637984119832</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G69" s="13">
         <v>5.8932900000000004</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="5">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="5">
         <v>2019</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D70" s="6">
         <v>113.64060000000001</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E70" s="6">
         <v>102.68</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F70" s="6">
         <v>6.5416981673249053</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G70" s="6">
         <v>5.9055099999999996</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="7">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="7">
         <v>2019</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D71" s="8">
         <v>114.5573</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E71" s="8">
         <v>102.68</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F71" s="8">
         <v>6.4472883165934025</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G71" s="8">
         <v>4.1060999999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="5">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="5">
         <v>2019</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D72" s="6">
         <v>115.1756</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E72" s="6">
         <v>102.68</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F72" s="6">
         <v>6.4399213093690122</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G72" s="6">
         <v>6.1267500000000004</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="7">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="7">
         <v>2019</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D73" s="8">
         <v>115.4778</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E73" s="8">
         <v>102.68</v>
       </c>
-      <c r="F72" s="8">
+      <c r="F73" s="8">
         <v>6.6044306496492178</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G73" s="8">
         <v>4.6333599999999997</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="5">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="5">
         <v>2019</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D74" s="6">
         <v>115.4589</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E74" s="6">
         <v>102.68</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F74" s="6">
         <v>6.5149948776746625</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G74" s="6">
         <v>5.6531700000000003</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="7">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="7">
         <v>2019</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D75" s="8">
         <v>115.8926</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E75" s="8">
         <v>102.68</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F75" s="8">
         <v>6.5571792302960175</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G75" s="8">
         <v>7.4020799999999998</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="5">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="5">
         <v>2019</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D76" s="6">
         <v>115.9667</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="6">
         <v>102.68</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F76" s="6">
         <v>6.6877554429744412</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G76" s="6">
         <v>6.1700699999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="7">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="7">
         <v>2019</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D77" s="8">
         <v>115.63290000000001</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E77" s="8">
         <v>102.68</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F77" s="8">
         <v>6.9657750632007742</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G77" s="8">
         <v>5.08446</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="5">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="5">
         <v>2019</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D78" s="6">
         <v>115.6943</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E78" s="6">
         <v>102.68</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F78" s="6">
         <v>6.7325048800213505</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G78" s="6">
         <v>6.7683299999999997</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="7">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="7">
         <v>2019</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D79" s="8">
         <v>116.1399</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E79" s="8">
         <v>102.68</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F79" s="8">
         <v>6.9307872714849283</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G79" s="8">
         <v>6.3011699999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="9">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="9">
         <v>2019</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C80" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D80" s="10">
         <v>116.10720000000001</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E80" s="10">
         <v>102.68</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F80" s="10">
         <v>6.941530195558232</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G80" s="10">
         <v>5.2492299999999998</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="7">
+    <row r="81" spans="2:10" hidden="1">
+      <c r="B81" s="7">
         <v>2018</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D81" s="8">
         <v>100</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E81" s="8">
         <v>88.36</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F81" s="8">
         <v>5.3789897305661416</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G81" s="8">
         <v>6.6267500000000004</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1">
-      <c r="B81" s="5">
+    <row r="82" spans="2:10" hidden="1">
+      <c r="B82" s="5">
         <v>2018</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D82" s="6">
         <v>100.7009</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E82" s="6">
         <v>88.36</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F82" s="6">
         <v>5.9138870881875416</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G82" s="6">
         <v>5.2983399999999996</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1">
-      <c r="B82" s="7">
+    <row r="83" spans="2:10" hidden="1">
+      <c r="B83" s="7">
         <v>2018</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D83" s="8">
         <v>101.55759999999999</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E83" s="8">
         <v>88.36</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F83" s="8">
         <v>5.8335904693498586</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G83" s="8">
         <v>3.8095400000000001</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1">
-      <c r="B83" s="5">
+    <row r="84" spans="2:10" hidden="1">
+      <c r="B84" s="5">
         <v>2018</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D84" s="6">
         <v>102.0839</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E84" s="6">
         <v>88.36</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F84" s="6">
         <v>5.8410211118133493</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G84" s="6">
         <v>5.7895099999999999</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1">
-      <c r="B84" s="7">
+    <row r="85" spans="2:10" hidden="1">
+      <c r="B85" s="7">
         <v>2018</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D85" s="8">
         <v>102.51560000000001</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E85" s="8">
         <v>88.36</v>
       </c>
-      <c r="F84" s="8">
+      <c r="F85" s="8">
         <v>5.9201670859141631</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G85" s="8">
         <v>5.9572500000000002</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1">
-      <c r="B85" s="5">
+    <row r="86" spans="2:10" hidden="1">
+      <c r="B86" s="5">
         <v>2018</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D86" s="6">
         <v>103.11369999999999</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E86" s="6">
         <v>88.36</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F86" s="6">
         <v>5.9473467068114516</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G86" s="6">
         <v>6.0968299999999997</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1">
-      <c r="B86" s="7">
+    <row r="87" spans="2:10" hidden="1">
+      <c r="B87" s="7">
         <v>2018</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C87" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D87" s="8">
         <v>103.6664</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E87" s="8">
         <v>88.36</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F87" s="8">
         <v>5.7562832517160434</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G87" s="8">
         <v>4.5519999999999996</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1">
-      <c r="B87" s="5">
+    <row r="88" spans="2:10" hidden="1">
+      <c r="B88" s="5">
         <v>2018</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D88" s="6">
         <v>104.0668</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E88" s="6">
         <v>88.36</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F88" s="6">
         <v>5.433721276431358</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G88" s="6">
         <v>6.0502200000000004</v>
       </c>
     </row>
-    <row r="88" spans="2:10" hidden="1">
-      <c r="B88" s="7">
+    <row r="89" spans="2:10" hidden="1">
+      <c r="B89" s="7">
         <v>2018</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D89" s="8">
         <v>103.8981</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E89" s="8">
         <v>88.36</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F89" s="8">
         <v>5.8376710655503983</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G89" s="8">
         <v>4.5923600000000002</v>
       </c>
     </row>
-    <row r="89" spans="2:10" hidden="1">
-      <c r="B89" s="5">
+    <row r="90" spans="2:10" hidden="1">
+      <c r="B90" s="5">
         <v>2018</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D90" s="6">
         <v>103.5459</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E90" s="6">
         <v>88.36</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F90" s="6">
         <v>5.9410164373325358</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G90" s="6">
         <v>5.52257</v>
-      </c>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-    </row>
-    <row r="90" spans="2:10" ht="18" hidden="1" customHeight="1">
-      <c r="B90" s="7">
-        <v>2018</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="8">
-        <v>103.88079999999999</v>
-      </c>
-      <c r="E90" s="8">
-        <v>88.36</v>
-      </c>
-      <c r="F90" s="8">
-        <v>5.4159083624427007</v>
-      </c>
-      <c r="G90" s="8">
-        <v>5.4624600000000001</v>
       </c>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
-      <c r="J90" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" hidden="1">
-      <c r="B91" s="5">
+    </row>
+    <row r="91" spans="2:10" ht="18" hidden="1" customHeight="1">
+      <c r="B91" s="7">
         <v>2018</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="6">
-        <v>104.2765</v>
-      </c>
-      <c r="E91" s="6">
+      <c r="C91" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="8">
+        <v>103.88079999999999</v>
+      </c>
+      <c r="E91" s="8">
         <v>88.36</v>
       </c>
-      <c r="F91" s="6">
-        <v>5.125430913865392</v>
-      </c>
-      <c r="G91" s="6">
-        <v>4.7389599999999996</v>
+      <c r="F91" s="8">
+        <v>5.4159083624427007</v>
+      </c>
+      <c r="G91" s="8">
+        <v>5.4624600000000001</v>
       </c>
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
-    </row>
-    <row r="92" spans="2:10">
-      <c r="B92" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="F92" s="3"/>
+      <c r="J91" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" hidden="1">
+      <c r="B92" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="6">
+        <v>104.2765</v>
+      </c>
+      <c r="E92" s="6">
+        <v>88.36</v>
+      </c>
+      <c r="F92" s="6">
+        <v>5.125430913865392</v>
+      </c>
+      <c r="G92" s="6">
+        <v>4.7389599999999996</v>
+      </c>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="F93" s="3"/>
     </row>
     <row r="94" spans="2:10">
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-    </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="1" t="s">
+      <c r="D95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G95" s="15"/>
-    </row>
-    <row r="96" spans="2:10">
       <c r="G96" s="15"/>
+    </row>
+    <row r="97" spans="7:7">
+      <c r="G97" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Salarios.xlsx
+++ b/Salarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6520BA8-61FA-4D61-9596-701B09EDF800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1A8319-C936-464F-BDBC-8939E37A35DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="24">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -109,7 +109,7 @@
     <t xml:space="preserve"> El Salario contractual, Incluye salario contractual de jurisdicción federal.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -120,7 +120,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +159,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Noto Sans"/>
       <family val="2"/>
       <charset val="1"/>
@@ -227,7 +235,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -236,7 +246,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -247,7 +259,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -255,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -295,6 +309,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -304,10 +322,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -401,7 +418,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -486,8 +503,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}" name="Tabla1" displayName="Tabla1" ref="B4:G92" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B4:G92" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}" name="Tabla1" displayName="Tabla1" ref="B4:G94" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G94" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -729,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="A2:O97"/>
+  <dimension ref="A2:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -786,22 +803,22 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="49.5">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -810,19 +827,19 @@
         <v>2025</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="8">
-        <v>232.815</v>
+        <v>231.51329999999999</v>
       </c>
       <c r="E5" s="8">
         <v>278.8</v>
       </c>
       <c r="F5" s="8">
-        <v>7.592301944734964</v>
+        <v>7.5014277529508799</v>
       </c>
       <c r="G5" s="8">
-        <v>7.0178500000000001</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1">
@@ -830,19 +847,19 @@
         <v>2025</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6">
-        <v>233.5829</v>
+        <v>232.16319999999999</v>
       </c>
       <c r="E6" s="6">
         <v>278.8</v>
       </c>
       <c r="F6" s="6">
-        <v>7.2902614358040436</v>
+        <v>7.6178618802657532</v>
       </c>
       <c r="G6" s="6">
-        <v>8.0133399999999995</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1">
@@ -850,353 +867,353 @@
         <v>2025</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="8">
-        <v>234.31540000000001</v>
+        <v>232.815</v>
       </c>
       <c r="E7" s="8">
         <v>278.8</v>
       </c>
       <c r="F7" s="8">
-        <v>7.5400681155420033</v>
+        <v>7.592301944734964</v>
       </c>
       <c r="G7" s="8">
-        <v>8.2782999999999998</v>
-      </c>
-      <c r="I7" s="20"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1">
-      <c r="B8" s="9">
+      <c r="B8" s="5">
         <v>2025</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="10">
-        <v>234.9641</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6">
+        <v>233.5829</v>
+      </c>
+      <c r="E8" s="6">
         <v>278.8</v>
       </c>
-      <c r="F8" s="10">
-        <v>7.7045927602115745</v>
-      </c>
-      <c r="G8" s="10">
-        <v>7.8334700000000002</v>
-      </c>
-      <c r="I8" s="20"/>
+      <c r="F8" s="6">
+        <v>7.2902614358040436</v>
+      </c>
+      <c r="G8" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1">
       <c r="B9" s="7">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="8">
-        <v>210.3897</v>
+        <v>234.31540000000001</v>
       </c>
       <c r="E9" s="8">
-        <v>248.93</v>
+        <v>278.8</v>
       </c>
       <c r="F9" s="8">
-        <v>9.2072833887340764</v>
+        <v>7.5400681155420033</v>
       </c>
       <c r="G9" s="8">
-        <v>10.03204</v>
-      </c>
-      <c r="I9" s="20"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:15" s="4" customFormat="1">
-      <c r="B10" s="5">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="6">
-        <v>211.1935</v>
-      </c>
-      <c r="E10" s="6">
-        <v>248.93</v>
-      </c>
-      <c r="F10" s="6">
-        <v>9.2059656556959339</v>
-      </c>
-      <c r="G10" s="6">
-        <v>3.60934</v>
-      </c>
-      <c r="I10" s="20"/>
+      <c r="B10" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10">
+        <v>234.9641</v>
+      </c>
+      <c r="E10" s="10">
+        <v>278.8</v>
+      </c>
+      <c r="F10" s="10">
+        <v>7.7045927602115745</v>
+      </c>
+      <c r="G10" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1">
       <c r="B11" s="7">
         <v>2024</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="8">
-        <v>212.11340000000001</v>
+        <v>210.3897</v>
       </c>
       <c r="E11" s="8">
         <v>248.93</v>
       </c>
       <c r="F11" s="8">
-        <v>9.2094348758141589</v>
+        <v>9.2072833887340764</v>
       </c>
       <c r="G11" s="8">
-        <v>7.25162</v>
-      </c>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1">
-      <c r="A12" s="3"/>
+        <v>10.03204</v>
+      </c>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1">
       <c r="B12" s="5">
         <v>2024</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="6">
-        <v>213.27930000000001</v>
+        <v>211.1935</v>
       </c>
       <c r="E12" s="6">
         <v>248.93</v>
       </c>
       <c r="F12" s="6">
-        <v>9.2698142462096005</v>
+        <v>9.2059656556959339</v>
       </c>
       <c r="G12" s="6">
-        <v>8.5202600000000004</v>
-      </c>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1">
-      <c r="A13" s="3"/>
+        <v>3.60934</v>
+      </c>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1">
       <c r="B13" s="7">
         <v>2024</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D13" s="8">
-        <v>213.3844</v>
+        <v>212.11340000000001</v>
       </c>
       <c r="E13" s="8">
         <v>248.93</v>
       </c>
       <c r="F13" s="8">
-        <v>9.7077795134083669</v>
+        <v>9.2094348758141589</v>
       </c>
       <c r="G13" s="8">
-        <v>8.4539799999999996</v>
-      </c>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:15">
+        <v>7.25162</v>
+      </c>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" ht="18" customHeight="1">
+      <c r="A14" s="3"/>
       <c r="B14" s="5">
         <v>2024</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D14" s="6">
-        <v>213.40010000000001</v>
+        <v>213.27930000000001</v>
       </c>
       <c r="E14" s="6">
         <v>248.93</v>
       </c>
       <c r="F14" s="6">
-        <v>9.6784226147829049</v>
+        <v>9.2698142462096005</v>
       </c>
       <c r="G14" s="6">
-        <v>6.4799199999999999</v>
-      </c>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8.5202600000000004</v>
+      </c>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:15" ht="18" customHeight="1">
+      <c r="A15" s="3"/>
       <c r="B15" s="7">
         <v>2024</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="8">
-        <v>215.63409999999999</v>
+        <v>213.3844</v>
       </c>
       <c r="E15" s="8">
         <v>248.93</v>
       </c>
       <c r="F15" s="8">
-        <v>9.5272325480197804</v>
+        <v>9.7077795134083669</v>
       </c>
       <c r="G15" s="8">
-        <v>9.1234900000000003</v>
-      </c>
-      <c r="I15" s="21"/>
+        <v>8.4539799999999996</v>
+      </c>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="5">
         <v>2024</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="6">
-        <v>216.4494</v>
+        <v>213.40010000000001</v>
       </c>
       <c r="E16" s="6">
         <v>248.93</v>
       </c>
       <c r="F16" s="6">
-        <v>9.4712077959391294</v>
+        <v>9.6784226147829049</v>
       </c>
       <c r="G16" s="6">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I16" s="21"/>
+        <v>6.4799199999999999</v>
+      </c>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="7">
         <v>2024</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="8">
-        <v>216.04820000000001</v>
+        <v>215.63409999999999</v>
       </c>
       <c r="E17" s="8">
         <v>248.93</v>
       </c>
       <c r="F17" s="8">
-        <v>9.6363148050862879</v>
+        <v>9.5272325480197804</v>
       </c>
       <c r="G17" s="8">
-        <v>7.5</v>
-      </c>
-      <c r="I17" s="21"/>
+        <v>9.1234900000000003</v>
+      </c>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="5">
         <v>2024</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="6">
-        <v>216.48490000000001</v>
+        <v>216.4494</v>
       </c>
       <c r="E18" s="6">
         <v>248.93</v>
       </c>
       <c r="F18" s="6">
-        <v>9.877974082470665</v>
+        <v>9.4712077959391294</v>
       </c>
       <c r="G18" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="I18" s="21"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="7">
         <v>2024</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="8">
-        <v>217.10679999999999</v>
+        <v>216.04820000000001</v>
       </c>
       <c r="E19" s="8">
         <v>248.93</v>
       </c>
       <c r="F19" s="8">
+        <v>9.6363148050862879</v>
+      </c>
+      <c r="G19" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="5">
+        <v>2024</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6">
+        <v>216.48490000000001</v>
+      </c>
+      <c r="E20" s="6">
+        <v>248.93</v>
+      </c>
+      <c r="F20" s="6">
+        <v>9.877974082470665</v>
+      </c>
+      <c r="G20" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="7">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="8">
+        <v>217.10679999999999</v>
+      </c>
+      <c r="E21" s="8">
+        <v>248.93</v>
+      </c>
+      <c r="F21" s="8">
         <v>10.128177295814877</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G21" s="8">
         <v>8.4</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="9">
+    <row r="22" spans="2:9">
+      <c r="B22" s="9">
         <v>2024</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D22" s="10">
         <v>217.3116</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E22" s="10">
         <v>248.93</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F22" s="10">
         <v>10.445541700127524</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G22" s="10">
         <v>7.9025400000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:9" hidden="1">
-      <c r="B21" s="11">
+    <row r="23" spans="2:9" hidden="1">
+      <c r="B23" s="11">
         <v>2023</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D23" s="13">
         <v>182.70859999999999</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E23" s="13">
         <v>207.44</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F23" s="13">
         <v>10.525527026429549</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G23" s="13">
         <v>9.4565099999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" hidden="1">
-      <c r="B22" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="6">
-        <v>183.99850000000001</v>
-      </c>
-      <c r="E22" s="6">
-        <v>207.44</v>
-      </c>
-      <c r="F22" s="6">
-        <v>10.600337846674556</v>
-      </c>
-      <c r="G22" s="6">
-        <v>11.557779999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" hidden="1">
-      <c r="B23" s="7">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="8">
-        <v>185.17619999999999</v>
-      </c>
-      <c r="E23" s="8">
-        <v>207.44</v>
-      </c>
-      <c r="F23" s="8">
-        <v>10.75781505813298</v>
-      </c>
-      <c r="G23" s="8">
-        <v>5.87758</v>
       </c>
     </row>
     <row r="24" spans="2:9" hidden="1">
@@ -1204,19 +1221,19 @@
         <v>2023</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" s="6">
-        <v>185.87209999999999</v>
+        <v>183.99850000000001</v>
       </c>
       <c r="E24" s="6">
         <v>207.44</v>
       </c>
       <c r="F24" s="6">
-        <v>10.730900115286657</v>
+        <v>10.600337846674556</v>
       </c>
       <c r="G24" s="6">
-        <v>5.1179600000000001</v>
+        <v>11.557779999999999</v>
       </c>
     </row>
     <row r="25" spans="2:9" hidden="1">
@@ -1224,19 +1241,19 @@
         <v>2023</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D25" s="8">
-        <v>186.69710000000001</v>
+        <v>185.17619999999999</v>
       </c>
       <c r="E25" s="8">
         <v>207.44</v>
       </c>
       <c r="F25" s="8">
-        <v>10.557782826178386</v>
+        <v>10.75781505813298</v>
       </c>
       <c r="G25" s="8">
-        <v>8.52529</v>
+        <v>5.87758</v>
       </c>
     </row>
     <row r="26" spans="2:9" hidden="1">
@@ -1244,19 +1261,19 @@
         <v>2023</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D26" s="6">
-        <v>187.7304</v>
+        <v>185.87209999999999</v>
       </c>
       <c r="E26" s="6">
         <v>207.44</v>
       </c>
       <c r="F26" s="6">
-        <v>10.584865689848266</v>
+        <v>10.730900115286657</v>
       </c>
       <c r="G26" s="6">
-        <v>8.8868299999999998</v>
+        <v>5.1179600000000001</v>
       </c>
     </row>
     <row r="27" spans="2:9" hidden="1">
@@ -1264,19 +1281,19 @@
         <v>2023</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D27" s="8">
-        <v>188.6353</v>
+        <v>186.69710000000001</v>
       </c>
       <c r="E27" s="8">
         <v>207.44</v>
       </c>
       <c r="F27" s="8">
-        <v>11.24794836198264</v>
+        <v>10.557782826178386</v>
       </c>
       <c r="G27" s="8">
-        <v>7.8830099999999996</v>
+        <v>8.52529</v>
       </c>
     </row>
     <row r="28" spans="2:9" hidden="1">
@@ -1284,19 +1301,19 @@
         <v>2023</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28" s="6">
-        <v>188.82669999999999</v>
+        <v>187.7304</v>
       </c>
       <c r="E28" s="6">
         <v>207.44</v>
       </c>
       <c r="F28" s="6">
-        <v>11.289402261233805</v>
+        <v>10.584865689848266</v>
       </c>
       <c r="G28" s="6">
-        <v>8.8381900000000009</v>
+        <v>8.8868299999999998</v>
       </c>
     </row>
     <row r="29" spans="2:9" hidden="1">
@@ -1304,19 +1321,19 @@
         <v>2023</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" s="8">
-        <v>188.41630000000001</v>
+        <v>188.6353</v>
       </c>
       <c r="E29" s="8">
         <v>207.44</v>
       </c>
       <c r="F29" s="8">
-        <v>11.238302906502851</v>
+        <v>11.24794836198264</v>
       </c>
       <c r="G29" s="8">
-        <v>10.018739999999999</v>
+        <v>7.8830099999999996</v>
       </c>
     </row>
     <row r="30" spans="2:9" hidden="1">
@@ -1324,19 +1341,19 @@
         <v>2023</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" s="6">
-        <v>188.37809999999999</v>
+        <v>188.82669999999999</v>
       </c>
       <c r="E30" s="6">
         <v>207.44</v>
       </c>
       <c r="F30" s="6">
-        <v>11.181872421901872</v>
+        <v>11.289402261233805</v>
       </c>
       <c r="G30" s="6">
-        <v>9.5111500000000007</v>
+        <v>8.8381900000000009</v>
       </c>
     </row>
     <row r="31" spans="2:9" hidden="1">
@@ -1344,99 +1361,99 @@
         <v>2023</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D31" s="8">
-        <v>188.8828</v>
+        <v>188.41630000000001</v>
       </c>
       <c r="E31" s="8">
         <v>207.44</v>
       </c>
       <c r="F31" s="8">
+        <v>11.238302906502851</v>
+      </c>
+      <c r="G31" s="8">
+        <v>10.018739999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" hidden="1">
+      <c r="B32" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="6">
+        <v>188.37809999999999</v>
+      </c>
+      <c r="E32" s="6">
+        <v>207.44</v>
+      </c>
+      <c r="F32" s="6">
+        <v>11.181872421901872</v>
+      </c>
+      <c r="G32" s="6">
+        <v>9.5111500000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="7">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="8">
+        <v>188.8828</v>
+      </c>
+      <c r="E33" s="8">
+        <v>207.44</v>
+      </c>
+      <c r="F33" s="8">
         <v>11.218853887600023</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G33" s="8">
         <v>8.4645399999999995</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1">
-      <c r="B32" s="9">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="9">
         <v>2023</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D34" s="10">
         <v>189.9359</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E34" s="10">
         <v>207.44</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F34" s="10">
         <v>11.229977483897336</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G34" s="10">
         <v>10.203760000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="11">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="11">
         <v>2022</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D35" s="13">
         <v>159.35679999999999</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E35" s="13">
         <v>172.87</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F35" s="13">
         <v>10.965653953382425</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G35" s="13">
         <v>8.9062999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="5">
-        <v>2022</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="6">
-        <v>159.96510000000001</v>
-      </c>
-      <c r="E34" s="6">
-        <v>172.87</v>
-      </c>
-      <c r="F34" s="6">
-        <v>10.995255372919743</v>
-      </c>
-      <c r="G34" s="6">
-        <v>8.3648600000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="7">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="8">
-        <v>160.88579999999999</v>
-      </c>
-      <c r="E35" s="8">
-        <v>172.87</v>
-      </c>
-      <c r="F35" s="8">
-        <v>11.103610268047937</v>
-      </c>
-      <c r="G35" s="8">
-        <v>4.5225999999999997</v>
       </c>
     </row>
     <row r="36" spans="2:7" hidden="1">
@@ -1444,19 +1461,19 @@
         <v>2022</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D36" s="6">
-        <v>161.7963</v>
+        <v>159.96510000000001</v>
       </c>
       <c r="E36" s="6">
         <v>172.87</v>
       </c>
       <c r="F36" s="6">
-        <v>11.252030265190239</v>
+        <v>10.995255372919743</v>
       </c>
       <c r="G36" s="6">
-        <v>7.7671099999999997</v>
+        <v>8.3648600000000002</v>
       </c>
     </row>
     <row r="37" spans="2:7" hidden="1">
@@ -1464,19 +1481,19 @@
         <v>2022</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D37" s="8">
-        <v>162.80000000000001</v>
+        <v>160.88579999999999</v>
       </c>
       <c r="E37" s="8">
         <v>172.87</v>
       </c>
       <c r="F37" s="8">
-        <v>11.539750760499</v>
+        <v>11.103610268047937</v>
       </c>
       <c r="G37" s="8">
-        <v>5.0429000000000004</v>
+        <v>4.5225999999999997</v>
       </c>
     </row>
     <row r="38" spans="2:7" hidden="1">
@@ -1484,19 +1501,19 @@
         <v>2022</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D38" s="6">
-        <v>163.93209999999999</v>
+        <v>161.7963</v>
       </c>
       <c r="E38" s="6">
         <v>172.87</v>
       </c>
       <c r="F38" s="6">
-        <v>11.478780639073349</v>
+        <v>11.252030265190239</v>
       </c>
       <c r="G38" s="6">
-        <v>9.5525300000000009</v>
+        <v>7.7671099999999997</v>
       </c>
     </row>
     <row r="39" spans="2:7" hidden="1">
@@ -1504,19 +1521,19 @@
         <v>2022</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D39" s="8">
-        <v>165.1464</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="E39" s="8">
         <v>172.87</v>
       </c>
       <c r="F39" s="8">
-        <v>11.1312009332174</v>
+        <v>11.539750760499</v>
       </c>
       <c r="G39" s="8">
-        <v>6.7259200000000003</v>
+        <v>5.0429000000000004</v>
       </c>
     </row>
     <row r="40" spans="2:7" hidden="1">
@@ -1524,19 +1541,19 @@
         <v>2022</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D40" s="6">
-        <v>166.541</v>
+        <v>163.93209999999999</v>
       </c>
       <c r="E40" s="6">
         <v>172.87</v>
       </c>
       <c r="F40" s="6">
-        <v>10.926384520847442</v>
+        <v>11.478780639073349</v>
       </c>
       <c r="G40" s="6">
-        <v>8.8021700000000003</v>
+        <v>9.5525300000000009</v>
       </c>
     </row>
     <row r="41" spans="2:7" hidden="1">
@@ -1544,19 +1561,19 @@
         <v>2022</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41" s="8">
-        <v>166.83459999999999</v>
+        <v>165.1464</v>
       </c>
       <c r="E41" s="8">
         <v>172.87</v>
       </c>
       <c r="F41" s="8">
-        <v>10.820973830220426</v>
+        <v>11.1312009332174</v>
       </c>
       <c r="G41" s="8">
-        <v>5.7584099999999996</v>
+        <v>6.7259200000000003</v>
       </c>
     </row>
     <row r="42" spans="2:7" hidden="1">
@@ -1564,19 +1581,19 @@
         <v>2022</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D42" s="6">
-        <v>167.7371</v>
+        <v>166.541</v>
       </c>
       <c r="E42" s="6">
         <v>172.87</v>
       </c>
       <c r="F42" s="6">
-        <v>10.537379166203898</v>
+        <v>10.926384520847442</v>
       </c>
       <c r="G42" s="6">
-        <v>8.8308599999999995</v>
+        <v>8.8021700000000003</v>
       </c>
     </row>
     <row r="43" spans="2:7" hidden="1">
@@ -1584,99 +1601,99 @@
         <v>2022</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D43" s="8">
-        <v>169.39779999999999</v>
+        <v>166.83459999999999</v>
       </c>
       <c r="E43" s="8">
         <v>172.87</v>
       </c>
       <c r="F43" s="8">
+        <v>10.820973830220426</v>
+      </c>
+      <c r="G43" s="8">
+        <v>5.7584099999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="5">
+        <v>2022</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="6">
+        <v>167.7371</v>
+      </c>
+      <c r="E44" s="6">
+        <v>172.87</v>
+      </c>
+      <c r="F44" s="6">
+        <v>10.537379166203898</v>
+      </c>
+      <c r="G44" s="6">
+        <v>8.8308599999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="7">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="8">
+        <v>169.39779999999999</v>
+      </c>
+      <c r="E45" s="8">
+        <v>172.87</v>
+      </c>
+      <c r="F45" s="8">
         <v>9.4754731203904097</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G45" s="8">
         <v>6.8888299999999996</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="18" hidden="1" customHeight="1">
-      <c r="B44" s="9">
+    <row r="46" spans="2:7" ht="18" hidden="1" customHeight="1">
+      <c r="B46" s="9">
         <v>2022</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D46" s="10">
         <v>170.8032</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E46" s="10">
         <v>172.87</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F46" s="10">
         <v>8.858127860430498</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G46" s="10">
         <v>5.6387499999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="12">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D47" s="13">
         <v>140.83420000000001</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E47" s="13">
         <v>141.69999999999999</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F47" s="13">
         <v>7.4876456534687996</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G47" s="13">
         <v>5.6811499999999997</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="5">
-        <v>2021</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="6">
-        <v>141.3451</v>
-      </c>
-      <c r="E46" s="6">
-        <v>141.69999999999999</v>
-      </c>
-      <c r="F46" s="6">
-        <v>7.4221022634149536</v>
-      </c>
-      <c r="G46" s="6">
-        <v>5.46685</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="7">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="8">
-        <v>142.9632</v>
-      </c>
-      <c r="E47" s="8">
-        <v>141.69999999999999</v>
-      </c>
-      <c r="F47" s="8">
-        <v>7.4943963321753237</v>
-      </c>
-      <c r="G47" s="8">
-        <v>4.3498400000000004</v>
       </c>
     </row>
     <row r="48" spans="2:7" hidden="1">
@@ -1684,19 +1701,19 @@
         <v>2021</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D48" s="6">
-        <v>144.16079999999999</v>
+        <v>141.3451</v>
       </c>
       <c r="E48" s="6">
         <v>141.69999999999999</v>
       </c>
       <c r="F48" s="6">
-        <v>7.2551848428966892</v>
+        <v>7.4221022634149536</v>
       </c>
       <c r="G48" s="6">
-        <v>6.5983599999999996</v>
+        <v>5.46685</v>
       </c>
     </row>
     <row r="49" spans="2:7" hidden="1">
@@ -1704,19 +1721,19 @@
         <v>2021</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D49" s="8">
-        <v>145.04929999999999</v>
+        <v>142.9632</v>
       </c>
       <c r="E49" s="8">
         <v>141.69999999999999</v>
       </c>
       <c r="F49" s="8">
-        <v>7.4497652308630036</v>
+        <v>7.4943963321753237</v>
       </c>
       <c r="G49" s="8">
-        <v>5.70878</v>
+        <v>4.3498400000000004</v>
       </c>
     </row>
     <row r="50" spans="2:7" hidden="1">
@@ -1724,19 +1741,19 @@
         <v>2021</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D50" s="6">
-        <v>145.3262</v>
+        <v>144.16079999999999</v>
       </c>
       <c r="E50" s="6">
         <v>141.69999999999999</v>
       </c>
       <c r="F50" s="6">
-        <v>7.4547280745579148</v>
+        <v>7.2551848428966892</v>
       </c>
       <c r="G50" s="6">
-        <v>5.6227299999999998</v>
+        <v>6.5983599999999996</v>
       </c>
     </row>
     <row r="51" spans="2:7" hidden="1">
@@ -1744,19 +1761,19 @@
         <v>2021</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D51" s="8">
-        <v>146.18</v>
+        <v>145.04929999999999</v>
       </c>
       <c r="E51" s="8">
         <v>141.69999999999999</v>
       </c>
       <c r="F51" s="8">
-        <v>6.0634394773699363</v>
+        <v>7.4497652308630036</v>
       </c>
       <c r="G51" s="8">
-        <v>5.6012399999999998</v>
+        <v>5.70878</v>
       </c>
     </row>
     <row r="52" spans="2:7" hidden="1">
@@ -1764,19 +1781,19 @@
         <v>2021</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D52" s="6">
-        <v>146.9589</v>
+        <v>145.3262</v>
       </c>
       <c r="E52" s="6">
         <v>141.69999999999999</v>
       </c>
       <c r="F52" s="6">
-        <v>6.1525731513115467</v>
+        <v>7.4547280745579148</v>
       </c>
       <c r="G52" s="6">
-        <v>4.5034099999999997</v>
+        <v>5.6227299999999998</v>
       </c>
     </row>
     <row r="53" spans="2:7" hidden="1">
@@ -1784,19 +1801,19 @@
         <v>2021</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D53" s="8">
-        <v>147.25890000000001</v>
+        <v>146.18</v>
       </c>
       <c r="E53" s="8">
         <v>141.69999999999999</v>
       </c>
       <c r="F53" s="8">
-        <v>5.9561618976688102</v>
+        <v>6.0634394773699363</v>
       </c>
       <c r="G53" s="8">
-        <v>5.6467400000000003</v>
+        <v>5.6012399999999998</v>
       </c>
     </row>
     <row r="54" spans="2:7" hidden="1">
@@ -1804,19 +1821,19 @@
         <v>2021</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D54" s="6">
-        <v>147.74090000000001</v>
+        <v>146.9589</v>
       </c>
       <c r="E54" s="6">
         <v>141.69999999999999</v>
       </c>
       <c r="F54" s="6">
-        <v>7.0554176776254529</v>
+        <v>6.1525731513115467</v>
       </c>
       <c r="G54" s="6">
-        <v>5.7310600000000003</v>
+        <v>4.5034099999999997</v>
       </c>
     </row>
     <row r="55" spans="2:7" hidden="1">
@@ -1824,99 +1841,99 @@
         <v>2021</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D55" s="8">
-        <v>148.9624</v>
+        <v>147.25890000000001</v>
       </c>
       <c r="E55" s="8">
         <v>141.69999999999999</v>
       </c>
       <c r="F55" s="8">
+        <v>5.9561618976688102</v>
+      </c>
+      <c r="G55" s="8">
+        <v>5.6467400000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="6">
+        <v>147.74090000000001</v>
+      </c>
+      <c r="E56" s="6">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="F56" s="6">
+        <v>7.0554176776254529</v>
+      </c>
+      <c r="G56" s="6">
+        <v>5.7310600000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="8">
+        <v>148.9624</v>
+      </c>
+      <c r="E57" s="8">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="F57" s="8">
         <v>8.0704931821570227</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G57" s="8">
         <v>4.4228899999999998</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="9">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="9">
         <v>2021</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C58" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D58" s="10">
         <v>149.90450000000001</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E58" s="10">
         <v>141.69999999999999</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F58" s="10">
         <v>8.2269715580314706</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G58" s="10">
         <v>3.8172199999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="12">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D59" s="13">
         <v>131.47470000000001</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E59" s="13">
         <v>123.22</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F59" s="13">
         <v>7.8999918968648553</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G59" s="13">
         <v>6.7025100000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="5">
-        <v>2020</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="6">
-        <v>131.9759</v>
-      </c>
-      <c r="E58" s="6">
-        <v>123.22</v>
-      </c>
-      <c r="F58" s="6">
-        <v>7.9355051734412374</v>
-      </c>
-      <c r="G58" s="6">
-        <v>5.1872999999999996</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="7">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="8">
-        <v>132.0754</v>
-      </c>
-      <c r="E59" s="8">
-        <v>123.22</v>
-      </c>
-      <c r="F59" s="8">
-        <v>7.667215188304155</v>
-      </c>
-      <c r="G59" s="8">
-        <v>4.2006399999999999</v>
       </c>
     </row>
     <row r="60" spans="2:7" hidden="1">
@@ -1924,19 +1941,19 @@
         <v>2020</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D60" s="6">
-        <v>132.8817</v>
+        <v>131.9759</v>
       </c>
       <c r="E60" s="6">
         <v>123.22</v>
       </c>
       <c r="F60" s="6">
-        <v>7.572928895459996</v>
+        <v>7.9355051734412374</v>
       </c>
       <c r="G60" s="6">
-        <v>4.3477100000000002</v>
+        <v>5.1872999999999996</v>
       </c>
     </row>
     <row r="61" spans="2:7" hidden="1">
@@ -1944,19 +1961,19 @@
         <v>2020</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D61" s="8">
-        <v>133.18600000000001</v>
+        <v>132.0754</v>
       </c>
       <c r="E61" s="8">
         <v>123.22</v>
       </c>
       <c r="F61" s="8">
-        <v>6.4420399377693061</v>
+        <v>7.667215188304155</v>
       </c>
       <c r="G61" s="8">
-        <v>4.3611000000000004</v>
+        <v>4.2006399999999999</v>
       </c>
     </row>
     <row r="62" spans="2:7" hidden="1">
@@ -1964,19 +1981,19 @@
         <v>2020</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D62" s="6">
-        <v>133.71029999999999</v>
+        <v>132.8817</v>
       </c>
       <c r="E62" s="6">
         <v>123.22</v>
       </c>
       <c r="F62" s="6">
-        <v>6.4297547455233861</v>
+        <v>7.572928895459996</v>
       </c>
       <c r="G62" s="6">
-        <v>6.7050200000000002</v>
+        <v>4.3477100000000002</v>
       </c>
     </row>
     <row r="63" spans="2:7" hidden="1">
@@ -1984,19 +2001,19 @@
         <v>2020</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D63" s="8">
-        <v>134.58840000000001</v>
+        <v>133.18600000000001</v>
       </c>
       <c r="E63" s="8">
         <v>123.22</v>
       </c>
       <c r="F63" s="8">
-        <v>8.1367830039574827</v>
+        <v>6.4420399377693061</v>
       </c>
       <c r="G63" s="8">
-        <v>4.9153900000000004</v>
+        <v>4.3611000000000004</v>
       </c>
     </row>
     <row r="64" spans="2:7" hidden="1">
@@ -2004,19 +2021,19 @@
         <v>2020</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D64" s="6">
-        <v>135.32499999999999</v>
+        <v>133.71029999999999</v>
       </c>
       <c r="E64" s="6">
         <v>123.22</v>
       </c>
       <c r="F64" s="6">
-        <v>8.087887794221249</v>
+        <v>6.4297547455233861</v>
       </c>
       <c r="G64" s="6">
-        <v>4.99268</v>
+        <v>6.7050200000000002</v>
       </c>
     </row>
     <row r="65" spans="2:7" hidden="1">
@@ -2024,19 +2041,19 @@
         <v>2020</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D65" s="8">
-        <v>135.8458</v>
+        <v>134.58840000000001</v>
       </c>
       <c r="E65" s="8">
         <v>123.22</v>
       </c>
       <c r="F65" s="8">
-        <v>8.0053110638582439</v>
+        <v>8.1367830039574827</v>
       </c>
       <c r="G65" s="8">
-        <v>5.6751199999999997</v>
+        <v>4.9153900000000004</v>
       </c>
     </row>
     <row r="66" spans="2:7" hidden="1">
@@ -2044,19 +2061,19 @@
         <v>2020</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D66" s="6">
-        <v>134.46870000000001</v>
+        <v>135.32499999999999</v>
       </c>
       <c r="E66" s="6">
         <v>123.22</v>
       </c>
       <c r="F66" s="6">
-        <v>7.0924734355956254</v>
+        <v>8.087887794221249</v>
       </c>
       <c r="G66" s="6">
-        <v>5.7827799999999998</v>
+        <v>4.99268</v>
       </c>
     </row>
     <row r="67" spans="2:7" hidden="1">
@@ -2064,99 +2081,99 @@
         <v>2020</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D67" s="8">
-        <v>134.40459999999999</v>
+        <v>135.8458</v>
       </c>
       <c r="E67" s="8">
         <v>123.22</v>
       </c>
       <c r="F67" s="8">
+        <v>8.0053110638582439</v>
+      </c>
+      <c r="G67" s="8">
+        <v>5.6751199999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="6">
+        <v>134.46870000000001</v>
+      </c>
+      <c r="E68" s="6">
+        <v>123.22</v>
+      </c>
+      <c r="F68" s="6">
+        <v>7.0924734355956254</v>
+      </c>
+      <c r="G68" s="6">
+        <v>5.7827799999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="7">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="8">
+        <v>134.40459999999999</v>
+      </c>
+      <c r="E69" s="8">
+        <v>123.22</v>
+      </c>
+      <c r="F69" s="8">
         <v>6.4306785406937461</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G69" s="8">
         <v>5.6176599999999999</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="9">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="9">
         <v>2020</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D70" s="10">
         <v>134.96270000000001</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E70" s="10">
         <v>123.22</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F70" s="10">
         <v>6.4211541409388229</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G70" s="10">
         <v>5.1429299999999998</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="12">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D71" s="13">
         <v>113.0099</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E71" s="13">
         <v>102.68</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F71" s="13">
         <v>6.7128637984119832</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G71" s="13">
         <v>5.8932900000000004</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="5">
-        <v>2019</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="6">
-        <v>113.64060000000001</v>
-      </c>
-      <c r="E70" s="6">
-        <v>102.68</v>
-      </c>
-      <c r="F70" s="6">
-        <v>6.5416981673249053</v>
-      </c>
-      <c r="G70" s="6">
-        <v>5.9055099999999996</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="7">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="8">
-        <v>114.5573</v>
-      </c>
-      <c r="E71" s="8">
-        <v>102.68</v>
-      </c>
-      <c r="F71" s="8">
-        <v>6.4472883165934025</v>
-      </c>
-      <c r="G71" s="8">
-        <v>4.1060999999999996</v>
       </c>
     </row>
     <row r="72" spans="2:7" hidden="1">
@@ -2164,19 +2181,19 @@
         <v>2019</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D72" s="6">
-        <v>115.1756</v>
+        <v>113.64060000000001</v>
       </c>
       <c r="E72" s="6">
         <v>102.68</v>
       </c>
       <c r="F72" s="6">
-        <v>6.4399213093690122</v>
+        <v>6.5416981673249053</v>
       </c>
       <c r="G72" s="6">
-        <v>6.1267500000000004</v>
+        <v>5.9055099999999996</v>
       </c>
     </row>
     <row r="73" spans="2:7" hidden="1">
@@ -2184,19 +2201,19 @@
         <v>2019</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D73" s="8">
-        <v>115.4778</v>
+        <v>114.5573</v>
       </c>
       <c r="E73" s="8">
         <v>102.68</v>
       </c>
       <c r="F73" s="8">
-        <v>6.6044306496492178</v>
+        <v>6.4472883165934025</v>
       </c>
       <c r="G73" s="8">
-        <v>4.6333599999999997</v>
+        <v>4.1060999999999996</v>
       </c>
     </row>
     <row r="74" spans="2:7" hidden="1">
@@ -2204,19 +2221,19 @@
         <v>2019</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D74" s="6">
-        <v>115.4589</v>
+        <v>115.1756</v>
       </c>
       <c r="E74" s="6">
         <v>102.68</v>
       </c>
       <c r="F74" s="6">
-        <v>6.5149948776746625</v>
+        <v>6.4399213093690122</v>
       </c>
       <c r="G74" s="6">
-        <v>5.6531700000000003</v>
+        <v>6.1267500000000004</v>
       </c>
     </row>
     <row r="75" spans="2:7" hidden="1">
@@ -2224,19 +2241,19 @@
         <v>2019</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D75" s="8">
-        <v>115.8926</v>
+        <v>115.4778</v>
       </c>
       <c r="E75" s="8">
         <v>102.68</v>
       </c>
       <c r="F75" s="8">
-        <v>6.5571792302960175</v>
+        <v>6.6044306496492178</v>
       </c>
       <c r="G75" s="8">
-        <v>7.4020799999999998</v>
+        <v>4.6333599999999997</v>
       </c>
     </row>
     <row r="76" spans="2:7" hidden="1">
@@ -2244,19 +2261,19 @@
         <v>2019</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D76" s="6">
-        <v>115.9667</v>
+        <v>115.4589</v>
       </c>
       <c r="E76" s="6">
         <v>102.68</v>
       </c>
       <c r="F76" s="6">
-        <v>6.6877554429744412</v>
+        <v>6.5149948776746625</v>
       </c>
       <c r="G76" s="6">
-        <v>6.1700699999999999</v>
+        <v>5.6531700000000003</v>
       </c>
     </row>
     <row r="77" spans="2:7" hidden="1">
@@ -2264,19 +2281,19 @@
         <v>2019</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D77" s="8">
-        <v>115.63290000000001</v>
+        <v>115.8926</v>
       </c>
       <c r="E77" s="8">
         <v>102.68</v>
       </c>
       <c r="F77" s="8">
-        <v>6.9657750632007742</v>
+        <v>6.5571792302960175</v>
       </c>
       <c r="G77" s="8">
-        <v>5.08446</v>
+        <v>7.4020799999999998</v>
       </c>
     </row>
     <row r="78" spans="2:7" hidden="1">
@@ -2284,19 +2301,19 @@
         <v>2019</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D78" s="6">
-        <v>115.6943</v>
+        <v>115.9667</v>
       </c>
       <c r="E78" s="6">
         <v>102.68</v>
       </c>
       <c r="F78" s="6">
-        <v>6.7325048800213505</v>
+        <v>6.6877554429744412</v>
       </c>
       <c r="G78" s="6">
-        <v>6.7683299999999997</v>
+        <v>6.1700699999999999</v>
       </c>
     </row>
     <row r="79" spans="2:7" hidden="1">
@@ -2304,79 +2321,79 @@
         <v>2019</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D79" s="8">
-        <v>116.1399</v>
+        <v>115.63290000000001</v>
       </c>
       <c r="E79" s="8">
         <v>102.68</v>
       </c>
       <c r="F79" s="8">
-        <v>6.9307872714849283</v>
+        <v>6.9657750632007742</v>
       </c>
       <c r="G79" s="8">
-        <v>6.3011699999999999</v>
+        <v>5.08446</v>
       </c>
     </row>
     <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="9">
+      <c r="B80" s="5">
         <v>2019</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="10">
-        <v>116.10720000000001</v>
-      </c>
-      <c r="E80" s="10">
+      <c r="C80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="6">
+        <v>115.6943</v>
+      </c>
+      <c r="E80" s="6">
         <v>102.68</v>
       </c>
-      <c r="F80" s="10">
-        <v>6.941530195558232</v>
-      </c>
-      <c r="G80" s="10">
-        <v>5.2492299999999998</v>
+      <c r="F80" s="6">
+        <v>6.7325048800213505</v>
+      </c>
+      <c r="G80" s="6">
+        <v>6.7683299999999997</v>
       </c>
     </row>
     <row r="81" spans="2:10" hidden="1">
       <c r="B81" s="7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D81" s="8">
-        <v>100</v>
+        <v>116.1399</v>
       </c>
       <c r="E81" s="8">
-        <v>88.36</v>
+        <v>102.68</v>
       </c>
       <c r="F81" s="8">
-        <v>5.3789897305661416</v>
+        <v>6.9307872714849283</v>
       </c>
       <c r="G81" s="8">
-        <v>6.6267500000000004</v>
+        <v>6.3011699999999999</v>
       </c>
     </row>
     <row r="82" spans="2:10" hidden="1">
-      <c r="B82" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="6">
-        <v>100.7009</v>
-      </c>
-      <c r="E82" s="6">
-        <v>88.36</v>
-      </c>
-      <c r="F82" s="6">
-        <v>5.9138870881875416</v>
-      </c>
-      <c r="G82" s="6">
-        <v>5.2983399999999996</v>
+      <c r="B82" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="10">
+        <v>116.10720000000001</v>
+      </c>
+      <c r="E82" s="10">
+        <v>102.68</v>
+      </c>
+      <c r="F82" s="10">
+        <v>6.941530195558232</v>
+      </c>
+      <c r="G82" s="10">
+        <v>5.2492299999999998</v>
       </c>
     </row>
     <row r="83" spans="2:10" hidden="1">
@@ -2384,19 +2401,19 @@
         <v>2018</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D83" s="8">
-        <v>101.55759999999999</v>
+        <v>100</v>
       </c>
       <c r="E83" s="8">
         <v>88.36</v>
       </c>
       <c r="F83" s="8">
-        <v>5.8335904693498586</v>
+        <v>5.3789897305661416</v>
       </c>
       <c r="G83" s="8">
-        <v>3.8095400000000001</v>
+        <v>6.6267500000000004</v>
       </c>
     </row>
     <row r="84" spans="2:10" hidden="1">
@@ -2404,19 +2421,19 @@
         <v>2018</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D84" s="6">
-        <v>102.0839</v>
+        <v>100.7009</v>
       </c>
       <c r="E84" s="6">
         <v>88.36</v>
       </c>
       <c r="F84" s="6">
-        <v>5.8410211118133493</v>
+        <v>5.9138870881875416</v>
       </c>
       <c r="G84" s="6">
-        <v>5.7895099999999999</v>
+        <v>5.2983399999999996</v>
       </c>
     </row>
     <row r="85" spans="2:10" hidden="1">
@@ -2424,19 +2441,19 @@
         <v>2018</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D85" s="8">
-        <v>102.51560000000001</v>
+        <v>101.55759999999999</v>
       </c>
       <c r="E85" s="8">
         <v>88.36</v>
       </c>
       <c r="F85" s="8">
-        <v>5.9201670859141631</v>
+        <v>5.8335904693498586</v>
       </c>
       <c r="G85" s="8">
-        <v>5.9572500000000002</v>
+        <v>3.8095400000000001</v>
       </c>
     </row>
     <row r="86" spans="2:10" hidden="1">
@@ -2444,19 +2461,19 @@
         <v>2018</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D86" s="6">
-        <v>103.11369999999999</v>
+        <v>102.0839</v>
       </c>
       <c r="E86" s="6">
         <v>88.36</v>
       </c>
       <c r="F86" s="6">
-        <v>5.9473467068114516</v>
+        <v>5.8410211118133493</v>
       </c>
       <c r="G86" s="6">
-        <v>6.0968299999999997</v>
+        <v>5.7895099999999999</v>
       </c>
     </row>
     <row r="87" spans="2:10" hidden="1">
@@ -2464,19 +2481,19 @@
         <v>2018</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D87" s="8">
-        <v>103.6664</v>
+        <v>102.51560000000001</v>
       </c>
       <c r="E87" s="8">
         <v>88.36</v>
       </c>
       <c r="F87" s="8">
-        <v>5.7562832517160434</v>
+        <v>5.9201670859141631</v>
       </c>
       <c r="G87" s="8">
-        <v>4.5519999999999996</v>
+        <v>5.9572500000000002</v>
       </c>
     </row>
     <row r="88" spans="2:10" hidden="1">
@@ -2484,19 +2501,19 @@
         <v>2018</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D88" s="6">
-        <v>104.0668</v>
+        <v>103.11369999999999</v>
       </c>
       <c r="E88" s="6">
         <v>88.36</v>
       </c>
       <c r="F88" s="6">
-        <v>5.433721276431358</v>
+        <v>5.9473467068114516</v>
       </c>
       <c r="G88" s="6">
-        <v>6.0502200000000004</v>
+        <v>6.0968299999999997</v>
       </c>
     </row>
     <row r="89" spans="2:10" hidden="1">
@@ -2504,19 +2521,19 @@
         <v>2018</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D89" s="8">
-        <v>103.8981</v>
+        <v>103.6664</v>
       </c>
       <c r="E89" s="8">
         <v>88.36</v>
       </c>
       <c r="F89" s="8">
-        <v>5.8376710655503983</v>
+        <v>5.7562832517160434</v>
       </c>
       <c r="G89" s="8">
-        <v>4.5923600000000002</v>
+        <v>4.5519999999999996</v>
       </c>
     </row>
     <row r="90" spans="2:10" hidden="1">
@@ -2524,46 +2541,39 @@
         <v>2018</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D90" s="6">
-        <v>103.5459</v>
+        <v>104.0668</v>
       </c>
       <c r="E90" s="6">
         <v>88.36</v>
       </c>
       <c r="F90" s="6">
-        <v>5.9410164373325358</v>
+        <v>5.433721276431358</v>
       </c>
       <c r="G90" s="6">
-        <v>5.52257</v>
-      </c>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-    </row>
-    <row r="91" spans="2:10" ht="18" hidden="1" customHeight="1">
+        <v>6.0502200000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" hidden="1">
       <c r="B91" s="7">
         <v>2018</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D91" s="8">
-        <v>103.88079999999999</v>
+        <v>103.8981</v>
       </c>
       <c r="E91" s="8">
         <v>88.36</v>
       </c>
       <c r="F91" s="8">
-        <v>5.4159083624427007</v>
+        <v>5.8376710655503983</v>
       </c>
       <c r="G91" s="8">
-        <v>5.4624600000000001</v>
-      </c>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="1" t="s">
-        <v>0</v>
+        <v>4.5923600000000002</v>
       </c>
     </row>
     <row r="92" spans="2:10" hidden="1">
@@ -2571,55 +2581,102 @@
         <v>2018</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D92" s="6">
-        <v>104.2765</v>
+        <v>103.5459</v>
       </c>
       <c r="E92" s="6">
         <v>88.36</v>
       </c>
       <c r="F92" s="6">
-        <v>5.125430913865392</v>
+        <v>5.9410164373325358</v>
       </c>
       <c r="G92" s="6">
-        <v>4.7389599999999996</v>
+        <v>5.52257</v>
       </c>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
     </row>
-    <row r="93" spans="2:10">
-      <c r="B93" s="3" t="s">
+    <row r="93" spans="2:10" ht="18" hidden="1" customHeight="1">
+      <c r="B93" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="8">
+        <v>103.88079999999999</v>
+      </c>
+      <c r="E93" s="8">
+        <v>88.36</v>
+      </c>
+      <c r="F93" s="8">
+        <v>5.4159083624427007</v>
+      </c>
+      <c r="G93" s="8">
+        <v>5.4624600000000001</v>
+      </c>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" hidden="1">
+      <c r="B94" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="6">
+        <v>104.2765</v>
+      </c>
+      <c r="E94" s="6">
+        <v>88.36</v>
+      </c>
+      <c r="F94" s="6">
+        <v>5.125430913865392</v>
+      </c>
+      <c r="G94" s="6">
+        <v>4.7389599999999996</v>
+      </c>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="2:10">
-      <c r="B94" s="3" t="s">
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="16" t="s">
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="B96" s="1" t="s">
+      <c r="D97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G96" s="15"/>
-    </row>
-    <row r="97" spans="7:7">
-      <c r="G97" s="15"/>
+      <c r="G98" s="15"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="G99" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Salarios.xlsx
+++ b/Salarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1A8319-C936-464F-BDBC-8939E37A35DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E2E93A-CFB5-436B-8DAD-15105FEE8261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.3" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="24">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -109,7 +109,7 @@
     <t xml:space="preserve"> El Salario contractual, Incluye salario contractual de jurisdicción federal.</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -503,8 +503,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}" name="Tabla1" displayName="Tabla1" ref="B4:G94" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B4:G94" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}" name="Tabla1" displayName="Tabla1" ref="B4:G95" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G95" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -746,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="A2:O99"/>
+  <dimension ref="A2:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -823,1860 +823,1880 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1">
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>2025</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6">
+        <v>230.89670000000001</v>
+      </c>
+      <c r="E5" s="6">
+        <v>278.8</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4.3430228918193761</v>
+      </c>
+      <c r="G5" s="6">
+        <v>6.5874600000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1">
+      <c r="B6" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D6" s="8">
         <v>231.51329999999999</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E6" s="8">
         <v>278.8</v>
       </c>
-      <c r="F5" s="8">
-        <v>7.5014277529508799</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F6" s="8">
+        <v>7.5015677299262116</v>
+      </c>
+      <c r="G6" s="8">
+        <v>8.4105600000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1">
+      <c r="B7" s="5">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6">
+        <v>232.16319999999999</v>
+      </c>
+      <c r="E7" s="6">
+        <v>278.8</v>
+      </c>
+      <c r="F7" s="6">
+        <v>7.6178618802657532</v>
+      </c>
+      <c r="G7" s="6">
+        <v>8.9425699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1">
+      <c r="B8" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8">
+        <v>232.815</v>
+      </c>
+      <c r="E8" s="8">
+        <v>278.8</v>
+      </c>
+      <c r="F8" s="8">
+        <v>7.592301944734964</v>
+      </c>
+      <c r="G8" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1">
+      <c r="B9" s="5">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6">
+        <v>233.5829</v>
+      </c>
+      <c r="E9" s="6">
+        <v>278.8</v>
+      </c>
+      <c r="F9" s="6">
+        <v>7.2902614358040436</v>
+      </c>
+      <c r="G9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1">
+      <c r="B10" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8">
+        <v>234.31540000000001</v>
+      </c>
+      <c r="E10" s="8">
+        <v>278.8</v>
+      </c>
+      <c r="F10" s="8">
+        <v>7.5400681155420033</v>
+      </c>
+      <c r="G10" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1">
+      <c r="B11" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10">
+        <v>234.9641</v>
+      </c>
+      <c r="E11" s="10">
+        <v>278.8</v>
+      </c>
+      <c r="F11" s="10">
+        <v>7.7045927602115745</v>
+      </c>
+      <c r="G11" s="10">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
-      <c r="B6" s="5">
-        <v>2025</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6">
-        <v>232.16319999999999</v>
-      </c>
-      <c r="E6" s="6">
-        <v>278.8</v>
-      </c>
-      <c r="F6" s="6">
-        <v>7.6178618802657532</v>
-      </c>
-      <c r="G6" s="6">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
-      <c r="B7" s="7">
-        <v>2025</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="8">
-        <v>232.815</v>
-      </c>
-      <c r="E7" s="8">
-        <v>278.8</v>
-      </c>
-      <c r="F7" s="8">
-        <v>7.592301944734964</v>
-      </c>
-      <c r="G7" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
-      <c r="B8" s="5">
-        <v>2025</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6">
-        <v>233.5829</v>
-      </c>
-      <c r="E8" s="6">
-        <v>278.8</v>
-      </c>
-      <c r="F8" s="6">
-        <v>7.2902614358040436</v>
-      </c>
-      <c r="G8" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
-      <c r="B9" s="7">
-        <v>2025</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8">
-        <v>234.31540000000001</v>
-      </c>
-      <c r="E9" s="8">
-        <v>278.8</v>
-      </c>
-      <c r="F9" s="8">
-        <v>7.5400681155420033</v>
-      </c>
-      <c r="G9" s="8">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
-      <c r="B10" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="10">
-        <v>234.9641</v>
-      </c>
-      <c r="E10" s="10">
-        <v>278.8</v>
-      </c>
-      <c r="F10" s="10">
-        <v>7.7045927602115745</v>
-      </c>
-      <c r="G10" s="10">
-        <v>7.8</v>
-      </c>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
-      <c r="B11" s="7">
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1">
+      <c r="B12" s="7">
         <v>2024</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="8">
         <v>210.3897</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E12" s="8">
         <v>248.93</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F12" s="8">
         <v>9.2072833887340764</v>
       </c>
-      <c r="G11" s="8">
-        <v>10.03204</v>
-      </c>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
-      <c r="B12" s="5">
+      <c r="G12" s="8">
+        <v>9.9478399999999993</v>
+      </c>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1">
+      <c r="B13" s="5">
         <v>2024</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>211.1935</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <v>248.93</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="6">
         <v>9.2059656556959339</v>
       </c>
-      <c r="G12" s="6">
-        <v>3.60934</v>
-      </c>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
-      <c r="B13" s="7">
+      <c r="G13" s="6">
+        <v>3.6139399999999999</v>
+      </c>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1">
+      <c r="B14" s="7">
         <v>2024</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="8">
         <v>212.11340000000001</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E14" s="8">
         <v>248.93</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="8">
         <v>9.2094348758141589</v>
       </c>
-      <c r="G13" s="8">
-        <v>7.25162</v>
-      </c>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5">
-        <v>2024</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="6">
-        <v>213.27930000000001</v>
-      </c>
-      <c r="E14" s="6">
-        <v>248.93</v>
-      </c>
-      <c r="F14" s="6">
-        <v>9.2698142462096005</v>
-      </c>
-      <c r="G14" s="6">
-        <v>8.5202600000000004</v>
-      </c>
-      <c r="I14" s="18"/>
+      <c r="G14" s="8">
+        <v>7.2340600000000004</v>
+      </c>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>2024</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6">
+        <v>213.27930000000001</v>
+      </c>
+      <c r="E15" s="6">
+        <v>248.93</v>
+      </c>
+      <c r="F15" s="6">
+        <v>9.2698142462096005</v>
+      </c>
+      <c r="G15" s="6">
+        <v>8.5256299999999996</v>
+      </c>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:15" ht="18" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="8">
         <v>213.3844</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="8">
         <v>248.93</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="8">
         <v>9.7077795134083669</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="8">
         <v>8.4539799999999996</v>
       </c>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="B16" s="5">
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="5">
         <v>2024</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <v>213.40010000000001</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="6">
         <v>248.93</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <v>9.6784226147829049</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="6">
         <v>6.4799199999999999</v>
       </c>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="7">
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="7">
         <v>2024</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <v>215.63409999999999</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>248.93</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="8">
         <v>9.5272325480197804</v>
       </c>
-      <c r="G17" s="8">
-        <v>9.1234900000000003</v>
-      </c>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="5">
+      <c r="G18" s="8">
+        <v>9.1652500000000003</v>
+      </c>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="5">
         <v>2024</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <v>216.4494</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E19" s="6">
         <v>248.93</v>
       </c>
-      <c r="F18" s="6">
-        <v>9.4712077959391294</v>
-      </c>
-      <c r="G18" s="6">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="7">
+      <c r="F19" s="6">
+        <v>9.4720665946788323</v>
+      </c>
+      <c r="G19" s="6">
+        <v>9.1604600000000005</v>
+      </c>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="7">
         <v>2024</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="8">
         <v>216.04820000000001</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E20" s="8">
         <v>248.93</v>
       </c>
-      <c r="F19" s="8">
-        <v>9.6363148050862879</v>
-      </c>
-      <c r="G19" s="8">
-        <v>7.5</v>
-      </c>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="5">
+      <c r="F20" s="8">
+        <v>9.6358921994549895</v>
+      </c>
+      <c r="G20" s="8">
+        <v>7.4899500000000003</v>
+      </c>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="5">
         <v>2024</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="6">
         <v>216.48490000000001</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="6">
         <v>248.93</v>
       </c>
-      <c r="F20" s="6">
-        <v>9.877974082470665</v>
-      </c>
-      <c r="G20" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="7">
+      <c r="F21" s="6">
+        <v>9.8770147528371979</v>
+      </c>
+      <c r="G21" s="6">
+        <v>9.5797399999999993</v>
+      </c>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="7">
         <v>2024</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <v>217.10679999999999</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="8">
         <v>248.93</v>
       </c>
-      <c r="F21" s="8">
-        <v>10.128177295814877</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="9">
+      <c r="F22" s="8">
+        <v>10.12865580487381</v>
+      </c>
+      <c r="G22" s="8">
+        <v>8.4875000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="9">
         <v>2024</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D23" s="10">
         <v>217.3116</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E23" s="10">
         <v>248.93</v>
       </c>
-      <c r="F22" s="10">
-        <v>10.445541700127524</v>
-      </c>
-      <c r="G22" s="10">
-        <v>7.9025400000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" hidden="1">
-      <c r="B23" s="11">
+      <c r="F23" s="10">
+        <v>10.445443485258894</v>
+      </c>
+      <c r="G23" s="10">
+        <v>7.9063800000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" hidden="1">
+      <c r="B24" s="11">
         <v>2023</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="13">
         <v>182.70859999999999</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="13">
         <v>207.44</v>
       </c>
-      <c r="F23" s="13">
-        <v>10.525527026429549</v>
-      </c>
-      <c r="G23" s="13">
+      <c r="F24" s="13">
+        <v>10.525527026429545</v>
+      </c>
+      <c r="G24" s="13">
         <v>9.4565099999999997</v>
       </c>
     </row>
-    <row r="24" spans="2:9" hidden="1">
-      <c r="B24" s="5">
+    <row r="25" spans="2:9" hidden="1">
+      <c r="B25" s="5">
         <v>2023</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="6">
         <v>183.99850000000001</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="6">
         <v>207.44</v>
       </c>
-      <c r="F24" s="6">
-        <v>10.600337846674556</v>
-      </c>
-      <c r="G24" s="6">
-        <v>11.557779999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" hidden="1">
-      <c r="B25" s="7">
+      <c r="F25" s="6">
+        <v>10.600337846674552</v>
+      </c>
+      <c r="G25" s="6">
+        <v>11.56479</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" hidden="1">
+      <c r="B26" s="7">
         <v>2023</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="8">
         <v>185.17619999999999</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="8">
         <v>207.44</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F26" s="8">
         <v>10.75781505813298</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G26" s="8">
         <v>5.87758</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1">
-      <c r="B26" s="5">
+    <row r="27" spans="2:9" hidden="1">
+      <c r="B27" s="5">
         <v>2023</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D27" s="6">
         <v>185.87209999999999</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="6">
         <v>207.44</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="6">
         <v>10.730900115286657</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G27" s="6">
         <v>5.1179600000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1">
-      <c r="B27" s="7">
+    <row r="28" spans="2:9" hidden="1">
+      <c r="B28" s="7">
         <v>2023</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <v>186.69710000000001</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="8">
         <v>207.44</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F28" s="8">
         <v>10.557782826178386</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G28" s="8">
         <v>8.52529</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1">
-      <c r="B28" s="5">
+    <row r="29" spans="2:9" hidden="1">
+      <c r="B29" s="5">
         <v>2023</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <v>187.7304</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E29" s="6">
         <v>207.44</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="6">
         <v>10.584865689848266</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G29" s="6">
         <v>8.8868299999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1">
-      <c r="B29" s="7">
+    <row r="30" spans="2:9" hidden="1">
+      <c r="B30" s="7">
         <v>2023</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <v>188.6353</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E30" s="8">
         <v>207.44</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F30" s="8">
         <v>11.24794836198264</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G30" s="8">
         <v>7.8830099999999996</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1">
-      <c r="B30" s="5">
+    <row r="31" spans="2:9" hidden="1">
+      <c r="B31" s="5">
         <v>2023</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D31" s="6">
         <v>188.82669999999999</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E31" s="6">
         <v>207.44</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F31" s="6">
         <v>11.289402261233805</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G31" s="6">
         <v>8.8381900000000009</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1">
-      <c r="B31" s="7">
+    <row r="32" spans="2:9" hidden="1">
+      <c r="B32" s="7">
         <v>2023</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="8">
         <v>188.41630000000001</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E32" s="8">
         <v>207.44</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F32" s="8">
         <v>11.238302906502851</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G32" s="8">
         <v>10.018739999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1">
-      <c r="B32" s="5">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="5">
         <v>2023</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="6">
         <v>188.37809999999999</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E33" s="6">
         <v>207.44</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F33" s="6">
         <v>11.181872421901872</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G33" s="6">
         <v>9.5111500000000007</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="7">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="7">
         <v>2023</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="8">
         <v>188.8828</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E34" s="8">
         <v>207.44</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F34" s="8">
         <v>11.218853887600023</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G34" s="8">
         <v>8.4645399999999995</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="9">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="9">
         <v>2023</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D35" s="10">
         <v>189.9359</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E35" s="10">
         <v>207.44</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="10">
         <v>11.229977483897336</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G35" s="10">
         <v>10.203760000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="11">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="11">
         <v>2022</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <v>159.35679999999999</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>172.87</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>10.965653953382425</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="13">
         <v>8.9062999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="5">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="5">
         <v>2022</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D37" s="6">
         <v>159.96510000000001</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E37" s="6">
         <v>172.87</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F37" s="6">
         <v>10.995255372919743</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G37" s="6">
         <v>8.3648600000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="7">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="7">
         <v>2022</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="8">
         <v>160.88579999999999</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E38" s="8">
         <v>172.87</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F38" s="8">
         <v>11.103610268047937</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G38" s="8">
         <v>4.5225999999999997</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="5">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="5">
         <v>2022</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D39" s="6">
         <v>161.7963</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E39" s="6">
         <v>172.87</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F39" s="6">
         <v>11.252030265190239</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G39" s="6">
         <v>7.7671099999999997</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="7">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="7">
         <v>2022</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="8">
         <v>162.80000000000001</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E40" s="8">
         <v>172.87</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F40" s="8">
         <v>11.539750760499</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G40" s="8">
         <v>5.0429000000000004</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="5">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="5">
         <v>2022</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D41" s="6">
         <v>163.93209999999999</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E41" s="6">
         <v>172.87</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F41" s="6">
         <v>11.478780639073349</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G41" s="6">
         <v>9.5525300000000009</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="7">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="7">
         <v>2022</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <v>165.1464</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E42" s="8">
         <v>172.87</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F42" s="8">
         <v>11.1312009332174</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G42" s="8">
         <v>6.7259200000000003</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1">
-      <c r="B42" s="5">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="5">
         <v>2022</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D43" s="6">
         <v>166.541</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E43" s="6">
         <v>172.87</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F43" s="6">
         <v>10.926384520847442</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G43" s="6">
         <v>8.8021700000000003</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1">
-      <c r="B43" s="7">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="7">
         <v>2022</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D44" s="8">
         <v>166.83459999999999</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E44" s="8">
         <v>172.87</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F44" s="8">
         <v>10.820973830220426</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G44" s="8">
         <v>5.7584099999999996</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="5">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="5">
         <v>2022</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D45" s="6">
         <v>167.7371</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E45" s="6">
         <v>172.87</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F45" s="6">
         <v>10.537379166203898</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G45" s="6">
         <v>8.8308599999999995</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="7">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="7">
         <v>2022</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="8">
         <v>169.39779999999999</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E46" s="8">
         <v>172.87</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F46" s="8">
         <v>9.4754731203904097</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G46" s="8">
         <v>6.8888299999999996</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="18" hidden="1" customHeight="1">
-      <c r="B46" s="9">
+    <row r="47" spans="2:7" ht="18" hidden="1" customHeight="1">
+      <c r="B47" s="9">
         <v>2022</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D47" s="10">
         <v>170.8032</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E47" s="10">
         <v>172.87</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F47" s="10">
         <v>8.858127860430498</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G47" s="10">
         <v>5.6387499999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="12">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D48" s="13">
         <v>140.83420000000001</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="13">
         <v>141.69999999999999</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>7.4876456534687996</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G48" s="13">
         <v>5.6811499999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="5">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="5">
         <v>2021</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D49" s="6">
         <v>141.3451</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E49" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F49" s="6">
         <v>7.4221022634149536</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G49" s="6">
         <v>5.46685</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="7">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="7">
         <v>2021</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="8">
         <v>142.9632</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E50" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F50" s="8">
         <v>7.4943963321753237</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G50" s="8">
         <v>4.3498400000000004</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="5">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="5">
         <v>2021</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D51" s="6">
         <v>144.16079999999999</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E51" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F51" s="6">
         <v>7.2551848428966892</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G51" s="6">
         <v>6.5983599999999996</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="7">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="7">
         <v>2021</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D52" s="8">
         <v>145.04929999999999</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E52" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F52" s="8">
         <v>7.4497652308630036</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G52" s="8">
         <v>5.70878</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="5">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="5">
         <v>2021</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D53" s="6">
         <v>145.3262</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E53" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F53" s="6">
         <v>7.4547280745579148</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G53" s="6">
         <v>5.6227299999999998</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="7">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="7">
         <v>2021</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="8">
         <v>146.18</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E54" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F54" s="8">
         <v>6.0634394773699363</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G54" s="8">
         <v>5.6012399999999998</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="5">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="5">
         <v>2021</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D55" s="6">
         <v>146.9589</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E55" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F55" s="6">
         <v>6.1525731513115467</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G55" s="6">
         <v>4.5034099999999997</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="7">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="7">
         <v>2021</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D56" s="8">
         <v>147.25890000000001</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E56" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F56" s="8">
         <v>5.9561618976688102</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G56" s="8">
         <v>5.6467400000000003</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="5">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="5">
         <v>2021</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D57" s="6">
         <v>147.74090000000001</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E57" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F57" s="6">
         <v>7.0554176776254529</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G57" s="6">
         <v>5.7310600000000003</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="7">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="7">
         <v>2021</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="8">
         <v>148.9624</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E58" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F58" s="8">
         <v>8.0704931821570227</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G58" s="8">
         <v>4.4228899999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="9">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="9">
         <v>2021</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D59" s="10">
         <v>149.90450000000001</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E59" s="10">
         <v>141.69999999999999</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F59" s="10">
         <v>8.2269715580314706</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G59" s="10">
         <v>3.8172199999999998</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="12">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D60" s="13">
         <v>131.47470000000001</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="13">
         <v>123.22</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>7.8999918968648553</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G60" s="13">
         <v>6.7025100000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="5">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="5">
         <v>2020</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D61" s="6">
         <v>131.9759</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E61" s="6">
         <v>123.22</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F61" s="6">
         <v>7.9355051734412374</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G61" s="6">
         <v>5.1872999999999996</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="7">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="7">
         <v>2020</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="8">
         <v>132.0754</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E62" s="8">
         <v>123.22</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F62" s="8">
         <v>7.667215188304155</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G62" s="8">
         <v>4.2006399999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="5">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="5">
         <v>2020</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D63" s="6">
         <v>132.8817</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E63" s="6">
         <v>123.22</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F63" s="6">
         <v>7.572928895459996</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G63" s="6">
         <v>4.3477100000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="7">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="7">
         <v>2020</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D64" s="8">
         <v>133.18600000000001</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E64" s="8">
         <v>123.22</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F64" s="8">
         <v>6.4420399377693061</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G64" s="8">
         <v>4.3611000000000004</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="5">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="5">
         <v>2020</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D65" s="6">
         <v>133.71029999999999</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E65" s="6">
         <v>123.22</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F65" s="6">
         <v>6.4297547455233861</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G65" s="6">
         <v>6.7050200000000002</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="7">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="7">
         <v>2020</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="8">
         <v>134.58840000000001</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E66" s="8">
         <v>123.22</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F66" s="8">
         <v>8.1367830039574827</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G66" s="8">
         <v>4.9153900000000004</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="5">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="5">
         <v>2020</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D67" s="6">
         <v>135.32499999999999</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E67" s="6">
         <v>123.22</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F67" s="6">
         <v>8.087887794221249</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G67" s="6">
         <v>4.99268</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="7">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="7">
         <v>2020</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C68" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D68" s="8">
         <v>135.8458</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E68" s="8">
         <v>123.22</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F68" s="8">
         <v>8.0053110638582439</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G68" s="8">
         <v>5.6751199999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="5">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="5">
         <v>2020</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D69" s="6">
         <v>134.46870000000001</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E69" s="6">
         <v>123.22</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F69" s="6">
         <v>7.0924734355956254</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G69" s="6">
         <v>5.7827799999999998</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="7">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="7">
         <v>2020</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D70" s="8">
         <v>134.40459999999999</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E70" s="8">
         <v>123.22</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F70" s="8">
         <v>6.4306785406937461</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G70" s="8">
         <v>5.6176599999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="9">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="9">
         <v>2020</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D71" s="10">
         <v>134.96270000000001</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E71" s="10">
         <v>123.22</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F71" s="10">
         <v>6.4211541409388229</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G71" s="10">
         <v>5.1429299999999998</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="12">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D72" s="13">
         <v>113.0099</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E72" s="13">
         <v>102.68</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>6.7128637984119832</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G72" s="13">
         <v>5.8932900000000004</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="5">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="5">
         <v>2019</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D73" s="6">
         <v>113.64060000000001</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E73" s="6">
         <v>102.68</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F73" s="6">
         <v>6.5416981673249053</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G73" s="6">
         <v>5.9055099999999996</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="7">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="7">
         <v>2019</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="8">
         <v>114.5573</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E74" s="8">
         <v>102.68</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F74" s="8">
         <v>6.4472883165934025</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G74" s="8">
         <v>4.1060999999999996</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="5">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="5">
         <v>2019</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D75" s="6">
         <v>115.1756</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E75" s="6">
         <v>102.68</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F75" s="6">
         <v>6.4399213093690122</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G75" s="6">
         <v>6.1267500000000004</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="7">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="7">
         <v>2019</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D76" s="8">
         <v>115.4778</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E76" s="8">
         <v>102.68</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F76" s="8">
         <v>6.6044306496492178</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G76" s="8">
         <v>4.6333599999999997</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="5">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="5">
         <v>2019</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D77" s="6">
         <v>115.4589</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E77" s="6">
         <v>102.68</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F77" s="6">
         <v>6.5149948776746625</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G77" s="6">
         <v>5.6531700000000003</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="7">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="7">
         <v>2019</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="8">
         <v>115.8926</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E78" s="8">
         <v>102.68</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F78" s="8">
         <v>6.5571792302960175</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G78" s="8">
         <v>7.4020799999999998</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="5">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="5">
         <v>2019</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D79" s="6">
         <v>115.9667</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E79" s="6">
         <v>102.68</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F79" s="6">
         <v>6.6877554429744412</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G79" s="6">
         <v>6.1700699999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="7">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="7">
         <v>2019</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="8">
         <v>115.63290000000001</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E80" s="8">
         <v>102.68</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F80" s="8">
         <v>6.9657750632007742</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G80" s="8">
         <v>5.08446</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="5">
+    <row r="81" spans="2:10" hidden="1">
+      <c r="B81" s="5">
         <v>2019</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D81" s="6">
         <v>115.6943</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E81" s="6">
         <v>102.68</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F81" s="6">
         <v>6.7325048800213505</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G81" s="6">
         <v>6.7683299999999997</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1">
-      <c r="B81" s="7">
+    <row r="82" spans="2:10" hidden="1">
+      <c r="B82" s="7">
         <v>2019</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="8">
         <v>116.1399</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E82" s="8">
         <v>102.68</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F82" s="8">
         <v>6.9307872714849283</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G82" s="8">
         <v>6.3011699999999999</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1">
-      <c r="B82" s="9">
+    <row r="83" spans="2:10" hidden="1">
+      <c r="B83" s="9">
         <v>2019</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D83" s="10">
         <v>116.10720000000001</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E83" s="10">
         <v>102.68</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F83" s="10">
         <v>6.941530195558232</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G83" s="10">
         <v>5.2492299999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1">
-      <c r="B83" s="7">
+    <row r="84" spans="2:10" hidden="1">
+      <c r="B84" s="7">
         <v>2018</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C84" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D84" s="8">
         <v>100</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E84" s="8">
         <v>88.36</v>
       </c>
-      <c r="F83" s="8">
+      <c r="F84" s="8">
         <v>5.3789897305661416</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G84" s="8">
         <v>6.6267500000000004</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1">
-      <c r="B84" s="5">
+    <row r="85" spans="2:10" hidden="1">
+      <c r="B85" s="5">
         <v>2018</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D85" s="6">
         <v>100.7009</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E85" s="6">
         <v>88.36</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F85" s="6">
         <v>5.9138870881875416</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G85" s="6">
         <v>5.2983399999999996</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1">
-      <c r="B85" s="7">
+    <row r="86" spans="2:10" hidden="1">
+      <c r="B86" s="7">
         <v>2018</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="8">
         <v>101.55759999999999</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E86" s="8">
         <v>88.36</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F86" s="8">
         <v>5.8335904693498586</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G86" s="8">
         <v>3.8095400000000001</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1">
-      <c r="B86" s="5">
+    <row r="87" spans="2:10" hidden="1">
+      <c r="B87" s="5">
         <v>2018</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D87" s="6">
         <v>102.0839</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E87" s="6">
         <v>88.36</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F87" s="6">
         <v>5.8410211118133493</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G87" s="6">
         <v>5.7895099999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1">
-      <c r="B87" s="7">
+    <row r="88" spans="2:10" hidden="1">
+      <c r="B88" s="7">
         <v>2018</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="8">
         <v>102.51560000000001</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E88" s="8">
         <v>88.36</v>
       </c>
-      <c r="F87" s="8">
+      <c r="F88" s="8">
         <v>5.9201670859141631</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G88" s="8">
         <v>5.9572500000000002</v>
       </c>
     </row>
-    <row r="88" spans="2:10" hidden="1">
-      <c r="B88" s="5">
+    <row r="89" spans="2:10" hidden="1">
+      <c r="B89" s="5">
         <v>2018</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D89" s="6">
         <v>103.11369999999999</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E89" s="6">
         <v>88.36</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F89" s="6">
         <v>5.9473467068114516</v>
       </c>
-      <c r="G88" s="6">
+      <c r="G89" s="6">
         <v>6.0968299999999997</v>
       </c>
     </row>
-    <row r="89" spans="2:10" hidden="1">
-      <c r="B89" s="7">
+    <row r="90" spans="2:10" hidden="1">
+      <c r="B90" s="7">
         <v>2018</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D90" s="8">
         <v>103.6664</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E90" s="8">
         <v>88.36</v>
       </c>
-      <c r="F89" s="8">
+      <c r="F90" s="8">
         <v>5.7562832517160434</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G90" s="8">
         <v>4.5519999999999996</v>
       </c>
     </row>
-    <row r="90" spans="2:10" hidden="1">
-      <c r="B90" s="5">
+    <row r="91" spans="2:10" hidden="1">
+      <c r="B91" s="5">
         <v>2018</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C91" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D91" s="6">
         <v>104.0668</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E91" s="6">
         <v>88.36</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F91" s="6">
         <v>5.433721276431358</v>
       </c>
-      <c r="G90" s="6">
+      <c r="G91" s="6">
         <v>6.0502200000000004</v>
       </c>
     </row>
-    <row r="91" spans="2:10" hidden="1">
-      <c r="B91" s="7">
+    <row r="92" spans="2:10" hidden="1">
+      <c r="B92" s="7">
         <v>2018</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D92" s="8">
         <v>103.8981</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E92" s="8">
         <v>88.36</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F92" s="8">
         <v>5.8376710655503983</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G92" s="8">
         <v>4.5923600000000002</v>
       </c>
     </row>
-    <row r="92" spans="2:10" hidden="1">
-      <c r="B92" s="5">
+    <row r="93" spans="2:10" hidden="1">
+      <c r="B93" s="5">
         <v>2018</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D93" s="6">
         <v>103.5459</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E93" s="6">
         <v>88.36</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F93" s="6">
         <v>5.9410164373325358</v>
       </c>
-      <c r="G92" s="6">
+      <c r="G93" s="6">
         <v>5.52257</v>
-      </c>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-    </row>
-    <row r="93" spans="2:10" ht="18" hidden="1" customHeight="1">
-      <c r="B93" s="7">
-        <v>2018</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="8">
-        <v>103.88079999999999</v>
-      </c>
-      <c r="E93" s="8">
-        <v>88.36</v>
-      </c>
-      <c r="F93" s="8">
-        <v>5.4159083624427007</v>
-      </c>
-      <c r="G93" s="8">
-        <v>5.4624600000000001</v>
       </c>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
-      <c r="J93" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" hidden="1">
-      <c r="B94" s="5">
+    </row>
+    <row r="94" spans="2:10" ht="18" hidden="1" customHeight="1">
+      <c r="B94" s="7">
         <v>2018</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="6">
-        <v>104.2765</v>
-      </c>
-      <c r="E94" s="6">
+      <c r="C94" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="8">
+        <v>103.88079999999999</v>
+      </c>
+      <c r="E94" s="8">
         <v>88.36</v>
       </c>
-      <c r="F94" s="6">
-        <v>5.125430913865392</v>
-      </c>
-      <c r="G94" s="6">
-        <v>4.7389599999999996</v>
+      <c r="F94" s="8">
+        <v>5.4159083624427007</v>
+      </c>
+      <c r="G94" s="8">
+        <v>5.4624600000000001</v>
       </c>
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
-    </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="F95" s="3"/>
+      <c r="J94" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" hidden="1">
+      <c r="B95" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="6">
+        <v>104.2765</v>
+      </c>
+      <c r="E95" s="6">
+        <v>88.36</v>
+      </c>
+      <c r="F95" s="6">
+        <v>5.125430913865392</v>
+      </c>
+      <c r="G95" s="6">
+        <v>4.7389599999999996</v>
+      </c>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
     </row>
     <row r="96" spans="2:10">
       <c r="B96" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="F96" s="3"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-    </row>
-    <row r="98" spans="2:7">
-      <c r="B98" s="1" t="s">
+      <c r="D98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G98" s="15"/>
-    </row>
-    <row r="99" spans="2:7">
       <c r="G99" s="15"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="G100" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Salarios.xlsx
+++ b/Salarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E2E93A-CFB5-436B-8DAD-15105FEE8261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AE98FC-52C0-44AC-9F19-E9EE047CDE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_6.3" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -109,7 +109,7 @@
     <t xml:space="preserve"> El Salario contractual, Incluye salario contractual de jurisdicción federal.</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -503,11 +503,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}" name="Tabla1" displayName="Tabla1" ref="B4:G95" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B4:G95" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}" name="Tabla1" displayName="Tabla1" ref="B4:G96" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B4:G96" xr:uid="{80F3A600-2A17-46AB-8E20-B493776DA8E0}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
+        <filter val="2025"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -746,7 +747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="A2:O100"/>
+  <dimension ref="A2:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -823,1880 +824,1900 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1">
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>2025</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8">
+        <v>230.75409999999999</v>
+      </c>
+      <c r="E5" s="8">
+        <v>278.8</v>
+      </c>
+      <c r="F5" s="8">
+        <v>7.3633848933939854</v>
+      </c>
+      <c r="G5" s="8">
+        <v>7.2940800000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1">
+      <c r="B6" s="5">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="6">
         <v>230.89670000000001</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E6" s="6">
         <v>278.8</v>
       </c>
-      <c r="F5" s="6">
-        <v>4.3430228918193761</v>
-      </c>
-      <c r="G5" s="6">
-        <v>6.5874600000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
-      <c r="B6" s="7">
+      <c r="F6" s="6">
+        <v>7.2701592098204673</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6.6332300000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1">
+      <c r="B7" s="7">
         <v>2025</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="8">
         <v>231.51329999999999</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="8">
         <v>278.8</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F7" s="8">
         <v>7.5015677299262116</v>
       </c>
-      <c r="G6" s="8">
-        <v>8.4105600000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
-      <c r="B7" s="5">
+      <c r="G7" s="8">
+        <v>8.4155499999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1">
+      <c r="B8" s="5">
         <v>2025</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D8" s="6">
         <v>232.16319999999999</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E8" s="6">
         <v>278.8</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F8" s="6">
         <v>7.6178618802657532</v>
       </c>
-      <c r="G7" s="6">
-        <v>8.9425699999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
-      <c r="B8" s="7">
+      <c r="G8" s="6">
+        <v>8.9393499999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1">
+      <c r="B9" s="7">
         <v>2025</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D9" s="8">
         <v>232.815</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="8">
         <v>278.8</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F9" s="8">
         <v>7.592301944734964</v>
       </c>
-      <c r="G8" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
-      <c r="B9" s="5">
+      <c r="G9" s="8">
+        <v>7.0663900000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1">
+      <c r="B10" s="5">
         <v>2025</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D10" s="6">
         <v>233.5829</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="6">
         <v>278.8</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F10" s="6">
         <v>7.2902614358040436</v>
       </c>
-      <c r="G9" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
-      <c r="B10" s="7">
+      <c r="G10" s="6">
+        <v>8.0381099999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1">
+      <c r="B11" s="7">
         <v>2025</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="8">
         <v>234.31540000000001</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11" s="8">
         <v>278.8</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F11" s="8">
         <v>7.5400681155420033</v>
       </c>
-      <c r="G10" s="8">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
-      <c r="B11" s="9">
+      <c r="G11" s="8">
+        <v>8.2784899999999997</v>
+      </c>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1">
+      <c r="B12" s="9">
         <v>2025</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D12" s="10">
         <v>234.9641</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="10">
         <v>278.8</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F12" s="10">
         <v>7.7045927602115745</v>
       </c>
-      <c r="G11" s="10">
-        <v>7.8</v>
-      </c>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
-      <c r="B12" s="7">
+      <c r="G12" s="10">
+        <v>7.8393199999999998</v>
+      </c>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1">
+      <c r="B13" s="7">
         <v>2024</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D13" s="8">
         <v>210.3897</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E13" s="8">
         <v>248.93</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F13" s="8">
         <v>9.2072833887340764</v>
       </c>
-      <c r="G12" s="8">
-        <v>9.9478399999999993</v>
-      </c>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
-      <c r="B13" s="5">
+      <c r="G13" s="8">
+        <v>9.9456399999999991</v>
+      </c>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1">
+      <c r="B14" s="5">
         <v>2024</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <v>211.1935</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>248.93</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="6">
         <v>9.2059656556959339</v>
       </c>
-      <c r="G13" s="6">
-        <v>3.6139399999999999</v>
-      </c>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
-      <c r="B14" s="7">
+      <c r="G14" s="6">
+        <v>3.6124999999999998</v>
+      </c>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1">
+      <c r="B15" s="7">
         <v>2024</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="8">
         <v>212.11340000000001</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E15" s="8">
         <v>248.93</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F15" s="8">
         <v>9.2094348758141589</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="8">
         <v>7.2340600000000004</v>
       </c>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5">
-        <v>2024</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="6">
-        <v>213.27930000000001</v>
-      </c>
-      <c r="E15" s="6">
-        <v>248.93</v>
-      </c>
-      <c r="F15" s="6">
-        <v>9.2698142462096005</v>
-      </c>
-      <c r="G15" s="6">
-        <v>8.5256299999999996</v>
-      </c>
-      <c r="I15" s="18"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>2024</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="6">
+        <v>213.27930000000001</v>
+      </c>
+      <c r="E16" s="6">
+        <v>248.93</v>
+      </c>
+      <c r="F16" s="6">
+        <v>9.2698142462096005</v>
+      </c>
+      <c r="G16" s="6">
+        <v>8.5269600000000008</v>
+      </c>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7">
+        <v>2024</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="8">
         <v>213.3844</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="8">
         <v>248.93</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="8">
         <v>9.7077795134083669</v>
       </c>
-      <c r="G16" s="8">
-        <v>8.4539799999999996</v>
-      </c>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="5">
+      <c r="G17" s="8">
+        <v>8.4437499999999996</v>
+      </c>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="5">
         <v>2024</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>213.40010000000001</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <v>248.93</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="6">
         <v>9.6784226147829049</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G18" s="6">
         <v>6.4799199999999999</v>
       </c>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="7">
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="7">
         <v>2024</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <v>215.63409999999999</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="8">
         <v>248.93</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F19" s="8">
         <v>9.5272325480197804</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <v>9.1652500000000003</v>
       </c>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="5">
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="5">
         <v>2024</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="6">
         <v>216.4494</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="6">
         <v>248.93</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
         <v>9.4720665946788323</v>
       </c>
-      <c r="G19" s="6">
-        <v>9.1604600000000005</v>
-      </c>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="7">
+      <c r="G20" s="6">
+        <v>9.1583400000000008</v>
+      </c>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="7">
         <v>2024</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D21" s="8">
         <v>216.04820000000001</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E21" s="8">
         <v>248.93</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F21" s="8">
         <v>9.6358921994549895</v>
       </c>
-      <c r="G20" s="8">
-        <v>7.4899500000000003</v>
-      </c>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="5">
+      <c r="G21" s="8">
+        <v>7.49282</v>
+      </c>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="5">
         <v>2024</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="6">
         <v>216.48490000000001</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="6">
         <v>248.93</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F22" s="6">
         <v>9.8770147528371979</v>
       </c>
-      <c r="G21" s="6">
-        <v>9.5797399999999993</v>
-      </c>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="7">
+      <c r="G22" s="6">
+        <v>9.5801200000000009</v>
+      </c>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="7">
         <v>2024</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <v>217.10679999999999</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E23" s="8">
         <v>248.93</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F23" s="8">
         <v>10.12865580487381</v>
       </c>
-      <c r="G22" s="8">
-        <v>8.4875000000000007</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="9">
+      <c r="G23" s="8">
+        <v>8.4877000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="9">
         <v>2024</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="10">
         <v>217.3116</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E24" s="10">
         <v>248.93</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F24" s="10">
         <v>10.445443485258894</v>
       </c>
-      <c r="G23" s="10">
-        <v>7.9063800000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" hidden="1">
-      <c r="B24" s="11">
+      <c r="G24" s="10">
+        <v>7.9043000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1">
+      <c r="B25" s="11">
         <v>2023</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D25" s="13">
         <v>182.70859999999999</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E25" s="13">
         <v>207.44</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="13">
         <v>10.525527026429545</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="13">
         <v>9.4565099999999997</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1">
-      <c r="B25" s="5">
+    <row r="26" spans="1:9" hidden="1">
+      <c r="B26" s="5">
         <v>2023</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D26" s="6">
         <v>183.99850000000001</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="6">
         <v>207.44</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="6">
         <v>10.600337846674552</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G26" s="6">
         <v>11.56479</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1">
-      <c r="B26" s="7">
+    <row r="27" spans="1:9" hidden="1">
+      <c r="B27" s="7">
         <v>2023</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D27" s="8">
         <v>185.17619999999999</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E27" s="8">
         <v>207.44</v>
       </c>
-      <c r="F26" s="8">
-        <v>10.75781505813298</v>
-      </c>
-      <c r="G26" s="8">
-        <v>5.87758</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" hidden="1">
-      <c r="B27" s="5">
+      <c r="F27" s="8">
+        <v>10.757815058132977</v>
+      </c>
+      <c r="G27" s="8">
+        <v>5.8783300000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1">
+      <c r="B28" s="5">
         <v>2023</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="6">
         <v>185.87209999999999</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="6">
         <v>207.44</v>
       </c>
-      <c r="F27" s="6">
-        <v>10.730900115286657</v>
-      </c>
-      <c r="G27" s="6">
-        <v>5.1179600000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" hidden="1">
-      <c r="B28" s="7">
+      <c r="F28" s="6">
+        <v>10.730900115286666</v>
+      </c>
+      <c r="G28" s="6">
+        <v>5.0373200000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1">
+      <c r="B29" s="7">
         <v>2023</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="8">
         <v>186.69710000000001</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E29" s="8">
         <v>207.44</v>
       </c>
-      <c r="F28" s="8">
-        <v>10.557782826178386</v>
-      </c>
-      <c r="G28" s="8">
-        <v>8.52529</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" hidden="1">
-      <c r="B29" s="5">
+      <c r="F29" s="8">
+        <v>10.557157796584505</v>
+      </c>
+      <c r="G29" s="8">
+        <v>8.5287699999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1">
+      <c r="B30" s="5">
         <v>2023</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="6">
         <v>187.7304</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E30" s="6">
         <v>207.44</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F30" s="6">
         <v>10.584865689848266</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G30" s="6">
         <v>8.8868299999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1">
-      <c r="B30" s="7">
+    <row r="31" spans="1:9" hidden="1">
+      <c r="B31" s="7">
         <v>2023</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="8">
         <v>188.6353</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E31" s="8">
         <v>207.44</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F31" s="8">
         <v>11.24794836198264</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G31" s="8">
         <v>7.8830099999999996</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1">
-      <c r="B31" s="5">
+    <row r="32" spans="1:9" hidden="1">
+      <c r="B32" s="5">
         <v>2023</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D32" s="6">
         <v>188.82669999999999</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E32" s="6">
         <v>207.44</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F32" s="6">
         <v>11.289402261233805</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G32" s="6">
         <v>8.8381900000000009</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1">
-      <c r="B32" s="7">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="7">
         <v>2023</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D33" s="8">
         <v>188.41630000000001</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E33" s="8">
         <v>207.44</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F33" s="8">
         <v>11.238302906502851</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G33" s="8">
         <v>10.018739999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="5">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="5">
         <v>2023</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="6">
         <v>188.37809999999999</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E34" s="6">
         <v>207.44</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F34" s="6">
         <v>11.181872421901872</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G34" s="6">
         <v>9.5111500000000007</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="7">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="7">
         <v>2023</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="8">
         <v>188.8828</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E35" s="8">
         <v>207.44</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F35" s="8">
         <v>11.218853887600023</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G35" s="8">
         <v>8.4645399999999995</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="9">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="9">
         <v>2023</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D36" s="10">
         <v>189.9359</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E36" s="10">
         <v>207.44</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="10">
         <v>11.229977483897336</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G36" s="10">
         <v>10.203760000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="11">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="11">
         <v>2022</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="13">
         <v>159.35679999999999</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="13">
         <v>172.87</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="13">
         <v>10.965653953382425</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G37" s="13">
         <v>8.9062999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="5">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="5">
         <v>2022</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D38" s="6">
         <v>159.96510000000001</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E38" s="6">
         <v>172.87</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F38" s="6">
         <v>10.995255372919743</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G38" s="6">
         <v>8.3648600000000002</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="7">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="7">
         <v>2022</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="8">
         <v>160.88579999999999</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E39" s="8">
         <v>172.87</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F39" s="8">
         <v>11.103610268047937</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G39" s="8">
         <v>4.5225999999999997</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="5">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="5">
         <v>2022</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D40" s="6">
         <v>161.7963</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="6">
         <v>172.87</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F40" s="6">
         <v>11.252030265190239</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G40" s="6">
         <v>7.7671099999999997</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="7">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="7">
         <v>2022</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="8">
         <v>162.80000000000001</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E41" s="8">
         <v>172.87</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F41" s="8">
         <v>11.539750760499</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G41" s="8">
         <v>5.0429000000000004</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="5">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="5">
         <v>2022</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D42" s="6">
         <v>163.93209999999999</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E42" s="6">
         <v>172.87</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F42" s="6">
         <v>11.478780639073349</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G42" s="6">
         <v>9.5525300000000009</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1">
-      <c r="B42" s="7">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="7">
         <v>2022</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="8">
         <v>165.1464</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E43" s="8">
         <v>172.87</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F43" s="8">
         <v>11.1312009332174</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G43" s="8">
         <v>6.7259200000000003</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1">
-      <c r="B43" s="5">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="5">
         <v>2022</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D44" s="6">
         <v>166.541</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E44" s="6">
         <v>172.87</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F44" s="6">
         <v>10.926384520847442</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G44" s="6">
         <v>8.8021700000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="7">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="7">
         <v>2022</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D45" s="8">
         <v>166.83459999999999</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E45" s="8">
         <v>172.87</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F45" s="8">
         <v>10.820973830220426</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G45" s="8">
         <v>5.7584099999999996</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="5">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="5">
         <v>2022</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D46" s="6">
         <v>167.7371</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E46" s="6">
         <v>172.87</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F46" s="6">
         <v>10.537379166203898</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G46" s="6">
         <v>8.8308599999999995</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="7">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="7">
         <v>2022</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D47" s="8">
         <v>169.39779999999999</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E47" s="8">
         <v>172.87</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F47" s="8">
         <v>9.4754731203904097</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G47" s="8">
         <v>6.8888299999999996</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="18" hidden="1" customHeight="1">
-      <c r="B47" s="9">
+    <row r="48" spans="2:7" ht="18" hidden="1" customHeight="1">
+      <c r="B48" s="9">
         <v>2022</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D48" s="10">
         <v>170.8032</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E48" s="10">
         <v>172.87</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F48" s="10">
         <v>8.858127860430498</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G48" s="10">
         <v>5.6387499999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="12">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="12">
         <v>2021</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D49" s="13">
         <v>140.83420000000001</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="13">
         <v>141.69999999999999</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="13">
         <v>7.4876456534687996</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G49" s="13">
         <v>5.6811499999999997</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="5">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="5">
         <v>2021</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D50" s="6">
         <v>141.3451</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E50" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F50" s="6">
         <v>7.4221022634149536</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G50" s="6">
         <v>5.46685</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="7">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="7">
         <v>2021</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D51" s="8">
         <v>142.9632</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E51" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F51" s="8">
         <v>7.4943963321753237</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G51" s="8">
         <v>4.3498400000000004</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="5">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="5">
         <v>2021</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D52" s="6">
         <v>144.16079999999999</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F52" s="6">
         <v>7.2551848428966892</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G52" s="6">
         <v>6.5983599999999996</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="7">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="7">
         <v>2021</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D53" s="8">
         <v>145.04929999999999</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E53" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F53" s="8">
         <v>7.4497652308630036</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G53" s="8">
         <v>5.70878</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="5">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="5">
         <v>2021</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D54" s="6">
         <v>145.3262</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E54" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F54" s="6">
         <v>7.4547280745579148</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G54" s="6">
         <v>5.6227299999999998</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="7">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="7">
         <v>2021</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D55" s="8">
         <v>146.18</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E55" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F55" s="8">
         <v>6.0634394773699363</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G55" s="8">
         <v>5.6012399999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="5">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="5">
         <v>2021</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D56" s="6">
         <v>146.9589</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E56" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F56" s="6">
         <v>6.1525731513115467</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G56" s="6">
         <v>4.5034099999999997</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="7">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="7">
         <v>2021</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D57" s="8">
         <v>147.25890000000001</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E57" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F57" s="8">
         <v>5.9561618976688102</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G57" s="8">
         <v>5.6467400000000003</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="5">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="5">
         <v>2021</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D58" s="6">
         <v>147.74090000000001</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E58" s="6">
         <v>141.69999999999999</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F58" s="6">
         <v>7.0554176776254529</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G58" s="6">
         <v>5.7310600000000003</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="7">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="7">
         <v>2021</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D59" s="8">
         <v>148.9624</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E59" s="8">
         <v>141.69999999999999</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F59" s="8">
         <v>8.0704931821570227</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G59" s="8">
         <v>4.4228899999999998</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="9">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="9">
         <v>2021</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D60" s="10">
         <v>149.90450000000001</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E60" s="10">
         <v>141.69999999999999</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F60" s="10">
         <v>8.2269715580314706</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G60" s="10">
         <v>3.8172199999999998</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="12">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="12">
         <v>2020</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C61" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D61" s="13">
         <v>131.47470000000001</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E61" s="13">
         <v>123.22</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F61" s="13">
         <v>7.8999918968648553</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G61" s="13">
         <v>6.7025100000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="5">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="5">
         <v>2020</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D62" s="6">
         <v>131.9759</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E62" s="6">
         <v>123.22</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F62" s="6">
         <v>7.9355051734412374</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G62" s="6">
         <v>5.1872999999999996</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="7">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="7">
         <v>2020</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D63" s="8">
         <v>132.0754</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E63" s="8">
         <v>123.22</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F63" s="8">
         <v>7.667215188304155</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G63" s="8">
         <v>4.2006399999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="5">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="5">
         <v>2020</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D64" s="6">
         <v>132.8817</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E64" s="6">
         <v>123.22</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F64" s="6">
         <v>7.572928895459996</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G64" s="6">
         <v>4.3477100000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="7">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="7">
         <v>2020</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D65" s="8">
         <v>133.18600000000001</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E65" s="8">
         <v>123.22</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F65" s="8">
         <v>6.4420399377693061</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G65" s="8">
         <v>4.3611000000000004</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="5">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="5">
         <v>2020</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D66" s="6">
         <v>133.71029999999999</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E66" s="6">
         <v>123.22</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F66" s="6">
         <v>6.4297547455233861</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G66" s="6">
         <v>6.7050200000000002</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="7">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="7">
         <v>2020</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D67" s="8">
         <v>134.58840000000001</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E67" s="8">
         <v>123.22</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F67" s="8">
         <v>8.1367830039574827</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G67" s="8">
         <v>4.9153900000000004</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="5">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="5">
         <v>2020</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D68" s="6">
         <v>135.32499999999999</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E68" s="6">
         <v>123.22</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F68" s="6">
         <v>8.087887794221249</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G68" s="6">
         <v>4.99268</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="7">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="7">
         <v>2020</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D69" s="8">
         <v>135.8458</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E69" s="8">
         <v>123.22</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F69" s="8">
         <v>8.0053110638582439</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G69" s="8">
         <v>5.6751199999999997</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="5">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="5">
         <v>2020</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D70" s="6">
         <v>134.46870000000001</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E70" s="6">
         <v>123.22</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F70" s="6">
         <v>7.0924734355956254</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G70" s="6">
         <v>5.7827799999999998</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="7">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="7">
         <v>2020</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D71" s="8">
         <v>134.40459999999999</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E71" s="8">
         <v>123.22</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F71" s="8">
         <v>6.4306785406937461</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G71" s="8">
         <v>5.6176599999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="9">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="9">
         <v>2020</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D72" s="10">
         <v>134.96270000000001</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E72" s="10">
         <v>123.22</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F72" s="10">
         <v>6.4211541409388229</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G72" s="10">
         <v>5.1429299999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="12">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="12">
         <v>2019</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C73" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D73" s="13">
         <v>113.0099</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E73" s="13">
         <v>102.68</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F73" s="13">
         <v>6.7128637984119832</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G73" s="13">
         <v>5.8932900000000004</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="5">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="5">
         <v>2019</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D74" s="6">
         <v>113.64060000000001</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E74" s="6">
         <v>102.68</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F74" s="6">
         <v>6.5416981673249053</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G74" s="6">
         <v>5.9055099999999996</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="7">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="7">
         <v>2019</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D75" s="8">
         <v>114.5573</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E75" s="8">
         <v>102.68</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F75" s="8">
         <v>6.4472883165934025</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G75" s="8">
         <v>4.1060999999999996</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="5">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="5">
         <v>2019</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D76" s="6">
         <v>115.1756</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="6">
         <v>102.68</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F76" s="6">
         <v>6.4399213093690122</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G76" s="6">
         <v>6.1267500000000004</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="7">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="7">
         <v>2019</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D77" s="8">
         <v>115.4778</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E77" s="8">
         <v>102.68</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F77" s="8">
         <v>6.6044306496492178</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G77" s="8">
         <v>4.6333599999999997</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="5">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="5">
         <v>2019</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D78" s="6">
         <v>115.4589</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E78" s="6">
         <v>102.68</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F78" s="6">
         <v>6.5149948776746625</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G78" s="6">
         <v>5.6531700000000003</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="7">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="7">
         <v>2019</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D79" s="8">
         <v>115.8926</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E79" s="8">
         <v>102.68</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F79" s="8">
         <v>6.5571792302960175</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G79" s="8">
         <v>7.4020799999999998</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="5">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="5">
         <v>2019</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D80" s="6">
         <v>115.9667</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E80" s="6">
         <v>102.68</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F80" s="6">
         <v>6.6877554429744412</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G80" s="6">
         <v>6.1700699999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="7">
+    <row r="81" spans="2:10" hidden="1">
+      <c r="B81" s="7">
         <v>2019</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D81" s="8">
         <v>115.63290000000001</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E81" s="8">
         <v>102.68</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F81" s="8">
         <v>6.9657750632007742</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G81" s="8">
         <v>5.08446</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1">
-      <c r="B81" s="5">
+    <row r="82" spans="2:10" hidden="1">
+      <c r="B82" s="5">
         <v>2019</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D82" s="6">
         <v>115.6943</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E82" s="6">
         <v>102.68</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F82" s="6">
         <v>6.7325048800213505</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G82" s="6">
         <v>6.7683299999999997</v>
       </c>
     </row>
-    <row r="82" spans="2:10" hidden="1">
-      <c r="B82" s="7">
+    <row r="83" spans="2:10" hidden="1">
+      <c r="B83" s="7">
         <v>2019</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D83" s="8">
         <v>116.1399</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E83" s="8">
         <v>102.68</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F83" s="8">
         <v>6.9307872714849283</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G83" s="8">
         <v>6.3011699999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1">
-      <c r="B83" s="9">
+    <row r="84" spans="2:10" hidden="1">
+      <c r="B84" s="9">
         <v>2019</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C84" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D84" s="10">
         <v>116.10720000000001</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E84" s="10">
         <v>102.68</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F84" s="10">
         <v>6.941530195558232</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G84" s="10">
         <v>5.2492299999999998</v>
       </c>
     </row>
-    <row r="84" spans="2:10" hidden="1">
-      <c r="B84" s="7">
+    <row r="85" spans="2:10" hidden="1">
+      <c r="B85" s="7">
         <v>2018</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C85" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D85" s="8">
         <v>100</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E85" s="8">
         <v>88.36</v>
       </c>
-      <c r="F84" s="8">
+      <c r="F85" s="8">
         <v>5.3789897305661416</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G85" s="8">
         <v>6.6267500000000004</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1">
-      <c r="B85" s="5">
+    <row r="86" spans="2:10" hidden="1">
+      <c r="B86" s="5">
         <v>2018</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D86" s="6">
         <v>100.7009</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E86" s="6">
         <v>88.36</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F86" s="6">
         <v>5.9138870881875416</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G86" s="6">
         <v>5.2983399999999996</v>
       </c>
     </row>
-    <row r="86" spans="2:10" hidden="1">
-      <c r="B86" s="7">
+    <row r="87" spans="2:10" hidden="1">
+      <c r="B87" s="7">
         <v>2018</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C87" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D87" s="8">
         <v>101.55759999999999</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E87" s="8">
         <v>88.36</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F87" s="8">
         <v>5.8335904693498586</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G87" s="8">
         <v>3.8095400000000001</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1">
-      <c r="B87" s="5">
+    <row r="88" spans="2:10" hidden="1">
+      <c r="B88" s="5">
         <v>2018</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D88" s="6">
         <v>102.0839</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E88" s="6">
         <v>88.36</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F88" s="6">
         <v>5.8410211118133493</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G88" s="6">
         <v>5.7895099999999999</v>
       </c>
     </row>
-    <row r="88" spans="2:10" hidden="1">
-      <c r="B88" s="7">
+    <row r="89" spans="2:10" hidden="1">
+      <c r="B89" s="7">
         <v>2018</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D89" s="8">
         <v>102.51560000000001</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E89" s="8">
         <v>88.36</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F89" s="8">
         <v>5.9201670859141631</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G89" s="8">
         <v>5.9572500000000002</v>
       </c>
     </row>
-    <row r="89" spans="2:10" hidden="1">
-      <c r="B89" s="5">
+    <row r="90" spans="2:10" hidden="1">
+      <c r="B90" s="5">
         <v>2018</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D90" s="6">
         <v>103.11369999999999</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E90" s="6">
         <v>88.36</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F90" s="6">
         <v>5.9473467068114516</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G90" s="6">
         <v>6.0968299999999997</v>
       </c>
     </row>
-    <row r="90" spans="2:10" hidden="1">
-      <c r="B90" s="7">
+    <row r="91" spans="2:10" hidden="1">
+      <c r="B91" s="7">
         <v>2018</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D91" s="8">
         <v>103.6664</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E91" s="8">
         <v>88.36</v>
       </c>
-      <c r="F90" s="8">
+      <c r="F91" s="8">
         <v>5.7562832517160434</v>
       </c>
-      <c r="G90" s="8">
+      <c r="G91" s="8">
         <v>4.5519999999999996</v>
       </c>
     </row>
-    <row r="91" spans="2:10" hidden="1">
-      <c r="B91" s="5">
+    <row r="92" spans="2:10" hidden="1">
+      <c r="B92" s="5">
         <v>2018</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D92" s="6">
         <v>104.0668</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E92" s="6">
         <v>88.36</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F92" s="6">
         <v>5.433721276431358</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G92" s="6">
         <v>6.0502200000000004</v>
       </c>
     </row>
-    <row r="92" spans="2:10" hidden="1">
-      <c r="B92" s="7">
+    <row r="93" spans="2:10" hidden="1">
+      <c r="B93" s="7">
         <v>2018</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D93" s="8">
         <v>103.8981</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E93" s="8">
         <v>88.36</v>
       </c>
-      <c r="F92" s="8">
+      <c r="F93" s="8">
         <v>5.8376710655503983</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G93" s="8">
         <v>4.5923600000000002</v>
       </c>
     </row>
-    <row r="93" spans="2:10" hidden="1">
-      <c r="B93" s="5">
+    <row r="94" spans="2:10" hidden="1">
+      <c r="B94" s="5">
         <v>2018</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D94" s="6">
         <v>103.5459</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E94" s="6">
         <v>88.36</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F94" s="6">
         <v>5.9410164373325358</v>
       </c>
-      <c r="G93" s="6">
+      <c r="G94" s="6">
         <v>5.52257</v>
-      </c>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-    </row>
-    <row r="94" spans="2:10" ht="18" hidden="1" customHeight="1">
-      <c r="B94" s="7">
-        <v>2018</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="8">
-        <v>103.88079999999999</v>
-      </c>
-      <c r="E94" s="8">
-        <v>88.36</v>
-      </c>
-      <c r="F94" s="8">
-        <v>5.4159083624427007</v>
-      </c>
-      <c r="G94" s="8">
-        <v>5.4624600000000001</v>
       </c>
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
-      <c r="J94" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" hidden="1">
-      <c r="B95" s="5">
+    </row>
+    <row r="95" spans="2:10" ht="18" hidden="1" customHeight="1">
+      <c r="B95" s="7">
         <v>2018</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="6">
-        <v>104.2765</v>
-      </c>
-      <c r="E95" s="6">
+      <c r="C95" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="8">
+        <v>103.88079999999999</v>
+      </c>
+      <c r="E95" s="8">
         <v>88.36</v>
       </c>
-      <c r="F95" s="6">
-        <v>5.125430913865392</v>
-      </c>
-      <c r="G95" s="6">
-        <v>4.7389599999999996</v>
+      <c r="F95" s="8">
+        <v>5.4159083624427007</v>
+      </c>
+      <c r="G95" s="8">
+        <v>5.4624600000000001</v>
       </c>
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="B96" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="F96" s="3"/>
+      <c r="J95" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" hidden="1">
+      <c r="B96" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="6">
+        <v>104.2765</v>
+      </c>
+      <c r="E96" s="6">
+        <v>88.36</v>
+      </c>
+      <c r="F96" s="6">
+        <v>5.125430913865392</v>
+      </c>
+      <c r="G96" s="6">
+        <v>4.7389599999999996</v>
+      </c>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-    </row>
-    <row r="99" spans="2:7">
-      <c r="B99" s="1" t="s">
+      <c r="D99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G99" s="15"/>
-    </row>
-    <row r="100" spans="2:7">
       <c r="G100" s="15"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="G101" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
